--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1311379760259805</v>
+        <v>0.1323001891595865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03509193461361974</v>
+        <v>0.08837678875222102</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005604985798151256</v>
+        <v>0.0434557588491339</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0520752715571274</v>
+        <v>0.02525686307912235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04176375039860375</v>
+        <v>0.05238793205935759</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01287795990035825</v>
+        <v>0.02765729586824761</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06553385169362855</v>
+        <v>0.04918081719393735</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05106557679427721</v>
+        <v>0.0522106558273099</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005558189248684462</v>
+        <v>0.01666085978830065</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07021816409074103</v>
+        <v>0.08035491783479895</v>
       </c>
       <c r="O2" t="n">
-        <v>0.009046951627040329</v>
+        <v>0.01534010298729002</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08633715025608273</v>
+        <v>0.1140711293093035</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.09916510800938041</v>
+        <v>0.03188039610164067</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07894579139126603</v>
+        <v>0.05146260963063443</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03506726396854574</v>
+        <v>0.02153828699530582</v>
       </c>
       <c r="T2" t="n">
-        <v>0.006968018416623091</v>
+        <v>0.04117334697461012</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08680863946177937</v>
+        <v>0.04076566999164552</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03606844310645665</v>
+        <v>0.01261009697347641</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01692464905268628</v>
+        <v>0.0355359430077505</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01413912258685154</v>
+        <v>0.03544446029082696</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01228287703539438</v>
+        <v>0.004422864373402205</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08271572045568168</v>
+        <v>0.005232342004456035</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02718961322301107</v>
+        <v>0.1065488449007678</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06855096731400909</v>
+        <v>0.04843201720646059</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1246424881883873</v>
+        <v>0.1424201652695178</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1513135159295493</v>
+        <v>0.1420777294637225</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005127860616857856</v>
+        <v>0.120176360855731</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01290378080962909</v>
+        <v>0.02934610277519431</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004604119636376634</v>
+        <v>0.01879664267357864</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08058677048864837</v>
+        <v>0.05351153298060613</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009570842865068527</v>
+        <v>0.003656344238691018</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000354655024673307</v>
+        <v>0.07826875499463733</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07115949325177003</v>
+        <v>0.01148213543249413</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04288704813470241</v>
+        <v>0.02411377702430692</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04326301790586518</v>
+        <v>0.0617558212427222</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02189708799832788</v>
+        <v>0.01150651442887135</v>
       </c>
       <c r="P3" t="n">
-        <v>8.744091244696552e-05</v>
+        <v>0.01541278240100163</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08302285519184487</v>
+        <v>0.04864747539922864</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1122836887107064</v>
+        <v>0.04410333677052037</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06180635728033099</v>
+        <v>0.03546628241157919</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0897518787659019</v>
+        <v>0.09381801445284851</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0410420982021396</v>
+        <v>0.07621952702747271</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1047376692338796</v>
+        <v>0.004826578274055078</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02536033366069082</v>
+        <v>0.04441576137428685</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02389553527773593</v>
+        <v>0.0215882215720604</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01190963747815177</v>
+        <v>0.0001035131249155202</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01484182114961749</v>
+        <v>0.002370961767341161</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05411975665311177</v>
+        <v>0.1021001048828908</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.08892995842426153</v>
+        <v>0.09831345389496587</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1263243236859247</v>
+        <v>0.1519146242324391</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1389825325043713</v>
+        <v>0.1407801150130131</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07688374317446424</v>
+        <v>0.07726809324540763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0142034287895611</v>
+        <v>0.03096125510759425</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07291577482232223</v>
+        <v>0.08873217477819426</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00163073463305842</v>
+        <v>0.00476041953798093</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05166728365906844</v>
+        <v>0.009190266007566771</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003298010030964016</v>
+        <v>0.006494775966699502</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01676951078809814</v>
+        <v>0.004184710226796498</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04663112535156107</v>
+        <v>0.03899291231528515</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01282200152160962</v>
+        <v>0.01383752034297472</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06893342858975601</v>
+        <v>0.08425113411367505</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07536099426084744</v>
+        <v>0.08728807777059223</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06172288459900985</v>
+        <v>0.03784678219344093</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01414081975929295</v>
+        <v>0.08058202406365429</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07651549724626087</v>
+        <v>0.08840656180847777</v>
       </c>
       <c r="T4" t="n">
-        <v>0.009265804816305822</v>
+        <v>0.01414252547914254</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03937576500916706</v>
+        <v>0.0809969856336355</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02705415400024857</v>
+        <v>0.02715335737168156</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05496061211871137</v>
+        <v>0.04607696750468706</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07533991355600878</v>
+        <v>0.09071257792445159</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06133608272574818</v>
+        <v>0.008571072021541179</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05568453748151417</v>
+        <v>0.06167020151740166</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02520262514577239</v>
+        <v>0.004021037115616651</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05828526792064929</v>
+        <v>0.01385856795350231</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03832197049564025</v>
+        <v>0.01626309980923994</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1582572101809684</v>
+        <v>0.171857426369519</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06733887224416948</v>
+        <v>0.09119377412725858</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03122257981765642</v>
+        <v>0.04206104539418354</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02983050237641992</v>
+        <v>0.0749142817578181</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04525239253409048</v>
+        <v>0.07943269486332245</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0388547474463458</v>
+        <v>0.07041644349390828</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05080944117983696</v>
+        <v>0.01776703973593966</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05324670006404849</v>
+        <v>0.02180719229805386</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04759170885374188</v>
+        <v>0.002932458027147725</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002291762343264461</v>
+        <v>0.02656797530155134</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05915603560310931</v>
+        <v>0.03675920815540543</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01788815917326109</v>
+        <v>0.002469596578863885</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09072007325710961</v>
+        <v>0.09383120234395237</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05381642981993229</v>
+        <v>0.03262668428161101</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09540440290611729</v>
+        <v>0.0580326950003815</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002323740791242773</v>
+        <v>0.0006581812522780764</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007393189905833786</v>
+        <v>0.009835424942838988</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04184745413782545</v>
+        <v>0.06622370788412232</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0644626935115272</v>
+        <v>0.004104434895044189</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06777942564204786</v>
+        <v>0.0571052717363284</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00858872824581047</v>
+        <v>0.07438750669657043</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.028466006945309</v>
+        <v>0.01369846428862265</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.002499061794285087</v>
+        <v>0.03127770252586135</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.093215891407015</v>
+        <v>0.091897014418936</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02753976281840617</v>
+        <v>0.02379283006678161</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1400481315031269</v>
+        <v>0.1418662058439339</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04441058101378149</v>
+        <v>0.09269654783330314</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02082409271444352</v>
+        <v>0.02931238137613848</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01300396666565296</v>
+        <v>0.003580737876086456</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01218929939611103</v>
+        <v>0.08836150318014727</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0309942172019052</v>
+        <v>0.07381130776740061</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0532278961605305</v>
+        <v>0.03345168118274907</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005345913246469938</v>
+        <v>0.001133578353007021</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03017196104339265</v>
+        <v>0.004326461254973827</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03784999926630302</v>
+        <v>0.02993546829129161</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09537349480634599</v>
+        <v>0.08360679054793285</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08786056762254174</v>
+        <v>0.07057761905018672</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01497241382554626</v>
+        <v>0.04722728324144104</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1130691524128647</v>
+        <v>0.078715422411334</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1100343689740668</v>
+        <v>0.02840480110678766</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1028256320939121</v>
+        <v>0.03568060438545716</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05730208216835832</v>
+        <v>0.03604211450845187</v>
       </c>
       <c r="V6" t="n">
-        <v>0.002245371725081703</v>
+        <v>0.01875857014186645</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06945623354046546</v>
+        <v>0.0986537384275198</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02502831632782525</v>
+        <v>0.05627013451888452</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03396522294055147</v>
+        <v>0.02817378684759625</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.003500940812863303</v>
+        <v>0.00864355285329832</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03621576597055503</v>
+        <v>0.04888028495664338</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0001325100704315155</v>
+        <v>0.0037556298875026</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2243303026666395</v>
+        <v>-0.2272541810922561</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2792965078322829</v>
+        <v>0.2232235400720423</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07293402762781398</v>
+        <v>0.01379670902168378</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02277978950122504</v>
+        <v>0.002213969675902602</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07766815069368609</v>
+        <v>0.08891536223658507</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07662558056302256</v>
+        <v>0.05937029828876952</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0284296381143244</v>
+        <v>0.02289603395945007</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08524961905634611</v>
+        <v>0.0112424828170143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1066606706923911</v>
+        <v>0.08624851364072331</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006297264164363672</v>
+        <v>0.04821885246732811</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003858053573369405</v>
+        <v>0.002901593586326645</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01088289660589354</v>
+        <v>0.008312088407224732</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01304223894307191</v>
+        <v>0.06278015238738319</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09691240998747348</v>
+        <v>0.09721924649920945</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05093803193173366</v>
+        <v>0.02494506301033659</v>
       </c>
       <c r="S7" t="n">
-        <v>0.008910069125598132</v>
+        <v>0.0416034040656407</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03212384688198071</v>
+        <v>0.0276524124102802</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01352604192089077</v>
+        <v>0.05285311140714518</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02728521795010853</v>
+        <v>0.02306234194910775</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04810779490635969</v>
+        <v>0.02952823326920487</v>
       </c>
       <c r="X7" t="n">
-        <v>0.07248489157905133</v>
+        <v>0.08325157050603857</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01100900891631157</v>
+        <v>0.07710415545920278</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01706103930896362</v>
+        <v>0.004195456273586133</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.04451371864322632</v>
+        <v>0.08530020955487158</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07269999931279432</v>
+        <v>0.04638873910698488</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2339339176775717</v>
+        <v>-0.2587639806376527</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1759980204083895</v>
+        <v>0.1762132481367963</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0667068182115229</v>
+        <v>0.03864438963894263</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01547776568506864</v>
+        <v>0.03538934242802915</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07085290080181322</v>
+        <v>0.06637418994699612</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05873470412297299</v>
+        <v>0.04034673488406054</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03333541664236724</v>
+        <v>0.01659633528321165</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01613353185577084</v>
+        <v>0.0250467023863868</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001578883424805297</v>
+        <v>0.01005128033082331</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02294330585197353</v>
+        <v>0.02547440681411857</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03404888675456294</v>
+        <v>0.07359380172037137</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008870306667140677</v>
+        <v>0.00261740132929259</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03199299156818743</v>
+        <v>0.06364355626236706</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08081061584944596</v>
+        <v>0.09979684737131282</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07449036902661318</v>
+        <v>0.09455198772094379</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07828119009844171</v>
+        <v>0.09429644491090382</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05984542781372745</v>
+        <v>0.06540580207322046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05195938643679048</v>
+        <v>0.008369987723102178</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01145052303415683</v>
+        <v>0.008224796887983688</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05024714618685019</v>
+        <v>0.00880092367193264</v>
       </c>
       <c r="X8" t="n">
-        <v>0.06504493330909407</v>
+        <v>0.02511967522140665</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03307232294930426</v>
+        <v>0.07494142688477813</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06583381971464144</v>
+        <v>0.0882843873430335</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.005006991308088099</v>
+        <v>0.02241832967969163</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06470275776898528</v>
+        <v>0.01201124948709114</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3829888486986668</v>
+        <v>-0.3743793175321739</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2485507596815239</v>
+        <v>0.3311895045337737</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1080136013067168</v>
+        <v>0.08813140134956235</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001624055169683131</v>
+        <v>0.02236397709453621</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09064757235027236</v>
+        <v>0.0489953422921383</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04878615738532855</v>
+        <v>0.1078053046876649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05231955038010563</v>
+        <v>0.04068438466467089</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001035229253750001</v>
+        <v>0.00711672141574123</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06950685357172816</v>
+        <v>0.07721074036300728</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006248771297851981</v>
+        <v>0.004994868465437285</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02722551705592252</v>
+        <v>0.0005521363877643471</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01100984469246127</v>
+        <v>0.006958883596419861</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02022571095853705</v>
+        <v>0.08629611533843555</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004342195216414243</v>
+        <v>0.04670018013692873</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1113705550661542</v>
+        <v>0.001176725832252385</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07446186144027681</v>
+        <v>0.0201058898432582</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02073275540198013</v>
+        <v>0.0156608025991151</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02588529856929205</v>
+        <v>0.01439044860669959</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05113726107826395</v>
+        <v>0.09398163705083983</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1064594384973411</v>
+        <v>0.01600201867297979</v>
       </c>
       <c r="X9" t="n">
-        <v>0.007688903496218849</v>
+        <v>0.004840112664770691</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03857770532797368</v>
+        <v>0.05675932638136636</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.002302875976827531</v>
+        <v>0.05549461513466981</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.009638814406949464</v>
+        <v>0.111209736522952</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1107594720999506</v>
+        <v>0.07256863089878941</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4462816903775426</v>
+        <v>-0.462289691914912</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2537372693770659</v>
+        <v>0.2605284006305113</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06367743106187582</v>
+        <v>0.09659335132864448</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01779780671030608</v>
+        <v>0.04172835254932408</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01125009125203107</v>
+        <v>0.03938501249428388</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06657924493572408</v>
+        <v>0.0009955701860942642</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0459101637759119</v>
+        <v>0.01834139700271233</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003497107769857886</v>
+        <v>0.01558003981774772</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01988580664407435</v>
+        <v>0.004761213848405799</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09091941406933686</v>
+        <v>0.002198885527984851</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006979259705975185</v>
+        <v>0.0001554382986639463</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03571715599568319</v>
+        <v>0.03024130019284378</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06249994264286658</v>
+        <v>0.01794261261704886</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03697669905846325</v>
+        <v>0.03034664027103735</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09461828721682537</v>
+        <v>0.1070299649460013</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02800831175810261</v>
+        <v>0.1076749188765722</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01740176000595836</v>
+        <v>0.05891727253932644</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08892098626391898</v>
+        <v>0.1114341478079541</v>
       </c>
       <c r="V10" t="n">
-        <v>0.00500351217691175</v>
+        <v>0.04318104773029969</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07606428251236227</v>
+        <v>0.1046401819031286</v>
       </c>
       <c r="X10" t="n">
-        <v>0.003473447138048667</v>
+        <v>0.0009459362848775451</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07102270978556145</v>
+        <v>0.07827572913919442</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05694475829654628</v>
+        <v>0.01763658062907485</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.00160946512416048</v>
+        <v>0.03606494088949816</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.09524235609949749</v>
+        <v>0.03592946511928129</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.01037654099196293</v>
+        <v>0.004862212323446856</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.019087212615263</v>
+        <v>1.052771040456442</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1068735195554557</v>
+        <v>0.0114812217090743</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01663313212268896</v>
+        <v>0.0006508483967036104</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05443049941466346</v>
+        <v>0.1195645320460405</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05406097620778757</v>
+        <v>0.0367110330967347</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04775885560901995</v>
+        <v>0.02732608009451003</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003318553945026242</v>
+        <v>0.03503720962062235</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02168591137241466</v>
+        <v>0.04727921179256268</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03608886319981489</v>
+        <v>0.005770830802460936</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06007789875206847</v>
+        <v>0.04527126741720937</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04395301994059585</v>
+        <v>0.03412928126155768</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01741511045380702</v>
+        <v>0.02630640565747937</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02590168847883683</v>
+        <v>0.06227899926259453</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00621647486004964</v>
+        <v>0.09722787534300069</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07053400525524867</v>
+        <v>0.03536248884848919</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03104857864137442</v>
+        <v>0.04583662393418671</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05352818022843001</v>
+        <v>0.01444287680398633</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02966590936481792</v>
+        <v>0.05673685697413815</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02306732231650973</v>
+        <v>0.04017253886822445</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1260651274994314</v>
+        <v>0.1308821933433365</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.09199800407795196</v>
+        <v>0.02432503565159553</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02422237314021921</v>
+        <v>0.01917375900480909</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02979898559151461</v>
+        <v>0.03833049468444506</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02565700997227275</v>
+        <v>0.04570233538623805</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.004768654298529378</v>
+        <v>0.0179918748571623</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2654659009332744</v>
+        <v>0.276022885985771</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1003694698535611</v>
+        <v>0.04172123959734661</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00811267287065481</v>
+        <v>0.03958092538969729</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01755358262311936</v>
+        <v>0.0158888905977207</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006430084918178266</v>
+        <v>0.01016812693394351</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0548898999250628</v>
+        <v>0.04013931991702566</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09625477609299939</v>
+        <v>0.02100079253446764</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02033355423949976</v>
+        <v>0.03338666443322422</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01729943483590192</v>
+        <v>0.02633193343270684</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03139277262073507</v>
+        <v>0.02139411294895783</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006849389349336631</v>
+        <v>0.07119819189843828</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05113230205238632</v>
+        <v>0.07956572992253089</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0517743517819352</v>
+        <v>0.05736143198299255</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08265992518759178</v>
+        <v>0.050284179571965</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0983829601229199</v>
+        <v>0.08033017625971473</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02984402869151071</v>
+        <v>0.07099374779524521</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01317530172781026</v>
+        <v>0.05098247776342785</v>
       </c>
       <c r="V12" t="n">
-        <v>0.005646379825548442</v>
+        <v>0.00718995648257502</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1096403006238982</v>
+        <v>0.07587095933208847</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0003548657465682919</v>
+        <v>0.01026958112657269</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.03752596045580184</v>
+        <v>0.06394979767999626</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.07335204722987586</v>
+        <v>0.0638338390196507</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02278510997529521</v>
+        <v>0.02527050142767804</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.06424082924980881</v>
+        <v>0.04328742395203387</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2272035450419239</v>
+        <v>0.2376503796500293</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6194481634658211</v>
+        <v>0.5665692639046317</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06121537494499261</v>
+        <v>0.03393749542761524</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06373470448210862</v>
+        <v>0.009975296461598117</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03204774999639878</v>
+        <v>0.04890729731189055</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1142004779213837</v>
+        <v>0.09974169144086874</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06100432925542691</v>
+        <v>0.09323830145361674</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0388702220151039</v>
+        <v>0.06522556369166625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01786316197589712</v>
+        <v>0.01323854225189167</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03342209999637581</v>
+        <v>0.02412634591130425</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04517379935311867</v>
+        <v>0.1067693297978394</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00803706368046225</v>
+        <v>0.01640020070983468</v>
       </c>
       <c r="P13" t="n">
-        <v>0.008171124873286436</v>
+        <v>0.0284482767312263</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006580694221744858</v>
+        <v>0.02374068263933924</v>
       </c>
       <c r="R13" t="n">
-        <v>0.002613670224579168</v>
+        <v>0.01381165291558161</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03850917195455989</v>
+        <v>0.08333124232598506</v>
       </c>
       <c r="T13" t="n">
-        <v>0.06005572196767158</v>
+        <v>0.01476234564192818</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09576130317795079</v>
+        <v>0.04168892330081143</v>
       </c>
       <c r="V13" t="n">
-        <v>0.08267747714327461</v>
+        <v>0.07740856009706712</v>
       </c>
       <c r="W13" t="n">
-        <v>0.005126241039642751</v>
+        <v>0.07740426385457715</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02073779431139755</v>
+        <v>0.001830975237939698</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.08235406282743775</v>
+        <v>0.08770494312373713</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02218985814814304</v>
+        <v>0.02876599178567598</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.005562979695821727</v>
+        <v>0.007145250939624149</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09409091679322143</v>
+        <v>0.002396826948381357</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.3166252461155665</v>
+        <v>0.2560882449064057</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2715496235883064</v>
+        <v>0.2727677045647919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06408635060993492</v>
+        <v>0.06774104142621347</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02622094531256383</v>
+        <v>0.01041972753018641</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02629089452850018</v>
+        <v>0.001577865118161467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06116270120621863</v>
+        <v>0.01127738012659312</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0108765541171913</v>
+        <v>0.04017899285483194</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01111609897322064</v>
+        <v>0.005436630333802463</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05286564082808824</v>
+        <v>0.05827507027433118</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01752536256677126</v>
+        <v>0.06031901525770902</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01090415593499845</v>
+        <v>0.006545652587781766</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02336391555489364</v>
+        <v>0.009416205974272066</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07525666436569275</v>
+        <v>0.03686431025058385</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01426942954871704</v>
+        <v>0.07778394990859649</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08632606237455291</v>
+        <v>0.1021702957223822</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09330176660653661</v>
+        <v>0.09594620758332208</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02218471863144226</v>
+        <v>0.001445114652297395</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07487613312110042</v>
+        <v>6.560816074204877e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>0.001422150832197146</v>
+        <v>0.0004244218829937105</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08020582620164582</v>
+        <v>0.04918431834009766</v>
       </c>
       <c r="X14" t="n">
-        <v>0.07337064083308761</v>
+        <v>0.04949614046701054</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02669281322852837</v>
+        <v>0.1177760004793849</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.03884657235834311</v>
+        <v>0.1045148873636093</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03038725845552669</v>
+        <v>0.02298390875491182</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0784473438102482</v>
+        <v>0.07015725495018531</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.004423785107041965</v>
+        <v>-0.01639610553023982</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3668369274729387</v>
+        <v>0.3455237496135722</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0996025989244527</v>
+        <v>0.01010296384979606</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03441282050027299</v>
+        <v>0.08024718041170818</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01478057711160424</v>
+        <v>0.02198732807436828</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02583665460437765</v>
+        <v>0.07294350100793116</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000911515697538464</v>
+        <v>0.02970296008081651</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02998325945189328</v>
+        <v>0.01810272913867437</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08973433923333729</v>
+        <v>0.04415184381589296</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002796880750190126</v>
+        <v>0.004222754863384928</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09248495241686588</v>
+        <v>0.07582745808425384</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01930183479401295</v>
+        <v>0.02119330449725016</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0329717373127447</v>
+        <v>0.02854634142841856</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.05818094986950649</v>
+        <v>0.0003456789310377426</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0975966261878473</v>
+        <v>0.0409329967762242</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03648313896183709</v>
+        <v>0.08591581488021689</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001229744506086752</v>
+        <v>0.002377578200114505</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1124461693608972</v>
+        <v>0.0698138780105447</v>
       </c>
       <c r="V15" t="n">
-        <v>0.09044604533262805</v>
+        <v>0.07510453412367984</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02540675643097455</v>
+        <v>0.06672473633048996</v>
       </c>
       <c r="X15" t="n">
-        <v>0.004099161545972414</v>
+        <v>0.03626628881900722</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03029649581306866</v>
+        <v>0.01106083087583</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02492150867541989</v>
+        <v>0.05562331088598119</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.00646216224868</v>
+        <v>0.06466111431091036</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.06961407026979112</v>
+        <v>0.08414487260346822</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.006540903902411247</v>
+        <v>0.01496293281258154</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2772418687757123</v>
+        <v>0.2745345791689627</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07990621439495174</v>
+        <v>0.02996231695885275</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05571708324473509</v>
+        <v>0.03399897396456484</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01365714445050389</v>
+        <v>0.01217243049995245</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08932606382853854</v>
+        <v>0.06240331444451695</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0478481245128056</v>
+        <v>0.08805408447429047</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04299735030613455</v>
+        <v>0.001051707300364837</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00978302621525234</v>
+        <v>0.009768338306123765</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004256387243162658</v>
+        <v>0.02625506807125008</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002799099638859759</v>
+        <v>0.007951225787238139</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02323936933754278</v>
+        <v>0.05073547861777302</v>
       </c>
       <c r="P16" t="n">
-        <v>0.09088571376672619</v>
+        <v>0.01933890613785956</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07866591003334003</v>
+        <v>0.06979605412318293</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06256132520853409</v>
+        <v>0.1203813669370006</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06151860979593771</v>
+        <v>0.08091660482290966</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0088368271333795</v>
+        <v>0.0003730019776417979</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02468134760898987</v>
+        <v>0.06148845105883072</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01902369985167953</v>
+        <v>0.01549240357328444</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08920268825425619</v>
+        <v>0.07477618425644098</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0676110787477055</v>
+        <v>0.01413333687375975</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03752997985622394</v>
+        <v>0.0504288397432613</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.05784452260769305</v>
+        <v>0.09056635547925862</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01048590430749784</v>
+        <v>0.0253265629604014</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02162252965554967</v>
+        <v>0.05462899363124086</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1335703189756821</v>
+        <v>0.1421679474362366</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3412642598704564</v>
+        <v>0.3271953996040623</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07106790316245004</v>
+        <v>0.08469436722025728</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0007468300173143616</v>
+        <v>0.03491313564464781</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006330826653728406</v>
+        <v>0.03706880462644919</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06207417314714211</v>
+        <v>0.0146162854101424</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08507215790151905</v>
+        <v>0.1161994825532061</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08513122273951715</v>
+        <v>0.01905598188913564</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03172779779608021</v>
+        <v>0.02720062691046895</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03288366797047671</v>
+        <v>0.0107060981866515</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0002261064419780771</v>
+        <v>0.02186494708673304</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0573656880348816</v>
+        <v>0.0334231497963031</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0005979713287307543</v>
+        <v>0.03737042775431834</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001832303231717511</v>
+        <v>0.01381296620139463</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04495524601563784</v>
+        <v>0.04681726584266435</v>
       </c>
       <c r="S17" t="n">
-        <v>0.05399277803081577</v>
+        <v>0.0742803209819602</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04404394475724811</v>
+        <v>0.006220891353781538</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05474314380107058</v>
+        <v>0.0940436991135617</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0851758919466027</v>
+        <v>0.07831126128759974</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04433555804248859</v>
+        <v>0.04364704461017985</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02963858954834789</v>
+        <v>0.04174725916255422</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0347606836510314</v>
+        <v>0.01388852286526255</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.05733523488280107</v>
+        <v>0.07355971408825786</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0425533354502171</v>
+        <v>0.01823092990093412</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.07340894544820302</v>
+        <v>0.05832681751353612</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2246548148930674</v>
+        <v>0.2057615078853936</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1921278434757925</v>
+        <v>0.1959897463865419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04035900388612089</v>
+        <v>0.05399771201422545</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06661199186480703</v>
+        <v>0.02672996227707983</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007561238419074052</v>
+        <v>0.02207518141072504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03612954922382001</v>
+        <v>0.07169130799007024</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001455842257768476</v>
+        <v>0.02086047784539794</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05417588986798164</v>
+        <v>0.01750514487687701</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01588157304441703</v>
+        <v>0.03735349976308688</v>
       </c>
       <c r="M18" t="n">
-        <v>0.008204213790882509</v>
+        <v>0.0253160618050771</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0005199900567231291</v>
+        <v>0.02768958465394643</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0751737331532279</v>
+        <v>0.003711571770163079</v>
       </c>
       <c r="P18" t="n">
-        <v>0.09490999865004909</v>
+        <v>0.01330620090018167</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.09101745829474903</v>
+        <v>0.04286307045317881</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0846825135815643</v>
+        <v>0.07165463961391351</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08049891600569972</v>
+        <v>0.08317653587704744</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03951818247751225</v>
+        <v>0.02318469537117892</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05533096891154962</v>
+        <v>0.05429371133381292</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0008626019734158003</v>
+        <v>0.01637111930293626</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07940608681636516</v>
+        <v>0.07937134455267908</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0361075497236556</v>
+        <v>0.07440115519042999</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03281686304603709</v>
+        <v>0.05872242132153758</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.06051729233829596</v>
+        <v>0.09108186098285564</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.027324853616112</v>
+        <v>0.07687428340453659</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01773880357733841</v>
+        <v>0.007768457289062719</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.05990258184423539</v>
+        <v>0.0475624122425268</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2633276802983289</v>
+        <v>0.2504887928375359</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08223912511296311</v>
+        <v>0.08516005507293621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06563101627529108</v>
+        <v>0.02226455757536683</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08863911449397913</v>
+        <v>0.07270188082091621</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002676598789756635</v>
+        <v>0.0337675539408034</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07465866941537876</v>
+        <v>0.0945816000638622</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05643884331544914</v>
+        <v>0.04890968714262564</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08939079732481589</v>
+        <v>0.08904411513323043</v>
       </c>
       <c r="M19" t="n">
-        <v>0.027297878267096</v>
+        <v>0.02117023550173313</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01794009955586389</v>
+        <v>0.01217098749947103</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0295530938714501</v>
+        <v>0.02546511719844545</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02639226825748407</v>
+        <v>0.02236183405608312</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03344593942739987</v>
+        <v>0.002448989418785191</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02167644773349481</v>
+        <v>0.01781901278831885</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08561260872816581</v>
+        <v>0.06965341587472948</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03457397744408722</v>
+        <v>0.03484302804493886</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06758829090557214</v>
+        <v>0.03794761255224708</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01338203784728363</v>
+        <v>0.007690147268977269</v>
       </c>
       <c r="W19" t="n">
-        <v>0.04244760627818989</v>
+        <v>0.06534491626800441</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0008171374281871768</v>
+        <v>0.01477232273921975</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0003455441334805518</v>
+        <v>0.0315001516552059</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.05444748489164305</v>
+        <v>0.09548867420944852</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07407941767537249</v>
+        <v>0.09212768303385892</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01072600282759553</v>
+        <v>0.002766422140791979</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07601689157988592</v>
+        <v>0.06977307085352141</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1672399948385136</v>
+        <v>0.170812663480981</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09707394662722453</v>
+        <v>0.0699775926049329</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0642695695150188</v>
+        <v>0.01724507275478113</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06479854793029259</v>
+        <v>0.07565370191298004</v>
       </c>
       <c r="I20" t="n">
-        <v>0.025398494473974</v>
+        <v>0.01753389473764674</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02405458619326088</v>
+        <v>0.002750144206297845</v>
       </c>
       <c r="K20" t="n">
-        <v>0.009156627428453499</v>
+        <v>0.05527787833344264</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03675614209788575</v>
+        <v>0.0008935086974366166</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0247401831404312</v>
+        <v>0.07664990557775228</v>
       </c>
       <c r="N20" t="n">
-        <v>0.002854626806160313</v>
+        <v>0.01781811173512404</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0368287424578899</v>
+        <v>0.02392288959298436</v>
       </c>
       <c r="P20" t="n">
-        <v>0.07820064539514053</v>
+        <v>0.09998188791729953</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.004608351737942502</v>
+        <v>0.03093843049294035</v>
       </c>
       <c r="R20" t="n">
-        <v>0.09678115183608695</v>
+        <v>0.06796477966977869</v>
       </c>
       <c r="S20" t="n">
-        <v>0.04757378180327604</v>
+        <v>0.05540512157728667</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01052354754617406</v>
+        <v>0.01150539631293224</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09324817223452429</v>
+        <v>0.07464618345369262</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01630157025311032</v>
+        <v>0.008306340462017298</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07206670664883438</v>
+        <v>0.09915106455093482</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05383823481861405</v>
+        <v>0.04439376338785563</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.03267124574271554</v>
+        <v>0.04702114095254283</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.007065143003510855</v>
+        <v>0.01654037644325436</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.09517424698867408</v>
+        <v>0.08128755568444873</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.006015735320804903</v>
+        <v>0.005135258941637583</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1505904627918633</v>
+        <v>-0.1549612290636011</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2001844925739333</v>
+        <v>0.2284458913223252</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05971030480593008</v>
+        <v>0.05128453705758917</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00283875978192163</v>
+        <v>0.008859291024517242</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07035825839542013</v>
+        <v>0.01533215071141799</v>
       </c>
       <c r="I21" t="n">
-        <v>0.003414977875681716</v>
+        <v>0.038774712957758</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08695610102167266</v>
+        <v>0.08395778776849812</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01779998293719329</v>
+        <v>0.1013281940361185</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08880361202148823</v>
+        <v>0.03849882479701325</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03327098365091422</v>
+        <v>0.001726935617700602</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01042297958169324</v>
+        <v>0.0002253549984228915</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008943516702718753</v>
+        <v>0.02945109125722771</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02049948372574736</v>
+        <v>0.01888378151863286</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01323396296471983</v>
+        <v>0.03267469183460188</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1132872529321815</v>
+        <v>0.09432501453491392</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03911477749281596</v>
+        <v>0.09200548200413629</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03485241086063407</v>
+        <v>0.00698621322226566</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0283520626355877</v>
+        <v>0.02603695738474846</v>
       </c>
       <c r="V21" t="n">
-        <v>0.11962342182894</v>
+        <v>0.08160582800014234</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01273233204337152</v>
+        <v>0.0172539390925604</v>
       </c>
       <c r="X21" t="n">
-        <v>0.08301999631974161</v>
+        <v>0.006811399777509966</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0002265156114716331</v>
+        <v>0.05973565489547177</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.08063046177819426</v>
+        <v>0.0276435570655539</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.05754411590600749</v>
+        <v>0.09201450946755334</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01436372912595313</v>
+        <v>0.07458409097564571</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1845531759377336</v>
+        <v>-0.1967736510113334</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1941457983339667</v>
+        <v>0.1942663432400356</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08012726446688245</v>
+        <v>0.09012347839211304</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02806230125654992</v>
+        <v>0.001062024276218545</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04154190421956822</v>
+        <v>0.08817519949638171</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006436896399505144</v>
+        <v>0.0140349578978103</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03124044732652213</v>
+        <v>0.03893549114565499</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003132270204010133</v>
+        <v>0.009851489649653209</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01787046752332061</v>
+        <v>0.003965107960630344</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06671716423010166</v>
+        <v>0.01901904179134882</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0161964726837546</v>
+        <v>0.02482102491313228</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03803309518027352</v>
+        <v>0.02886201950113327</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08371825608635222</v>
+        <v>0.07241994430244419</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0360949325311292</v>
+        <v>0.07857117861860159</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0376022700571226</v>
+        <v>0.08408458889108296</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05489968400309617</v>
+        <v>0.06996712287951384</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01143501807347069</v>
+        <v>0.02501392083499503</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08538569326077665</v>
+        <v>0.07263551043239226</v>
       </c>
       <c r="V22" t="n">
-        <v>0.02898498574900142</v>
+        <v>0.0008634509920304248</v>
       </c>
       <c r="W22" t="n">
-        <v>0.06220319456420419</v>
+        <v>0.05078155525465602</v>
       </c>
       <c r="X22" t="n">
-        <v>0.05965059721565503</v>
+        <v>0.0520275266608182</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1060271575993659</v>
+        <v>0.05761603211862651</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.06100630027055622</v>
+        <v>0.05149357617609193</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03772988966578172</v>
+        <v>0.0431556000779223</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.00590373743299936</v>
+        <v>0.0225201577367482</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.04784673114388276</v>
+        <v>0.04881641967134771</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2072899525912689</v>
+        <v>0.2049928426227469</v>
       </c>
       <c r="F23" t="n">
-        <v>0.000486183361075187</v>
+        <v>0.04976034934380598</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02618732090357149</v>
+        <v>0.02827271296643174</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0701322885837137</v>
+        <v>0.08513176191433876</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07136457964244684</v>
+        <v>0.03717968239124231</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09269338613342733</v>
+        <v>0.0612801689055997</v>
       </c>
       <c r="K23" t="n">
-        <v>0.020668222821035</v>
+        <v>0.01439525708254308</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02994505854874292</v>
+        <v>0.002507378933159637</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05837914592905547</v>
+        <v>0.07200631940970445</v>
       </c>
       <c r="N23" t="n">
-        <v>0.09602640818499202</v>
+        <v>0.05200484761056816</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02415737615409253</v>
+        <v>0.007164173915239572</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0688321348101379</v>
+        <v>0.06475061656327794</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.003525269296695875</v>
+        <v>0.006776238628674455</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08393318719233391</v>
+        <v>0.05282988563670097</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01275377235753968</v>
+        <v>0.09914357775676035</v>
       </c>
       <c r="T23" t="n">
-        <v>0.02291401952622456</v>
+        <v>0.002533631920106417</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09531140296293618</v>
+        <v>0.02311646079173581</v>
       </c>
       <c r="V23" t="n">
-        <v>0.02915288554322303</v>
+        <v>0.08165745877757449</v>
       </c>
       <c r="W23" t="n">
-        <v>0.08326094124241465</v>
+        <v>0.1019975285670603</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0001321640681420139</v>
+        <v>0.02572833101867621</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02426445959668673</v>
+        <v>0.000958803357630058</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.06345828325296564</v>
+        <v>0.09190737824424383</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.02011441251148963</v>
+        <v>0.03323043780964523</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.002307097377057687</v>
+        <v>0.005666998455280775</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.03653352611023896</v>
+        <v>0.02561024320794179</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1987510929153117</v>
+        <v>0.1974441080882106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05258518008022967</v>
+        <v>0.04929700519997213</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003620732434193152</v>
+        <v>0.0102058418306615</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04699655078524537</v>
+        <v>0.02718129711157209</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04620441014501279</v>
+        <v>0.02601238919381949</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01525340596327916</v>
+        <v>0.0242639500729794</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01667750631485193</v>
+        <v>0.02964051634802903</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04534948176404814</v>
+        <v>0.003288706782653398</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002705985029434093</v>
+        <v>0.005168674108923901</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1038395263755935</v>
+        <v>0.02636105634735956</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02764559503625884</v>
+        <v>0.02840692986956676</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1006396140975482</v>
+        <v>0.09501742715444553</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02636963585269182</v>
+        <v>0.07075528285240375</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1208535686986901</v>
+        <v>0.02487166492832349</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09296967750992936</v>
+        <v>0.104314248995745</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01512593106016973</v>
+        <v>0.002061625594759019</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1071998111774229</v>
+        <v>0.07384519650757347</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02239926913062325</v>
+        <v>0.04091077569425045</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06810471572096785</v>
+        <v>0.07731371315359982</v>
       </c>
       <c r="X24" t="n">
-        <v>0.003105684033321075</v>
+        <v>0.1077063421416333</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.03789530756512581</v>
+        <v>0.009084352635916339</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01043296941391993</v>
+        <v>0.0779710084868373</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02954382506303997</v>
+        <v>0.04908359572976303</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.004481616748403524</v>
+        <v>0.03723839925921203</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.09941170617372849</v>
+        <v>0.1302089078626761</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2154993194398297</v>
+        <v>0.2188518870878391</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0827573750944112</v>
+        <v>0.03672216574386284</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08150975401886927</v>
+        <v>0.0368698678260852</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005154734820144479</v>
+        <v>0.001857431555475153</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0343152888714186</v>
+        <v>0.0726988157911421</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04143023300840681</v>
+        <v>0.09659818085475184</v>
       </c>
       <c r="K25" t="n">
-        <v>0.09344555539019075</v>
+        <v>0.07227301677101741</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05498747967642762</v>
+        <v>0.0238628305214709</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0570280519211419</v>
+        <v>0.005279493106204424</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07227506379526044</v>
+        <v>0.02542021752204368</v>
       </c>
       <c r="O25" t="n">
-        <v>0.05507697863350479</v>
+        <v>0.09736925064313545</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02750304188618816</v>
+        <v>0.004576244151355343</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.001769074159362086</v>
+        <v>0.0007100788511474987</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06482886931051372</v>
+        <v>0.0474733505631931</v>
       </c>
       <c r="S25" t="n">
-        <v>0.05741996259634189</v>
+        <v>0.1054343636775435</v>
       </c>
       <c r="T25" t="n">
-        <v>0.002492911782766657</v>
+        <v>0.02539856149586697</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06426244151484824</v>
+        <v>0.09445582039084556</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0125207305303703</v>
+        <v>0.01993590152490275</v>
       </c>
       <c r="W25" t="n">
-        <v>0.05488535673092639</v>
+        <v>0.07746525729214003</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0135187643439076</v>
+        <v>0.06568541801090351</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01208561065610599</v>
+        <v>0.000324160263369826</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.08754622536153113</v>
+        <v>0.02300036482244955</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01441651969684487</v>
+        <v>0.05918207636703966</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.00876997620051741</v>
+        <v>0.007407132254053736</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1604631651604398</v>
+        <v>0.1720563124983373</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2164610799895804</v>
+        <v>0.2180024492280908</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08299464103257823</v>
+        <v>0.09418898018115157</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005461057011126199</v>
+        <v>0.0009992804872158917</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08497090605723993</v>
+        <v>0.0263773920148492</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01910651714566066</v>
+        <v>0.07393420168231059</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03049688404771956</v>
+        <v>0.03968950108612927</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05837240097350186</v>
+        <v>0.01446302152174744</v>
       </c>
       <c r="L26" t="n">
-        <v>0.009220510258107493</v>
+        <v>0.0922915008093908</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05250721660729972</v>
+        <v>0.05683668628722376</v>
       </c>
       <c r="N26" t="n">
-        <v>0.009682211722790823</v>
+        <v>0.01885531328402199</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004498049416735826</v>
+        <v>0.002801112588813087</v>
       </c>
       <c r="P26" t="n">
-        <v>0.09914742097547943</v>
+        <v>0.0486125630479017</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01894890185778083</v>
+        <v>0.009395231158546988</v>
       </c>
       <c r="R26" t="n">
-        <v>0.04424880115196787</v>
+        <v>0.053414720066374</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1009105522969394</v>
+        <v>0.09346702259007006</v>
       </c>
       <c r="T26" t="n">
-        <v>0.008863114575281173</v>
+        <v>0.00262713309264347</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02760205043973055</v>
+        <v>0.1027040789057261</v>
       </c>
       <c r="V26" t="n">
-        <v>0.04427454181274685</v>
+        <v>0.07046007263921936</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03739798754387733</v>
+        <v>0.001685989141772052</v>
       </c>
       <c r="X26" t="n">
-        <v>0.1042584081472104</v>
+        <v>0.02286555272658336</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.001391574798278672</v>
+        <v>0.09913357573763727</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.02888321465641984</v>
+        <v>0.01875435457607032</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0968089128530967</v>
+        <v>0.04776648130586999</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02995412461843058</v>
+        <v>0.008676235068731624</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0364560311799968</v>
+        <v>0.02882637362060067</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2579344190314669</v>
+        <v>0.2359761469911308</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08865653260027595</v>
+        <v>0.07528596487293759</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03520233666500449</v>
+        <v>0.01099364759968458</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001595384116591928</v>
+        <v>0.0006584048034043769</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07258503356190933</v>
+        <v>0.02940265623816618</v>
       </c>
       <c r="J27" t="n">
-        <v>0.04618357850406215</v>
+        <v>0.0696402657399193</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05388229052403809</v>
+        <v>0.08294993085429447</v>
       </c>
       <c r="L27" t="n">
-        <v>0.08523675466864127</v>
+        <v>0.03995570233861532</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07356077780048294</v>
+        <v>0.0475737444574407</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01913380387576007</v>
+        <v>0.02422113989587599</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0003826012914098877</v>
+        <v>0.005936010782313057</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01077885655818541</v>
+        <v>0.02222935875311806</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0277783837093347</v>
+        <v>0.04104221039290861</v>
       </c>
       <c r="R27" t="n">
-        <v>0.06031146694697296</v>
+        <v>0.02417905368588467</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01816160698032378</v>
+        <v>0.08854010302015584</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02782386249644062</v>
+        <v>0.035278260833042</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06348652041480284</v>
+        <v>0.03002669898599945</v>
       </c>
       <c r="V27" t="n">
-        <v>0.002731973817724779</v>
+        <v>0.01344505125729955</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0805671403015456</v>
+        <v>0.08548437181977231</v>
       </c>
       <c r="X27" t="n">
-        <v>0.03391245905708463</v>
+        <v>0.01398818955632739</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.02054728162132924</v>
+        <v>0.08215742687478694</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.08433218327360177</v>
+        <v>0.0894463461764522</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0183665723349459</v>
+        <v>0.04980987769486112</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.07478259887953205</v>
+        <v>0.03775558336674029</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.04449914978058426</v>
+        <v>0.01290957487798713</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2002487163776293</v>
+        <v>0.2041963076293826</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02351550919424498</v>
+        <v>0.01660634097617413</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02085814623250254</v>
+        <v>0.03088676768701885</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01512222499509257</v>
+        <v>0.05175819001596212</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03797903027276237</v>
+        <v>0.03539501399029684</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01583177270374792</v>
+        <v>0.0009665128016762947</v>
       </c>
       <c r="K28" t="n">
-        <v>0.000708268418161434</v>
+        <v>0.02567537998930553</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06836480513246415</v>
+        <v>0.03762228688817577</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07172014269548477</v>
+        <v>0.06788977205145504</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0004547531980746706</v>
+        <v>0.001546373268946018</v>
       </c>
       <c r="O28" t="n">
-        <v>0.08707539808878065</v>
+        <v>0.05177135709310499</v>
       </c>
       <c r="P28" t="n">
-        <v>0.09290020175485081</v>
+        <v>0.08737945908201693</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.003592891702170639</v>
+        <v>0.06377143806132957</v>
       </c>
       <c r="R28" t="n">
-        <v>0.08883979940049418</v>
+        <v>0.05370941311434983</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03802723874147471</v>
+        <v>0.07175296428923823</v>
       </c>
       <c r="T28" t="n">
-        <v>0.000726109246224787</v>
+        <v>0.01354297449852934</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05543727241033806</v>
+        <v>0.05661424709129825</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01072637932717311</v>
+        <v>0.04909123130792124</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1113856475629221</v>
+        <v>0.101953995216998</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07284401405596572</v>
+        <v>0.01715566663379086</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.07636555137077204</v>
+        <v>0.02185862741923016</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.04651746673748016</v>
+        <v>0.03297358260486204</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.04191691666946817</v>
+        <v>0.08998669001734577</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01909046008934938</v>
+        <v>0.02009171590097435</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1717870804785676</v>
+        <v>0.1778414196775265</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2263008777272847</v>
+        <v>0.2460828579285339</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01617016374796037</v>
+        <v>0.03648294766183576</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01346522579119029</v>
+        <v>0.06052918631372555</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01766952382594582</v>
+        <v>0.01127820060391643</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03229641343104615</v>
+        <v>0.02826871477384561</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09118986453783708</v>
+        <v>0.04398160825948078</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05662215488713647</v>
+        <v>0.07038045958824339</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05344753391686736</v>
+        <v>0.04683416228037623</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0922924487525134</v>
+        <v>0.09213284031374717</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02686260578315483</v>
+        <v>0.03896445211651656</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0883043210497655</v>
+        <v>0.08445114008565559</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0008261635627731582</v>
+        <v>0.02430593103840329</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.03958984230198768</v>
+        <v>0.002920177897508536</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01998641693773503</v>
+        <v>0.03167389456062718</v>
       </c>
       <c r="S29" t="n">
-        <v>0.09200714726117507</v>
+        <v>0.09270272791490861</v>
       </c>
       <c r="T29" t="n">
-        <v>0.00530716825077212</v>
+        <v>0.01123284250680657</v>
       </c>
       <c r="U29" t="n">
-        <v>0.072876801585531</v>
+        <v>0.03366450225609257</v>
       </c>
       <c r="V29" t="n">
-        <v>0.006467963186845834</v>
+        <v>0.005690957197358326</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0671378630287483</v>
+        <v>0.08481739044903278</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0532413055653516</v>
+        <v>0.07145479051537947</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03632692662921683</v>
+        <v>0.0004863663484987269</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.08504529113049865</v>
+        <v>0.01742016257301021</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.009726056051333368</v>
+        <v>0.01917993302938924</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02314079878461418</v>
+        <v>0.09114661171564142</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1843458506754508</v>
+        <v>0.1939093667549562</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1625606726729721</v>
+        <v>0.1589600373927179</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09354008913785704</v>
+        <v>0.09340962379884044</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003371430953772529</v>
+        <v>0.03572620030885402</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03374235948805141</v>
+        <v>0.05062473899807957</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002757506390790368</v>
+        <v>0.04666579873077326</v>
       </c>
       <c r="J30" t="n">
-        <v>0.05229950003520036</v>
+        <v>0.008206988704836762</v>
       </c>
       <c r="K30" t="n">
-        <v>0.002266460808842968</v>
+        <v>0.008332890236984218</v>
       </c>
       <c r="L30" t="n">
-        <v>0.002062390916617629</v>
+        <v>0.005784867942642135</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04612105390961776</v>
+        <v>0.01612257413312107</v>
       </c>
       <c r="N30" t="n">
-        <v>0.008004826415016876</v>
+        <v>0.06172937582645124</v>
       </c>
       <c r="O30" t="n">
-        <v>0.04098330900480964</v>
+        <v>0.01741909721714175</v>
       </c>
       <c r="P30" t="n">
-        <v>0.02911995154331436</v>
+        <v>0.05270461442904185</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.05524651579866701</v>
+        <v>0.03378981839180433</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07003127201962674</v>
+        <v>0.08586780583347429</v>
       </c>
       <c r="S30" t="n">
-        <v>0.07709672756758267</v>
+        <v>0.08712406628023479</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02861706280260035</v>
+        <v>0.02545170885846408</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03855583001808154</v>
+        <v>0.01147945079992484</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02925485127599053</v>
+        <v>0.01605305411441402</v>
       </c>
       <c r="W30" t="n">
-        <v>0.09306445205342616</v>
+        <v>0.08714685085173379</v>
       </c>
       <c r="X30" t="n">
-        <v>0.06220545657074116</v>
+        <v>0.06406873126999522</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.09505968725842993</v>
+        <v>0.0766502368808516</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0121558049247182</v>
+        <v>0.03570134132168802</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0272862029872171</v>
+        <v>0.02168060313017305</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.09715725811902763</v>
+        <v>0.05825956194047565</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.02016058730857384</v>
+        <v>-0.00303138070973302</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1873838053696884</v>
+        <v>0.21605702525094</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06728677404284619</v>
+        <v>0.09488372156981517</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04294298672203693</v>
+        <v>0.006894108904783787</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09189863534285797</v>
+        <v>0.04433019564563961</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09320445831069504</v>
+        <v>0.09447270515293926</v>
       </c>
       <c r="J31" t="n">
-        <v>9.354095632743653e-05</v>
+        <v>0.02275315749358793</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01091065785555193</v>
+        <v>0.01017878185024216</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01453786813492399</v>
+        <v>0.0698973880791976</v>
       </c>
       <c r="M31" t="n">
-        <v>0.05572867978696705</v>
+        <v>0.04331030861917274</v>
       </c>
       <c r="N31" t="n">
-        <v>0.003448607759839149</v>
+        <v>0.07851620563529044</v>
       </c>
       <c r="O31" t="n">
-        <v>0.06996417075855552</v>
+        <v>0.02250561670186672</v>
       </c>
       <c r="P31" t="n">
-        <v>0.04583748802935641</v>
+        <v>0.06056404819479843</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01408058566813501</v>
+        <v>0.000772717870632577</v>
       </c>
       <c r="R31" t="n">
-        <v>0.02982502085451943</v>
+        <v>0.004768742761695035</v>
       </c>
       <c r="S31" t="n">
-        <v>0.04532971233614005</v>
+        <v>0.03053705640693051</v>
       </c>
       <c r="T31" t="n">
-        <v>0.04849518313911756</v>
+        <v>0.05628816957261178</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04429739512531267</v>
+        <v>0.009593651909313302</v>
       </c>
       <c r="V31" t="n">
-        <v>0.02008609638770803</v>
+        <v>0.02846883306688665</v>
       </c>
       <c r="W31" t="n">
-        <v>0.07749072023479869</v>
+        <v>0.08080973747854703</v>
       </c>
       <c r="X31" t="n">
-        <v>0.04432242196089468</v>
+        <v>0.07547710193521916</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0370781909215618</v>
+        <v>0.005856655655235262</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.007944630748545902</v>
+        <v>0.03374524554534405</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.0744515944594937</v>
+        <v>0.06666830807608581</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.06074458046381472</v>
+        <v>0.05870754187416512</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.01819567590632183</v>
+        <v>-0.006079593786075354</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.142475029598795</v>
+        <v>0.1386982766722601</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07230756068296139</v>
+        <v>0.04210981267665982</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01409940022191718</v>
+        <v>0.04730292802139991</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03336456258739987</v>
+        <v>0.03167209350429773</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0220369401011627</v>
+        <v>0.004448601231330016</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05586756792782534</v>
+        <v>0.01461549521018924</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0267062319369519</v>
+        <v>0.02600859219416146</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01173077793201548</v>
+        <v>0.001222026950631888</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1008774405799138</v>
+        <v>0.07824657658446162</v>
       </c>
       <c r="N32" t="n">
-        <v>0.05440609372265029</v>
+        <v>0.02102271878829336</v>
       </c>
       <c r="O32" t="n">
-        <v>0.008633396406635593</v>
+        <v>0.01429967336249669</v>
       </c>
       <c r="P32" t="n">
-        <v>0.01341273914963064</v>
+        <v>0.07180221159405609</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.07769481378807189</v>
+        <v>0.04503988681054322</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09876885405210925</v>
+        <v>0.09747154478087312</v>
       </c>
       <c r="S32" t="n">
-        <v>0.02076030115964688</v>
+        <v>0.006863645055516877</v>
       </c>
       <c r="T32" t="n">
-        <v>0.02689267175434147</v>
+        <v>0.08502910992531762</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02207044090696929</v>
+        <v>0.004164663628398557</v>
       </c>
       <c r="V32" t="n">
-        <v>0.04928919662941812</v>
+        <v>0.01537007145494331</v>
       </c>
       <c r="W32" t="n">
-        <v>0.1000805107408006</v>
+        <v>0.08654913602268587</v>
       </c>
       <c r="X32" t="n">
-        <v>0.02051631748546052</v>
+        <v>0.07894166421475697</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.005304528558489421</v>
+        <v>0.01620244735982794</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.06753357831954632</v>
+        <v>0.0864950201891438</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.06269668065869261</v>
+        <v>0.04462733906754851</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0349493946973894</v>
+        <v>0.08049474137246657</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.01664852622516319</v>
+        <v>0.02174531191890518</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.205145824196603</v>
+        <v>0.2129093379827614</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01330372679175941</v>
+        <v>0.02659243670929312</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03919447184062908</v>
+        <v>0.04981270924690722</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01945220709956861</v>
+        <v>0.003689924417285707</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05009267100983612</v>
+        <v>0.09621005137593015</v>
       </c>
       <c r="J33" t="n">
-        <v>0.02295316380111495</v>
+        <v>0.03410824862991069</v>
       </c>
       <c r="K33" t="n">
-        <v>0.07528754816232257</v>
+        <v>0.08062016240391202</v>
       </c>
       <c r="L33" t="n">
-        <v>0.08862192961581003</v>
+        <v>0.06456031727810868</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04828937244505421</v>
+        <v>0.08413314248243497</v>
       </c>
       <c r="N33" t="n">
-        <v>0.02782666069771533</v>
+        <v>0.01486337101625348</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02472584443114115</v>
+        <v>0.01555211299796706</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0828166056463962</v>
+        <v>0.05633238372799745</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.009918549518247494</v>
+        <v>0.004623914958699152</v>
       </c>
       <c r="R33" t="n">
-        <v>0.03888065776603731</v>
+        <v>0.001639087084151393</v>
       </c>
       <c r="S33" t="n">
-        <v>0.06220362688362591</v>
+        <v>0.05056849952236678</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0829960015315596</v>
+        <v>0.07642957008194988</v>
       </c>
       <c r="U33" t="n">
-        <v>0.008124259109637847</v>
+        <v>0.05169246683604786</v>
       </c>
       <c r="V33" t="n">
-        <v>0.08625819374645682</v>
+        <v>0.03478024551788465</v>
       </c>
       <c r="W33" t="n">
-        <v>0.04004195554994822</v>
+        <v>0.06136880340439505</v>
       </c>
       <c r="X33" t="n">
-        <v>0.03464183637760984</v>
+        <v>0.08136426130147502</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.008073523701916489</v>
+        <v>0.009631197771221399</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.05251902667901639</v>
+        <v>0.02937110345598335</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.07484031861412342</v>
+        <v>0.001364635498610479</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.008937848980473052</v>
+        <v>0.07069135428121466</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.02117300449670625</v>
+        <v>0.02454515545609308</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.139374489981907</v>
+        <v>0.1422258280638157</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09221271329901796</v>
+        <v>0.07939914013532148</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003228195623250925</v>
+        <v>0.07218778965930148</v>
       </c>
       <c r="H34" t="n">
-        <v>0.008499584428289115</v>
+        <v>0.06669616641740682</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002847923447834922</v>
+        <v>0.007695824938775252</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05125766693817947</v>
+        <v>0.07331066839483423</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01454590007844571</v>
+        <v>0.0004423291473132326</v>
       </c>
       <c r="L34" t="n">
-        <v>0.006257680996675933</v>
+        <v>0.03843209748536516</v>
       </c>
       <c r="M34" t="n">
-        <v>0.09791609530479604</v>
+        <v>0.06422469344493957</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02490794622548477</v>
+        <v>0.03081676668068855</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03003041328484169</v>
+        <v>0.02009622731845575</v>
       </c>
       <c r="P34" t="n">
-        <v>0.06047384130764751</v>
+        <v>0.06998496618405475</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.09860860709900228</v>
+        <v>0.08069227956065549</v>
       </c>
       <c r="R34" t="n">
-        <v>0.05705989685188897</v>
+        <v>0.07120034534630602</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08206172162909689</v>
+        <v>0.01940880850742393</v>
       </c>
       <c r="T34" t="n">
-        <v>0.006444016741435732</v>
+        <v>0.03481223361505561</v>
       </c>
       <c r="U34" t="n">
-        <v>0.001077329560094142</v>
+        <v>0.02403038468441546</v>
       </c>
       <c r="V34" t="n">
-        <v>0.05626775720772647</v>
+        <v>0.01682232675819103</v>
       </c>
       <c r="W34" t="n">
-        <v>0.03190861155679848</v>
+        <v>0.04196839410160366</v>
       </c>
       <c r="X34" t="n">
-        <v>0.07176601056281587</v>
+        <v>0.02310985874683753</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0216645199078546</v>
+        <v>0.05911710656414158</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.06752237889121253</v>
+        <v>0.05880356197854456</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.09046210649625032</v>
+        <v>0.01696772762120353</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.02297908256135972</v>
+        <v>0.02978030270916545</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1145007896286935</v>
+        <v>0.1036443620529278</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1835571799805581</v>
+        <v>0.2094282493549324</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01974765291023833</v>
+        <v>0.03075217941042646</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04616095173489713</v>
+        <v>0.06798919324660728</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02395575681438733</v>
+        <v>0.002134542900410066</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07352451722175223</v>
+        <v>0.09460445879609862</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07195690874753015</v>
+        <v>0.03775410954996863</v>
       </c>
       <c r="K35" t="n">
-        <v>0.008368421436876966</v>
+        <v>0.01728774247016083</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04248736287223363</v>
+        <v>0.02816017460342122</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05451413854656098</v>
+        <v>0.02313115033157403</v>
       </c>
       <c r="N35" t="n">
-        <v>0.03880071618388983</v>
+        <v>0.06567559998235313</v>
       </c>
       <c r="O35" t="n">
-        <v>0.02883777426498725</v>
+        <v>0.03396347650240192</v>
       </c>
       <c r="P35" t="n">
-        <v>0.01506329225941084</v>
+        <v>0.09108812192232095</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.08434405063836357</v>
+        <v>0.05823904933443275</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0840954318745995</v>
+        <v>0.02053900274800894</v>
       </c>
       <c r="S35" t="n">
-        <v>0.08908900218453197</v>
+        <v>0.05640077890610338</v>
       </c>
       <c r="T35" t="n">
-        <v>0.06703727518052889</v>
+        <v>0.02014651948635619</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01861809532055943</v>
+        <v>0.01359885766161518</v>
       </c>
       <c r="V35" t="n">
-        <v>0.08574588204758289</v>
+        <v>0.06015140424435938</v>
       </c>
       <c r="W35" t="n">
-        <v>0.08581720875973804</v>
+        <v>0.1107453503072927</v>
       </c>
       <c r="X35" t="n">
-        <v>0.002325993887439541</v>
+        <v>0.05599074747136169</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.003229833628876587</v>
+        <v>0.002574261990974234</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01871124641677376</v>
+        <v>0.03348252753274716</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.03059961776490481</v>
+        <v>0.07189009520109094</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.006968869303336494</v>
+        <v>0.003700655399914644</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1469893869675986</v>
+        <v>0.1191880133549298</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1660028527515377</v>
+        <v>0.1647116922583579</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02566545694456639</v>
+        <v>0.006450260633242323</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05405757587094577</v>
+        <v>0.07377392484311761</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0717624056145586</v>
+        <v>0.05776751421863144</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05762233844310454</v>
+        <v>0.03263331402374562</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03251010954249441</v>
+        <v>0.07071911798765197</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02219114498808577</v>
+        <v>0.003336852429248853</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02957468640925312</v>
+        <v>0.01755269351349904</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04912934762886075</v>
+        <v>0.07685361485978659</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05628717218021452</v>
+        <v>0.06754513551750498</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01519843078903403</v>
+        <v>0.07466096688678636</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03725612436694898</v>
+        <v>0.07463243503223767</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.05489985722614146</v>
+        <v>0.03508175485954053</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01873142503734182</v>
+        <v>0.008939511832286419</v>
       </c>
       <c r="S36" t="n">
-        <v>0.02301063201560424</v>
+        <v>0.008785708836595001</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0271730586359745</v>
+        <v>0.02150671114618331</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0300802588384597</v>
+        <v>0.04597447187031425</v>
       </c>
       <c r="V36" t="n">
-        <v>0.03078659275220899</v>
+        <v>0.007968100898206664</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01357383264449355</v>
+        <v>0.04353236148317342</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0795574024487521</v>
+        <v>0.07102570538786768</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.06478438289866277</v>
+        <v>0.04460676883083481</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.06519751854349017</v>
+        <v>0.05502872332593662</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07989041928464601</v>
+        <v>0.06290550282445222</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.06105982689615781</v>
+        <v>0.03871884875915634</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.06184369466585973</v>
+        <v>-0.04245097173126619</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1829027028323839</v>
+        <v>0.2127233764939517</v>
       </c>
       <c r="F37" t="n">
-        <v>0.002888412951349342</v>
+        <v>0.02229926288547926</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09348596979163924</v>
+        <v>0.07971113880704367</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01279079412362249</v>
+        <v>0.00945488708729795</v>
       </c>
       <c r="I37" t="n">
-        <v>0.009204855971920634</v>
+        <v>0.06034089143370457</v>
       </c>
       <c r="J37" t="n">
-        <v>0.006682226114816316</v>
+        <v>0.01401437151039473</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0005259487261611039</v>
+        <v>0.08253374481330859</v>
       </c>
       <c r="L37" t="n">
-        <v>0.04513342368682472</v>
+        <v>0.06273634832438528</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04765138961300617</v>
+        <v>0.08009163601415006</v>
       </c>
       <c r="N37" t="n">
-        <v>0.05265604070149969</v>
+        <v>0.02608112074158592</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0421830903380692</v>
+        <v>0.008872966591413775</v>
       </c>
       <c r="P37" t="n">
-        <v>0.09040832660315748</v>
+        <v>0.04168190696881224</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.006742775595373894</v>
+        <v>0.00156798410462289</v>
       </c>
       <c r="R37" t="n">
-        <v>0.03923354385053712</v>
+        <v>0.05850398313297823</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1227045316384611</v>
+        <v>0.0849557257422119</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01878762454106663</v>
+        <v>0.008807635035623184</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04917641181391118</v>
+        <v>0.0514815622892467</v>
       </c>
       <c r="V37" t="n">
-        <v>0.02598280909747014</v>
+        <v>0.06901447724349741</v>
       </c>
       <c r="W37" t="n">
-        <v>0.001429943672175088</v>
+        <v>0.08647687730024482</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0496734130300835</v>
+        <v>0.03445993227622102</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0240496386916339</v>
+        <v>0.02894479779771836</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.1349760947098761</v>
+        <v>0.007639377310451044</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.1159973932383956</v>
+        <v>0.05729663885573686</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.007635341498949385</v>
+        <v>0.02303273373387137</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.03130788137128545</v>
+        <v>0.007847571375231035</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1807230224690931</v>
+        <v>0.182940303854367</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06163598287937606</v>
+        <v>0.03910375342222561</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06956963194848695</v>
+        <v>0.03029365691985152</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07126743691484838</v>
+        <v>0.02130411467956417</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0005951487064364725</v>
+        <v>0.03513301831094254</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02537966743154758</v>
+        <v>0.02767951522105836</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01226317455206773</v>
+        <v>0.02414549414870014</v>
       </c>
       <c r="L38" t="n">
-        <v>0.03519995953954497</v>
+        <v>0.02775054799626522</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0504383007362813</v>
+        <v>0.06309630597552819</v>
       </c>
       <c r="N38" t="n">
-        <v>0.001635179722671876</v>
+        <v>0.06375522206873652</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03394042331153509</v>
+        <v>0.05016905151573391</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01235936066639182</v>
+        <v>0.01517498583379583</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04494660185303918</v>
+        <v>0.04171051956095524</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01959568080973383</v>
+        <v>0.02589892308284511</v>
       </c>
       <c r="S38" t="n">
-        <v>0.05258588370576225</v>
+        <v>0.03569440991208919</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04876956275321361</v>
+        <v>0.04808588873507404</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04671271636658172</v>
+        <v>0.05107036508064387</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02225565173003452</v>
+        <v>0.0321970297482774</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0811207983865337</v>
+        <v>0.07204107451287554</v>
       </c>
       <c r="X38" t="n">
-        <v>0.08519539642605771</v>
+        <v>0.07220889722808364</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0672457311625979</v>
+        <v>0.05887927100037573</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.08254345097518134</v>
+        <v>0.06993419073565856</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.06051600518120975</v>
+        <v>0.07358796838436436</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01422825424086646</v>
+        <v>0.02108579592635523</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.003983721662608795</v>
+        <v>-0.04048237637119766</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2004178683739482</v>
+        <v>0.1997520172627533</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08412134399812975</v>
+        <v>0.09308088888014202</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07626896095531714</v>
+        <v>0.04580064229069376</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01695716370446268</v>
+        <v>0.09140636653736858</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01098426359013627</v>
+        <v>0.02333317195237634</v>
       </c>
       <c r="J39" t="n">
-        <v>0.03561386898410464</v>
+        <v>0.006835190642852908</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07298968837803271</v>
+        <v>0.01518762925381121</v>
       </c>
       <c r="L39" t="n">
-        <v>0.07875464399442519</v>
+        <v>0.05998229064538089</v>
       </c>
       <c r="M39" t="n">
-        <v>0.08290039466572875</v>
+        <v>0.1128022264982958</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01762271281162428</v>
+        <v>0.001143593690355759</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02712519804903291</v>
+        <v>0.01448354389272143</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0647858031365305</v>
+        <v>0.06820797087041143</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.001491275305663411</v>
+        <v>0.006221033038632392</v>
       </c>
       <c r="R39" t="n">
-        <v>0.006291399899371025</v>
+        <v>0.02878865527535788</v>
       </c>
       <c r="S39" t="n">
-        <v>0.07662799326733097</v>
+        <v>0.06762790667349995</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0596534581200561</v>
+        <v>0.02530228894678603</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006928495084874717</v>
+        <v>0.1088492461147086</v>
       </c>
       <c r="V39" t="n">
-        <v>0.07439199377740462</v>
+        <v>0.08782028136838857</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02915931989330164</v>
+        <v>0.03122653478908542</v>
       </c>
       <c r="X39" t="n">
-        <v>0.03058742032935629</v>
+        <v>0.01870482516043735</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.03789674052059905</v>
+        <v>0.01509779690639535</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.08695520398728279</v>
+        <v>0.0697505643631975</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.01623663322533233</v>
+        <v>0.006231436015231147</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.005656024321902244</v>
+        <v>0.002115916193869707</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.04798025478320968</v>
+        <v>0.00551830619617054</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1934692230907943</v>
+        <v>0.198903917550625</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02921649660018741</v>
+        <v>0.02189379927093394</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07882381243526569</v>
+        <v>0.0957021044852414</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03109157160196548</v>
+        <v>0.09178084895187959</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03033439045481449</v>
+        <v>0.006506834421835909</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01619547552159053</v>
+        <v>0.01209545094276522</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003764252131107683</v>
+        <v>0.001775293978887749</v>
       </c>
       <c r="L40" t="n">
-        <v>0.003497617727516364</v>
+        <v>0.06142698924400811</v>
       </c>
       <c r="M40" t="n">
-        <v>0.09427176469414708</v>
+        <v>0.08460915406592785</v>
       </c>
       <c r="N40" t="n">
-        <v>0.00564456275049878</v>
+        <v>0.01044463876551047</v>
       </c>
       <c r="O40" t="n">
-        <v>0.04366583526551016</v>
+        <v>0.04868212081402553</v>
       </c>
       <c r="P40" t="n">
-        <v>0.001092233890179878</v>
+        <v>0.01754813345846611</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.04019428295082493</v>
+        <v>0.02958737266198052</v>
       </c>
       <c r="R40" t="n">
-        <v>0.08345589166965339</v>
+        <v>0.06371564025313142</v>
       </c>
       <c r="S40" t="n">
-        <v>0.05250785359446342</v>
+        <v>0.04378081661123368</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03570640298243712</v>
+        <v>0.06099343634287564</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08220108097325436</v>
+        <v>0.001825419472995994</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04289872136656304</v>
+        <v>0.02413109154668686</v>
       </c>
       <c r="W40" t="n">
-        <v>0.05078808860669082</v>
+        <v>0.07436992134041863</v>
       </c>
       <c r="X40" t="n">
-        <v>0.08366535641303977</v>
+        <v>0.08973165278479948</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.003821519510630879</v>
+        <v>0.01209189618111913</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08548440182936716</v>
+        <v>0.07972890752128838</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.08552304694576215</v>
+        <v>0.04408068679492436</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.0161553400845293</v>
+        <v>0.02349779008906395</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.130642640356052</v>
+        <v>0.1550405278804526</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2298290562669218</v>
+        <v>0.2197555490340662</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1153650655246939</v>
+        <v>0.103670562523727</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0004868122621901695</v>
+        <v>0.07473129566577602</v>
       </c>
       <c r="H41" t="n">
-        <v>0.005769746374470883</v>
+        <v>0.0110839956992015</v>
       </c>
       <c r="I41" t="n">
-        <v>0.001478437377032983</v>
+        <v>0.05951326307951702</v>
       </c>
       <c r="J41" t="n">
-        <v>0.002633291139085019</v>
+        <v>0.002729800444748806</v>
       </c>
       <c r="K41" t="n">
-        <v>0.02597554201402445</v>
+        <v>0.04182314297450594</v>
       </c>
       <c r="L41" t="n">
-        <v>0.009649085330065832</v>
+        <v>0.02400296696210774</v>
       </c>
       <c r="M41" t="n">
-        <v>0.07990231365129538</v>
+        <v>0.07378427748865712</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01756378607539489</v>
+        <v>0.01090014986867087</v>
       </c>
       <c r="O41" t="n">
-        <v>0.03926408240397221</v>
+        <v>0.05064287941434204</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08588888199653909</v>
+        <v>0.06343344500248625</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.06139230531340169</v>
+        <v>0.02476794875271843</v>
       </c>
       <c r="R41" t="n">
-        <v>0.07418726202435395</v>
+        <v>0.01093488104231808</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1088169868195899</v>
+        <v>0.08938588695355046</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1012369089866002</v>
+        <v>0.09493910886011245</v>
       </c>
       <c r="U41" t="n">
-        <v>0.004023307357075909</v>
+        <v>0.08471313033400801</v>
       </c>
       <c r="V41" t="n">
-        <v>0.05830236618588733</v>
+        <v>0.0480154838670864</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01710555843138162</v>
+        <v>0.03811146376966604</v>
       </c>
       <c r="X41" t="n">
-        <v>0.07766479361144253</v>
+        <v>0.01155057960874475</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.06434826455751669</v>
+        <v>0.005303590410233605</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.006165377586973195</v>
+        <v>0.03404891223685817</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.02025854183642718</v>
+        <v>0.04153358513959545</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.02252128314058515</v>
+        <v>0.0003796499013678313</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1002988525299101</v>
+        <v>0.1345867270597043</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2193074132898932</v>
+        <v>0.2138592809835877</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02419701583771766</v>
+        <v>0.01843144191653417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02999670448316909</v>
+        <v>0.07072555093518325</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03805181400949831</v>
+        <v>0.006579949065928769</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04138249086778829</v>
+        <v>0.02123382410006705</v>
       </c>
       <c r="J42" t="n">
-        <v>0.07273983159145996</v>
+        <v>0.06482311873187047</v>
       </c>
       <c r="K42" t="n">
-        <v>0.07836954162011533</v>
+        <v>0.01775756626499026</v>
       </c>
       <c r="L42" t="n">
-        <v>0.006422228294995452</v>
+        <v>0.03045788068138828</v>
       </c>
       <c r="M42" t="n">
-        <v>0.05009723958945042</v>
+        <v>0.09770517873198534</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02328079841497751</v>
+        <v>0.01990299636193383</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02057216106123499</v>
+        <v>0.009676792935590416</v>
       </c>
       <c r="P42" t="n">
-        <v>0.09721147959506188</v>
+        <v>0.05212997040517907</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.08791563117835084</v>
+        <v>0.0598790008978075</v>
       </c>
       <c r="R42" t="n">
-        <v>0.009798559605407375</v>
+        <v>0.07737730491532875</v>
       </c>
       <c r="S42" t="n">
-        <v>0.007732019549980521</v>
+        <v>0.02621593803700072</v>
       </c>
       <c r="T42" t="n">
-        <v>0.005050753514962435</v>
+        <v>0.0004711939766545518</v>
       </c>
       <c r="U42" t="n">
-        <v>0.083828987106492</v>
+        <v>0.08297601976407692</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0150310506231362</v>
+        <v>0.03356170801032244</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07995205319709206</v>
+        <v>0.07826938780952467</v>
       </c>
       <c r="X42" t="n">
-        <v>0.05068281090354979</v>
+        <v>0.06510606214013202</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.06394417690856376</v>
+        <v>0.0469940011109331</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.01353045110110144</v>
+        <v>0.03265617667088466</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0970569239225775</v>
+        <v>0.07928907075400266</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.003155277023317314</v>
+        <v>0.007779865782681197</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.05647891851192782</v>
+        <v>0.06084472567608996</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.3324270382762762</v>
+        <v>0.2698974700898278</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09919730236799201</v>
+        <v>0.08150576161956849</v>
       </c>
       <c r="G43" t="n">
-        <v>0.002502967499510594</v>
+        <v>0.04959507112213297</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05240825330583301</v>
+        <v>0.08666807220057635</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01554420116463236</v>
+        <v>0.01355094498105141</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01588498121185138</v>
+        <v>0.01146895580729705</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0359221879476368</v>
+        <v>0.06458598979100211</v>
       </c>
       <c r="L43" t="n">
-        <v>0.009587431987037511</v>
+        <v>0.02433597687842006</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04523866463480519</v>
+        <v>0.009463639510620604</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0151210499989493</v>
+        <v>0.01102349461440188</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1064484117085612</v>
+        <v>0.03697440665164754</v>
       </c>
       <c r="P43" t="n">
-        <v>0.08152109650985853</v>
+        <v>0.0279608139826416</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.020094320322054</v>
+        <v>0.006468826427014507</v>
       </c>
       <c r="R43" t="n">
-        <v>0.02751838155643661</v>
+        <v>0.06421575206745612</v>
       </c>
       <c r="S43" t="n">
-        <v>0.04235155562935668</v>
+        <v>0.04492458080297884</v>
       </c>
       <c r="T43" t="n">
-        <v>0.03578223631002909</v>
+        <v>0.0360788890604055</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04941306765017722</v>
+        <v>0.02142495877883178</v>
       </c>
       <c r="V43" t="n">
-        <v>0.08764249731077192</v>
+        <v>0.08848185620577634</v>
       </c>
       <c r="W43" t="n">
-        <v>0.110369691378488</v>
+        <v>0.0676969440701632</v>
       </c>
       <c r="X43" t="n">
-        <v>0.03922825071518178</v>
+        <v>0.05212507315576898</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.01954110254377742</v>
+        <v>0.08076930358052531</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.02078240680973586</v>
+        <v>0.001313581536542211</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.05442779238141879</v>
+        <v>0.09644243191991116</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.01347214905590469</v>
+        <v>0.02292467523526607</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.04305123216493085</v>
+        <v>0.05019213739977633</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1885985898292845</v>
+        <v>0.1926825580829684</v>
       </c>
       <c r="F44" t="n">
-        <v>0.004743364763381458</v>
+        <v>0.005358446407358579</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02418359381427934</v>
+        <v>0.04166915252282894</v>
       </c>
       <c r="H44" t="n">
-        <v>0.002393169059903246</v>
+        <v>0.0628513861130863</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04003586128636979</v>
+        <v>0.07423428777986933</v>
       </c>
       <c r="J44" t="n">
-        <v>0.004192077305745784</v>
+        <v>0.02643638409729838</v>
       </c>
       <c r="K44" t="n">
-        <v>0.07990203810029932</v>
+        <v>0.02294542184667525</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02592666182208838</v>
+        <v>0.000117254723211599</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06517501517703263</v>
+        <v>0.09090497730091116</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01993603339938015</v>
+        <v>0.02202273858815827</v>
       </c>
       <c r="O44" t="n">
-        <v>0.04267736325216654</v>
+        <v>0.08225256961971844</v>
       </c>
       <c r="P44" t="n">
-        <v>0.07938134120122786</v>
+        <v>0.0531694030526555</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01407358120069456</v>
+        <v>0.05842659305390675</v>
       </c>
       <c r="R44" t="n">
-        <v>0.07448767394724638</v>
+        <v>0.00533149083840474</v>
       </c>
       <c r="S44" t="n">
-        <v>0.07515368511185136</v>
+        <v>0.08398337717481652</v>
       </c>
       <c r="T44" t="n">
-        <v>0.04526463263355111</v>
+        <v>0.05915082108987933</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08319343793273251</v>
+        <v>0.0327296518930593</v>
       </c>
       <c r="V44" t="n">
-        <v>0.006110034595230507</v>
+        <v>0.001696621735339031</v>
       </c>
       <c r="W44" t="n">
-        <v>0.005826975189697632</v>
+        <v>0.020603521747984</v>
       </c>
       <c r="X44" t="n">
-        <v>0.06992432391580025</v>
+        <v>0.08780930111411407</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.05731803358832973</v>
+        <v>0.04087072105801661</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.07266297190102279</v>
+        <v>0.01954003182048718</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.07615354224662706</v>
+        <v>0.06263617627555655</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.03128458855534174</v>
+        <v>0.04525967014666431</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.009310604579768464</v>
+        <v>0.0175896988863587</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2230574727171185</v>
+        <v>0.216843967791769</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06927568431648425</v>
+        <v>0.0472110128367438</v>
       </c>
       <c r="G45" t="n">
-        <v>0.009025589809688976</v>
+        <v>0.06195282349875655</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06291219168137924</v>
+        <v>0.09275677755238471</v>
       </c>
       <c r="I45" t="n">
-        <v>0.002342509904007967</v>
+        <v>0.01493486072042686</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02038177937693354</v>
+        <v>0.01797149679701488</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01265742037738298</v>
+        <v>0.004408935635023492</v>
       </c>
       <c r="L45" t="n">
-        <v>0.005721406267888711</v>
+        <v>0.0009397914635368722</v>
       </c>
       <c r="M45" t="n">
-        <v>0.05116989715612702</v>
+        <v>0.008752611803479467</v>
       </c>
       <c r="N45" t="n">
-        <v>0.02857560545778906</v>
+        <v>0.004365653282440329</v>
       </c>
       <c r="O45" t="n">
-        <v>0.03222350335956143</v>
+        <v>0.04834653321807758</v>
       </c>
       <c r="P45" t="n">
-        <v>0.04899379998748502</v>
+        <v>0.0363460763862732</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.07126927486016686</v>
+        <v>0.06918173575185151</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05633405030044145</v>
+        <v>0.05448032132609376</v>
       </c>
       <c r="S45" t="n">
-        <v>0.07246853203672976</v>
+        <v>0.02960644787527789</v>
       </c>
       <c r="T45" t="n">
-        <v>0.08137825419624097</v>
+        <v>0.0768596659849856</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06385002488027929</v>
+        <v>0.06941709316715204</v>
       </c>
       <c r="V45" t="n">
-        <v>0.001637318378347866</v>
+        <v>0.005372862185866671</v>
       </c>
       <c r="W45" t="n">
-        <v>6.786724601744607e-05</v>
+        <v>0.03241789340663549</v>
       </c>
       <c r="X45" t="n">
-        <v>0.04998340479853083</v>
+        <v>0.07763553529418918</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.06070182831084397</v>
+        <v>0.09716200486013543</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.02039126261304211</v>
+        <v>0.01842418724014486</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.07834330667706194</v>
+        <v>0.1016212842149962</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.1002954880075693</v>
+        <v>0.0298343954985136</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0240809082495647</v>
+        <v>0.01517207453426739</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1511826225310104</v>
+        <v>0.1523082514571807</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07957256186984324</v>
+        <v>0.07227140982839347</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02344839103534446</v>
+        <v>0.05099907611997063</v>
       </c>
       <c r="H46" t="n">
-        <v>0.007981666538296781</v>
+        <v>0.07768023270466946</v>
       </c>
       <c r="I46" t="n">
-        <v>0.08187786197812776</v>
+        <v>0.04446940039878847</v>
       </c>
       <c r="J46" t="n">
-        <v>0.03219630548247426</v>
+        <v>0.037222246185015</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0191187086145083</v>
+        <v>0.02788987385128774</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02499719858937727</v>
+        <v>0.06011675523807909</v>
       </c>
       <c r="M46" t="n">
-        <v>0.08637495252289557</v>
+        <v>0.08231519864937106</v>
       </c>
       <c r="N46" t="n">
-        <v>0.001211383989208985</v>
+        <v>0.002220267758633575</v>
       </c>
       <c r="O46" t="n">
-        <v>0.05495441747269943</v>
+        <v>0.03278263691263318</v>
       </c>
       <c r="P46" t="n">
-        <v>0.05124922326184522</v>
+        <v>0.07146170546346528</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02076976883948292</v>
+        <v>0.05176407842189822</v>
       </c>
       <c r="R46" t="n">
-        <v>0.06706297116707796</v>
+        <v>0.07401501888017165</v>
       </c>
       <c r="S46" t="n">
-        <v>0.05613273645622735</v>
+        <v>0.02687176551323623</v>
       </c>
       <c r="T46" t="n">
-        <v>0.03375386082853992</v>
+        <v>0.008914140979783151</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07692731773658025</v>
+        <v>0.03706392148466935</v>
       </c>
       <c r="V46" t="n">
-        <v>0.001944934748818855</v>
+        <v>0.03756693781728038</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0804538643036654</v>
+        <v>0.07010821638246759</v>
       </c>
       <c r="X46" t="n">
-        <v>0.07989919428515944</v>
+        <v>0.06647667251961255</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.01919422580482729</v>
+        <v>0.003344836231894972</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.05087397564795161</v>
+        <v>0.001517730315310111</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.02942788404063742</v>
+        <v>0.03977427934698487</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.02057659478641027</v>
+        <v>0.02315359899638388</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.02945347939132039</v>
+        <v>-0.04730867865013868</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1778297176560395</v>
+        <v>0.1817850471029996</v>
       </c>
       <c r="F47" t="n">
-        <v>0.005256148623547767</v>
+        <v>0.08893901411091695</v>
       </c>
       <c r="G47" t="n">
-        <v>0.106254297911705</v>
+        <v>0.09009737363963256</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06204077592616806</v>
+        <v>0.01267558803613317</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0693522650462967</v>
+        <v>0.04976743027177721</v>
       </c>
       <c r="J47" t="n">
-        <v>0.02926595271664452</v>
+        <v>0.01596404686698529</v>
       </c>
       <c r="K47" t="n">
-        <v>0.07670833239212566</v>
+        <v>0.01904413270389165</v>
       </c>
       <c r="L47" t="n">
-        <v>0.07112935605064187</v>
+        <v>0.0007170670660513801</v>
       </c>
       <c r="M47" t="n">
-        <v>0.114124381910524</v>
+        <v>0.08881454520898016</v>
       </c>
       <c r="N47" t="n">
-        <v>0.005812916188667709</v>
+        <v>0.01050492160487842</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0218325130718126</v>
+        <v>0.1005222369502412</v>
       </c>
       <c r="P47" t="n">
-        <v>0.03796980302501572</v>
+        <v>0.004433380615073059</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.07812577049222391</v>
+        <v>0.02432068490426026</v>
       </c>
       <c r="R47" t="n">
-        <v>0.05313779187732252</v>
+        <v>0.09388772800665941</v>
       </c>
       <c r="S47" t="n">
-        <v>0.007856469522740363</v>
+        <v>0.02383601754804613</v>
       </c>
       <c r="T47" t="n">
-        <v>0.005463440428899815</v>
+        <v>0.01008262977213196</v>
       </c>
       <c r="U47" t="n">
-        <v>0.03454224907261373</v>
+        <v>0.03110692853267551</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0171488184420282</v>
+        <v>0.06456291310760581</v>
       </c>
       <c r="W47" t="n">
-        <v>0.02556803896829067</v>
+        <v>0.03433146506651622</v>
       </c>
       <c r="X47" t="n">
-        <v>0.04193503898522233</v>
+        <v>0.02762183135696626</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.05030448119680651</v>
+        <v>0.03506746391389446</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.05230899479829419</v>
+        <v>0.0785669349753231</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.002260701496401228</v>
+        <v>0.01725478184304221</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.03160146185600678</v>
+        <v>0.07788088389831775</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.04475376779923837</v>
+        <v>-0.04220948004513633</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1169244018983804</v>
+        <v>0.1180700032282003</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0246069330138896</v>
+        <v>0.005493457764379392</v>
       </c>
       <c r="G48" t="n">
-        <v>0.008869327166107478</v>
+        <v>0.06905508625512574</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01788979852893275</v>
+        <v>0.01600515211048454</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01528681571894652</v>
+        <v>0.05611294488731638</v>
       </c>
       <c r="J48" t="n">
-        <v>0.07735881147220373</v>
+        <v>0.02672661329979568</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0009132206917567048</v>
+        <v>0.00167601591239884</v>
       </c>
       <c r="L48" t="n">
-        <v>0.06843970954005554</v>
+        <v>0.06819449964060774</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04752415651536088</v>
+        <v>0.08819400923578868</v>
       </c>
       <c r="N48" t="n">
-        <v>0.01692547874808913</v>
+        <v>0.004175698476657971</v>
       </c>
       <c r="O48" t="n">
-        <v>0.05450214870881415</v>
+        <v>0.009191915543645306</v>
       </c>
       <c r="P48" t="n">
-        <v>0.09076541996838471</v>
+        <v>0.08641391683700866</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.07605074551198994</v>
+        <v>0.03613567249589854</v>
       </c>
       <c r="R48" t="n">
-        <v>0.06971016786919143</v>
+        <v>0.04305265091275281</v>
       </c>
       <c r="S48" t="n">
-        <v>0.09067283002824653</v>
+        <v>0.03480144334621672</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01030358681752848</v>
+        <v>0.02739393411663918</v>
       </c>
       <c r="U48" t="n">
-        <v>0.04346807580022041</v>
+        <v>0.06856285803861366</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01265021391859872</v>
+        <v>0.01089728537191938</v>
       </c>
       <c r="W48" t="n">
-        <v>0.07770218125302725</v>
+        <v>0.09401731894441716</v>
       </c>
       <c r="X48" t="n">
-        <v>0.07802922213881641</v>
+        <v>0.04794873821244251</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.009398396666111706</v>
+        <v>0.07422300552288057</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.05900976740350136</v>
+        <v>0.03828933470545558</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0148202165474073</v>
+        <v>0.0651936600999562</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.03510277597281904</v>
+        <v>0.02824478826959896</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1271879760931305</v>
+        <v>-0.109997798354968</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.129561984045919</v>
+        <v>0.1245518810650185</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03032122001609112</v>
+        <v>0.01937558995598012</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06125149802767542</v>
+        <v>0.05773714232662938</v>
       </c>
       <c r="H49" t="n">
-        <v>0.018110897200178</v>
+        <v>0.005656138767816734</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02362911461959071</v>
+        <v>0.06642009792250239</v>
       </c>
       <c r="J49" t="n">
-        <v>0.05850519125999974</v>
+        <v>0.006695578027509842</v>
       </c>
       <c r="K49" t="n">
-        <v>0.02283558122917973</v>
+        <v>0.0007454179655159467</v>
       </c>
       <c r="L49" t="n">
-        <v>0.02369273091195882</v>
+        <v>0.03530435871845188</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1118674644058067</v>
+        <v>0.09153193020410663</v>
       </c>
       <c r="N49" t="n">
-        <v>0.04356649871662322</v>
+        <v>0.00418343680336521</v>
       </c>
       <c r="O49" t="n">
-        <v>0.01960567169668521</v>
+        <v>0.0545284789392604</v>
       </c>
       <c r="P49" t="n">
-        <v>0.03105937500914729</v>
+        <v>0.01255536645011597</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1075240968024841</v>
+        <v>0.08661024853435077</v>
       </c>
       <c r="R49" t="n">
-        <v>0.09446471698641024</v>
+        <v>0.0388227472976267</v>
       </c>
       <c r="S49" t="n">
-        <v>0.02108046860461199</v>
+        <v>0.02986428041484128</v>
       </c>
       <c r="T49" t="n">
-        <v>0.004395333711672312</v>
+        <v>0.01286376982004652</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0536919061135322</v>
+        <v>0.0693983750141605</v>
       </c>
       <c r="V49" t="n">
-        <v>0.02984076253303284</v>
+        <v>0.02656419473237643</v>
       </c>
       <c r="W49" t="n">
-        <v>0.04046198169448027</v>
+        <v>0.02545672216954446</v>
       </c>
       <c r="X49" t="n">
-        <v>0.01157426334815447</v>
+        <v>0.08863776811969563</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.1040493964529057</v>
+        <v>0.08288811595306958</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02140169115598701</v>
+        <v>0.08586700573598972</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0337130687173391</v>
+        <v>0.05843494275513587</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.03335707078645388</v>
+        <v>0.03985829337190816</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.1367908263134414</v>
+        <v>-0.1240440186921968</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.119853184104431</v>
+        <v>0.119921700637039</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003094450112447285</v>
+        <v>0.0009523278112594875</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08057410091717578</v>
+        <v>0.009872812139368029</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04354901766023334</v>
+        <v>0.06062792100557492</v>
       </c>
       <c r="I50" t="n">
-        <v>0.005179720378077053</v>
+        <v>0.000825701780144911</v>
       </c>
       <c r="J50" t="n">
-        <v>0.08651536878707193</v>
+        <v>0.02161438176312433</v>
       </c>
       <c r="K50" t="n">
-        <v>0.05514208430261518</v>
+        <v>0.0005810852182823619</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0543823002408992</v>
+        <v>0.05861409962581207</v>
       </c>
       <c r="M50" t="n">
-        <v>0.02629471872851765</v>
+        <v>0.06213408955555218</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01999215108270126</v>
+        <v>0.02596251582337127</v>
       </c>
       <c r="O50" t="n">
-        <v>0.03775160488136645</v>
+        <v>0.06359946444211111</v>
       </c>
       <c r="P50" t="n">
-        <v>0.07550336226685277</v>
+        <v>0.1045657050240913</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.005483766628253966</v>
+        <v>0.009168739670142451</v>
       </c>
       <c r="R50" t="n">
-        <v>0.07082954186829492</v>
+        <v>0.07633266470655208</v>
       </c>
       <c r="S50" t="n">
-        <v>0.009655623751545243</v>
+        <v>0.03419367797548453</v>
       </c>
       <c r="T50" t="n">
-        <v>0.04243678053409906</v>
+        <v>0.04748754846524127</v>
       </c>
       <c r="U50" t="n">
-        <v>0.06016536314082502</v>
+        <v>0.0981072849370848</v>
       </c>
       <c r="V50" t="n">
-        <v>0.02153122301518054</v>
+        <v>0.0001045055541264458</v>
       </c>
       <c r="W50" t="n">
-        <v>0.08458196394750589</v>
+        <v>0.07980954294634877</v>
       </c>
       <c r="X50" t="n">
-        <v>0.07057441572310511</v>
+        <v>0.1139014948362219</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.03402027915748701</v>
+        <v>0.005626296894366517</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.01143754752853907</v>
+        <v>0.05457705854703644</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.07682728253078709</v>
+        <v>0.0669432238323473</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.02447733281641909</v>
+        <v>0.004397857446355615</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.08676886211717325</v>
+        <v>0.1053878828021463</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.5048610262745741</v>
+        <v>0.4034506128486845</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01654541637226585</v>
+        <v>0.02368237015821925</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09096779047414524</v>
+        <v>0.08327303036785616</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01542757980271364</v>
+        <v>0.05917065267202674</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0233720600417163</v>
+        <v>0.02191992301265437</v>
       </c>
       <c r="J51" t="n">
-        <v>0.006824697929251699</v>
+        <v>0.07336769783545086</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01233615955427402</v>
+        <v>0.007519700665098882</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0903820434729669</v>
+        <v>0.008491021775829064</v>
       </c>
       <c r="M51" t="n">
-        <v>0.09202374176936838</v>
+        <v>0.05849496932537175</v>
       </c>
       <c r="N51" t="n">
-        <v>0.003106459045989726</v>
+        <v>0.05012108068013257</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03001435541857843</v>
+        <v>4.486892125559987e-05</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01476356844896904</v>
+        <v>0.01528228003927277</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.1301761828793329</v>
+        <v>0.1032620427224522</v>
       </c>
       <c r="R51" t="n">
-        <v>0.006757729051035415</v>
+        <v>0.01477280309859636</v>
       </c>
       <c r="S51" t="n">
-        <v>0.06821577530582658</v>
+        <v>0.03533488236982862</v>
       </c>
       <c r="T51" t="n">
-        <v>0.07930602669181726</v>
+        <v>0.003503723102514279</v>
       </c>
       <c r="U51" t="n">
-        <v>0.03329871516965819</v>
+        <v>0.0682814475598896</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02476221630587342</v>
+        <v>0.02494260976314493</v>
       </c>
       <c r="W51" t="n">
-        <v>0.03466656615883885</v>
+        <v>0.08132625227285678</v>
       </c>
       <c r="X51" t="n">
-        <v>0.009653865825809654</v>
+        <v>0.06884539368719249</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.07725849531129352</v>
+        <v>0.06838787843960858</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.05145217803743694</v>
+        <v>0.01800092707424166</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.01845678299370938</v>
+        <v>0.02695341911069781</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.07023159393912891</v>
+        <v>0.08502102534580888</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1327226856231689</v>
+        <v>0.08093681869259406</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1170936646587658</v>
+        <v>0.1189508437150759</v>
       </c>
       <c r="F52" t="n">
-        <v>0.008561770475530334</v>
+        <v>0.005636863648197865</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0133420862347697</v>
+        <v>0.1010987990473799</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04331923089242644</v>
+        <v>0.03800107909923216</v>
       </c>
       <c r="I52" t="n">
-        <v>0.002840744505682983</v>
+        <v>0.01672804141009537</v>
       </c>
       <c r="J52" t="n">
-        <v>0.04749127903352388</v>
+        <v>0.04018607166786163</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05545157794733203</v>
+        <v>0.01068677921434635</v>
       </c>
       <c r="L52" t="n">
-        <v>0.04494375921222498</v>
+        <v>0.06013758799248037</v>
       </c>
       <c r="M52" t="n">
-        <v>0.09640214245603895</v>
+        <v>0.06292511089669854</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01977220212607387</v>
+        <v>0.05209277628368306</v>
       </c>
       <c r="O52" t="n">
-        <v>0.009192698271710984</v>
+        <v>0.007385717614263771</v>
       </c>
       <c r="P52" t="n">
-        <v>0.06506027902320398</v>
+        <v>0.06420672141385146</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.09430294945463256</v>
+        <v>0.09656883832710066</v>
       </c>
       <c r="R52" t="n">
-        <v>0.02566774763154756</v>
+        <v>0.03542235215380035</v>
       </c>
       <c r="S52" t="n">
-        <v>0.04058890152060905</v>
+        <v>0.02959554099770223</v>
       </c>
       <c r="T52" t="n">
-        <v>0.02624717940056383</v>
+        <v>0.03600193658023763</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08951030088288237</v>
+        <v>0.1001737882771506</v>
       </c>
       <c r="V52" t="n">
-        <v>0.03353976712113107</v>
+        <v>0.02650663392429807</v>
       </c>
       <c r="W52" t="n">
-        <v>0.09239275947327409</v>
+        <v>0.07312930087055416</v>
       </c>
       <c r="X52" t="n">
-        <v>0.06993723362426894</v>
+        <v>0.05444683950739171</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.01119595749633804</v>
+        <v>0.007376434091241237</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.04848279094269777</v>
+        <v>0.01476279988700132</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.06160941682449313</v>
+        <v>0.04696428296681165</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.0001472254490432122</v>
+        <v>0.01996570412861962</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.05148277436282307</v>
+        <v>0.0502435763729707</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1362046502706522</v>
+        <v>0.1638221074663479</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05076278564055312</v>
+        <v>0.08862979544325013</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04347658242104255</v>
+        <v>0.09177949808308192</v>
       </c>
       <c r="H53" t="n">
-        <v>0.02456141081477929</v>
+        <v>0.003024650312731719</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06255756056206377</v>
+        <v>0.01342268506426916</v>
       </c>
       <c r="J53" t="n">
-        <v>0.05887896639386069</v>
+        <v>0.00127126408952104</v>
       </c>
       <c r="K53" t="n">
-        <v>0.00999854950603549</v>
+        <v>0.03489689607247098</v>
       </c>
       <c r="L53" t="n">
-        <v>0.006713508897828386</v>
+        <v>0.0332038961300228</v>
       </c>
       <c r="M53" t="n">
-        <v>0.1028848069633926</v>
+        <v>0.06143229152591604</v>
       </c>
       <c r="N53" t="n">
-        <v>0.009432462071531218</v>
+        <v>0.09872678557202341</v>
       </c>
       <c r="O53" t="n">
-        <v>0.02286740894550653</v>
+        <v>0.02007173767343321</v>
       </c>
       <c r="P53" t="n">
-        <v>0.09059159542374269</v>
+        <v>0.08812687652904921</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.03559971636333806</v>
+        <v>0.05229854434984774</v>
       </c>
       <c r="R53" t="n">
-        <v>0.03031926413646676</v>
+        <v>0.01572495307406655</v>
       </c>
       <c r="S53" t="n">
-        <v>0.04704197779514117</v>
+        <v>0.008591942685129245</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02741463619387374</v>
+        <v>0.03654209938426427</v>
       </c>
       <c r="U53" t="n">
-        <v>0.02524789278788988</v>
+        <v>0.01913120470112432</v>
       </c>
       <c r="V53" t="n">
-        <v>0.04901427734967194</v>
+        <v>0.000426831694935723</v>
       </c>
       <c r="W53" t="n">
-        <v>0.09128408384642338</v>
+        <v>0.01787830446439353</v>
       </c>
       <c r="X53" t="n">
-        <v>0.005494139718180656</v>
+        <v>0.03224987391219922</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1031069912545088</v>
+        <v>0.1020297324270557</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.06158058941724116</v>
+        <v>0.1010499345867176</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.01245063845073735</v>
+        <v>0.009229257939969641</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.02872015504619074</v>
+        <v>0.07026094428452673</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.07908346610499346</v>
+        <v>0.0503854953393062</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1374111876883272</v>
+        <v>0.1449519209951048</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07579234490888009</v>
+        <v>0.03551270289492504</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06849395971807108</v>
+        <v>0.07839123688305871</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01753560964992432</v>
+        <v>0.07049313696594543</v>
       </c>
       <c r="I54" t="n">
-        <v>0.017223448575573</v>
+        <v>0.01511483594692167</v>
       </c>
       <c r="J54" t="n">
-        <v>0.04048401376080355</v>
+        <v>0.08929041940588979</v>
       </c>
       <c r="K54" t="n">
-        <v>0.02229213192408664</v>
+        <v>0.02240966408774253</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0719308915318837</v>
+        <v>0.05901828619862108</v>
       </c>
       <c r="M54" t="n">
-        <v>0.06049134045955702</v>
+        <v>0.06105677107433267</v>
       </c>
       <c r="N54" t="n">
-        <v>0.006960646583684322</v>
+        <v>0.01666442942330853</v>
       </c>
       <c r="O54" t="n">
-        <v>0.03609744016498166</v>
+        <v>0.02393234264724472</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04862494927821819</v>
+        <v>0.04561884502422931</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.09113589248557065</v>
+        <v>0.08847475841000423</v>
       </c>
       <c r="R54" t="n">
-        <v>0.09334855571262686</v>
+        <v>0.06647925828046486</v>
       </c>
       <c r="S54" t="n">
-        <v>0.0003750511845602775</v>
+        <v>0.01074050734887294</v>
       </c>
       <c r="T54" t="n">
-        <v>0.01830697395132857</v>
+        <v>0.001244869974086631</v>
       </c>
       <c r="U54" t="n">
-        <v>0.09552958746521394</v>
+        <v>0.05879870547908705</v>
       </c>
       <c r="V54" t="n">
-        <v>0.002436239537200343</v>
+        <v>0.01530144121981398</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07377117496501022</v>
+        <v>0.07620850830002954</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0008299530227791993</v>
+        <v>0.05048962715407406</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07227610204132828</v>
+        <v>0.07257490767794797</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.0005591383366029568</v>
+        <v>0.002169320442314301</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.05644714517292228</v>
+        <v>0.01552999138916583</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.02905740956919293</v>
+        <v>0.02448543377191931</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.07636110680979354</v>
+        <v>-0.09246111151462176</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1663279291243875</v>
+        <v>0.1688313735612228</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01236464631761443</v>
+        <v>0.08197907657316791</v>
       </c>
       <c r="G55" t="n">
-        <v>0.101259261317133</v>
+        <v>0.05615256670147627</v>
       </c>
       <c r="H55" t="n">
-        <v>0.04795699581860991</v>
+        <v>0.07496954543252657</v>
       </c>
       <c r="I55" t="n">
-        <v>0.07255088644926136</v>
+        <v>0.01634084514230072</v>
       </c>
       <c r="J55" t="n">
-        <v>0.05650917543057886</v>
+        <v>0.04559873832600939</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01504647907385509</v>
+        <v>0.002899075648092469</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0004807825611894924</v>
+        <v>0.01614503562685885</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07898918621470254</v>
+        <v>0.08013643265054247</v>
       </c>
       <c r="N55" t="n">
-        <v>0.07270980647856326</v>
+        <v>0.04242434633875618</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0931292602531387</v>
+        <v>0.07991581208848825</v>
       </c>
       <c r="P55" t="n">
-        <v>0.01358637239542022</v>
+        <v>0.000305205281479299</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.04982689795481939</v>
+        <v>0.05149357722798806</v>
       </c>
       <c r="R55" t="n">
-        <v>0.01476641679074369</v>
+        <v>0.0444751867098503</v>
       </c>
       <c r="S55" t="n">
-        <v>0.01472565505970988</v>
+        <v>0.009459218488024926</v>
       </c>
       <c r="T55" t="n">
-        <v>0.02755172053065414</v>
+        <v>0.03737425363337848</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01545743208733854</v>
+        <v>0.0174737842229967</v>
       </c>
       <c r="V55" t="n">
-        <v>0.001706773969716888</v>
+        <v>0.002912796350985923</v>
       </c>
       <c r="W55" t="n">
-        <v>0.002314757253556967</v>
+        <v>0.0879960275454628</v>
       </c>
       <c r="X55" t="n">
-        <v>0.06865195265433877</v>
+        <v>0.06740489260680317</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.1142876376556149</v>
+        <v>0.04777303952219352</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.04875427476727857</v>
+        <v>0.07072949399923809</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.04061438076938128</v>
+        <v>0.05054893802355166</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03675924819678032</v>
+        <v>0.01549211185982814</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.07202848193053463</v>
+        <v>-0.08397365933765766</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2173138470150412</v>
+        <v>0.2137080847895879</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07640472034801551</v>
+        <v>0.01744298145156389</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05614316442794001</v>
+        <v>0.008691106643700252</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04720522552981573</v>
+        <v>0.03266344013432467</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02048322315800205</v>
+        <v>0.005019337323530004</v>
       </c>
       <c r="J56" t="n">
-        <v>0.02336148667709988</v>
+        <v>0.04142793205060253</v>
       </c>
       <c r="K56" t="n">
-        <v>0.07208845234792013</v>
+        <v>0.06562037424490119</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01198650325210002</v>
+        <v>0.001112094543709636</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04487196665691798</v>
+        <v>0.01769445515819671</v>
       </c>
       <c r="N56" t="n">
-        <v>0.009340357668181885</v>
+        <v>0.007304364237650421</v>
       </c>
       <c r="O56" t="n">
-        <v>0.01781814891366605</v>
+        <v>0.09613745255652409</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0873869016181253</v>
+        <v>0.09063100540810065</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.05922363354670358</v>
+        <v>0.09227686948631614</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06712916139587005</v>
+        <v>0.07545640165423323</v>
       </c>
       <c r="S56" t="n">
-        <v>0.0102934049755067</v>
+        <v>0.04641013508411071</v>
       </c>
       <c r="T56" t="n">
-        <v>0.001262767274602855</v>
+        <v>0.0016855229910332</v>
       </c>
       <c r="U56" t="n">
-        <v>0.03036187195150589</v>
+        <v>0.005245495899540889</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01332131388583693</v>
+        <v>0.03388865332516643</v>
       </c>
       <c r="W56" t="n">
-        <v>0.08034656429827343</v>
+        <v>0.08931490518746345</v>
       </c>
       <c r="X56" t="n">
-        <v>0.09670086806270276</v>
+        <v>0.08436996980828455</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0755682854444871</v>
+        <v>0.03199839494205474</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.05105248651432633</v>
+        <v>0.05409658157588949</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.001706415604779488</v>
+        <v>0.09477490731031464</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.04594307644762036</v>
+        <v>0.006737618982788326</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.09842781284468176</v>
+        <v>0.09657761222459652</v>
       </c>
     </row>
     <row r="57">
@@ -5820,79 +5820,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2374723745271843</v>
+        <v>0.2413085727880366</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1174532074801479</v>
+        <v>0.03155613316326372</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0575347911988219</v>
+        <v>0.04465483759021874</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0148642531819906</v>
+        <v>0.00258887129530006</v>
       </c>
       <c r="I57" t="n">
-        <v>0.05666208948273103</v>
+        <v>0.03034795869162601</v>
       </c>
       <c r="J57" t="n">
-        <v>0.008916391635993786</v>
+        <v>0.02067827924610412</v>
       </c>
       <c r="K57" t="n">
-        <v>0.01437732666819755</v>
+        <v>0.0154087727330527</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01621260120503671</v>
+        <v>0.05502913794279016</v>
       </c>
       <c r="M57" t="n">
-        <v>0.03678825561621581</v>
+        <v>0.07674061085654595</v>
       </c>
       <c r="N57" t="n">
-        <v>0.006257291044260597</v>
+        <v>0.005245543324310955</v>
       </c>
       <c r="O57" t="n">
-        <v>0.02585042078213997</v>
+        <v>0.09078029313988546</v>
       </c>
       <c r="P57" t="n">
-        <v>0.01516577109902592</v>
+        <v>0.02366137149726938</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.09207747329716527</v>
+        <v>0.02014184383045757</v>
       </c>
       <c r="R57" t="n">
-        <v>0.03496313294580222</v>
+        <v>0.06436971561582711</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0334141421063668</v>
+        <v>0.009694891157114022</v>
       </c>
       <c r="T57" t="n">
-        <v>0.02715554573977374</v>
+        <v>0.007126474953694842</v>
       </c>
       <c r="U57" t="n">
-        <v>0.0001127631117368714</v>
+        <v>0.03398703559534926</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1472749257587472</v>
+        <v>0.08489901069714915</v>
       </c>
       <c r="W57" t="n">
-        <v>0.06506850463475934</v>
+        <v>0.03374185864490959</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0998869748806782</v>
+        <v>0.09365324721864074</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.05619807751058264</v>
+        <v>0.09495678785069411</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.02552093218650029</v>
+        <v>0.04186499273946379</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.02536792328687373</v>
+        <v>0.06637781323714712</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.0228772051464519</v>
+        <v>0.05249451897918544</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.1231083591878522</v>
+        <v>0.1155617708395022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 250/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1323001891595865</v>
+        <v>0.1331277243240997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08837678875222102</v>
+        <v>0.0539875299968342</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0434557588491339</v>
+        <v>0.006057501836457068</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02525686307912235</v>
+        <v>0.007553274561874684</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05238793205935759</v>
+        <v>0.03202538502616151</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02765729586824761</v>
+        <v>0.004241029386839497</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04918081719393735</v>
+        <v>0.0522523775637132</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0522106558273099</v>
+        <v>0.08589130666171009</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01666085978830065</v>
+        <v>0.01278182873740819</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08035491783479895</v>
+        <v>0.0783015049405347</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01534010298729002</v>
+        <v>0.03354182072327005</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1140711293093035</v>
+        <v>0.06518209596518403</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03188039610164067</v>
+        <v>0.08603925586944626</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05146260963063443</v>
+        <v>0.05644775174545706</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02153828699530582</v>
+        <v>0.02829685568640732</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04117334697461012</v>
+        <v>0.05413456948301745</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04076566999164552</v>
+        <v>0.09042999618534726</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01261009697347641</v>
+        <v>0.05469086693080986</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0355359430077505</v>
+        <v>0.040799845438322</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03544446029082696</v>
+        <v>0.03829495408768064</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.004422864373402205</v>
+        <v>0.02869808039008904</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.005232342004456035</v>
+        <v>0.0552231824295959</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1065488449007678</v>
+        <v>0.01194666891737186</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04843201720646059</v>
+        <v>0.0231823174364682</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1424201652695178</v>
+        <v>0.1089330235413494</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1420777294637225</v>
+        <v>0.1563830404665529</v>
       </c>
       <c r="F3" t="n">
-        <v>0.120176360855731</v>
+        <v>0.004414122876721459</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02934610277519431</v>
+        <v>0.03290834836884936</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01879664267357864</v>
+        <v>0.01557364931677481</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05351153298060613</v>
+        <v>0.09056661266903018</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003656344238691018</v>
+        <v>0.01543674346048697</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07826875499463733</v>
+        <v>0.03886821205617372</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01148213543249413</v>
+        <v>0.01743725196719515</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02411377702430692</v>
+        <v>0.07331995287941813</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0617558212427222</v>
+        <v>0.007909668924328024</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01150651442887135</v>
+        <v>0.01200008607538087</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01541278240100163</v>
+        <v>0.01092693794979328</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04864747539922864</v>
+        <v>0.07848891994566615</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04410333677052037</v>
+        <v>0.04165753529818084</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03546628241157919</v>
+        <v>0.0805373236480021</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09381801445284851</v>
+        <v>0.0836852467308762</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07621952702747271</v>
+        <v>0.06214145076728178</v>
       </c>
       <c r="V3" t="n">
-        <v>0.004826578274055078</v>
+        <v>0.07857418212067208</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04441576137428685</v>
+        <v>0.06152838833189443</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0215882215720604</v>
+        <v>0.005400336963444604</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0001035131249155202</v>
+        <v>0.04679767223008006</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002370961767341161</v>
+        <v>0.05334084602324494</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1021001048828908</v>
+        <v>0.008164383557049135</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09831345389496587</v>
+        <v>0.08032212783945562</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1519146242324391</v>
+        <v>0.08633469868054416</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1407801150130131</v>
+        <v>0.1414436013447741</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07726809324540763</v>
+        <v>0.08368989969960655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03096125510759425</v>
+        <v>0.01779071525410864</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08873217477819426</v>
+        <v>0.0463359196195213</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00476041953798093</v>
+        <v>0.04267015495907767</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009190266007566771</v>
+        <v>0.04471796147375213</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006494775966699502</v>
+        <v>0.02142685589538974</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004184710226796498</v>
+        <v>0.009338659730522312</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03899291231528515</v>
+        <v>0.08961038513357102</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01383752034297472</v>
+        <v>0.002422249117704669</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08425113411367505</v>
+        <v>0.07105567082894519</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08728807777059223</v>
+        <v>0.05063115929237343</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03784678219344093</v>
+        <v>0.04260478784283706</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08058202406365429</v>
+        <v>0.02751952085750189</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08840656180847777</v>
+        <v>0.04655818803816989</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01414252547914254</v>
+        <v>0.005250250832301999</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0809969856336355</v>
+        <v>0.03082022527100806</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02715335737168156</v>
+        <v>0.02294144828143338</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04607696750468706</v>
+        <v>0.08217178810330776</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09071257792445159</v>
+        <v>0.06181506474601696</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.008571072021541179</v>
+        <v>0.0775387571141318</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06167020151740166</v>
+        <v>0.05782426097425594</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.004021037115616651</v>
+        <v>0.02393775916658447</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01385856795350231</v>
+        <v>0.04132831776787815</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01626309980923994</v>
+        <v>0.05564443211082127</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.171857426369519</v>
+        <v>0.1638739214066163</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09119377412725858</v>
+        <v>0.0308238004627268</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04206104539418354</v>
+        <v>0.003773105028872754</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0749142817578181</v>
+        <v>0.05088316590535733</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07943269486332245</v>
+        <v>0.0847539204117834</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07041644349390828</v>
+        <v>0.03381654200935053</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01776703973593966</v>
+        <v>0.02289994672294676</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02180719229805386</v>
+        <v>0.06522652020198522</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002932458027147725</v>
+        <v>0.06076052791617877</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02656797530155134</v>
+        <v>0.02669597747247945</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03675920815540543</v>
+        <v>0.06587389564071194</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002469596578863885</v>
+        <v>0.001276707991189408</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09383120234395237</v>
+        <v>0.0375291885260568</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03262668428161101</v>
+        <v>0.08123999498707556</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0580326950003815</v>
+        <v>0.07093281492530605</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0006581812522780764</v>
+        <v>0.01647731488073479</v>
       </c>
       <c r="U5" t="n">
-        <v>0.009835424942838988</v>
+        <v>0.04270363083154773</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06622370788412232</v>
+        <v>0.0004722188493346538</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004104434895044189</v>
+        <v>0.06005887216641661</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0571052717363284</v>
+        <v>0.03360456986118545</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07438750669657043</v>
+        <v>0.07579385669273582</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01369846428862265</v>
+        <v>0.01778070922502138</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.03127770252586135</v>
+        <v>0.02722511555848454</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.091897014418936</v>
+        <v>0.0893976037325182</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02379283006678161</v>
+        <v>0.06473273844841052</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1418662058439339</v>
+        <v>0.1429716428998106</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09269654783330314</v>
+        <v>0.04742165359884654</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02931238137613848</v>
+        <v>0.03215017199526705</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003580737876086456</v>
+        <v>0.04153484177800999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08836150318014727</v>
+        <v>0.03264808179905974</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07381130776740061</v>
+        <v>0.01375637662142517</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03345168118274907</v>
+        <v>0.03979707105558979</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001133578353007021</v>
+        <v>0.0004627487174839005</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004326461254973827</v>
+        <v>0.005863176705371075</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02993546829129161</v>
+        <v>0.09056250278884502</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08360679054793285</v>
+        <v>0.1013292906250139</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07057761905018672</v>
+        <v>0.08427511703730678</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04722728324144104</v>
+        <v>0.08151972882971553</v>
       </c>
       <c r="R6" t="n">
-        <v>0.078715422411334</v>
+        <v>0.07714354123606605</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02840480110678766</v>
+        <v>0.045201712762984</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03568060438545716</v>
+        <v>0.03686168864673454</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03604211450845187</v>
+        <v>0.09617636003945025</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01875857014186645</v>
+        <v>0.02743649002985558</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0986537384275198</v>
+        <v>0.04475879665597918</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05627013451888452</v>
+        <v>0.02930129197052282</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02817378684759625</v>
+        <v>0.01950929983281277</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00864355285329832</v>
+        <v>0.04774932392752055</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04888028495664338</v>
+        <v>0.004310475707559296</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0037556298875026</v>
+        <v>0.000230257638580727</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2272541810922561</v>
+        <v>-0.2480781787696523</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2232235400720423</v>
+        <v>0.2934198496130173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01379670902168378</v>
+        <v>0.08028001308147188</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002213969675902602</v>
+        <v>0.0004262014047524574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08891536223658507</v>
+        <v>0.09987475929452967</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05937029828876952</v>
+        <v>0.09380240133200086</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02289603395945007</v>
+        <v>0.0003249238149425148</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0112424828170143</v>
+        <v>0.09202401867447078</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08624851364072331</v>
+        <v>0.02953820662910327</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04821885246732811</v>
+        <v>0.009860395104942993</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002901593586326645</v>
+        <v>0.02141965820061295</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008312088407224732</v>
+        <v>0.02602558866410495</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06278015238738319</v>
+        <v>0.006836675670283875</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09721924649920945</v>
+        <v>0.08597587786994752</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02494506301033659</v>
+        <v>0.08205585794792986</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0416034040656407</v>
+        <v>0.04438624534529484</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0276524124102802</v>
+        <v>0.01234005000894918</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05285311140714518</v>
+        <v>9.190054197158607e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02306234194910775</v>
+        <v>0.0182117535084116</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02952823326920487</v>
+        <v>0.0102153547684954</v>
       </c>
       <c r="X7" t="n">
-        <v>0.08325157050603857</v>
+        <v>0.0577313873773127</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07710415545920278</v>
+        <v>0.007719387376253303</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.004195456273586133</v>
+        <v>0.08220468709229105</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.08530020955487158</v>
+        <v>0.05213812000339724</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.04638873910698488</v>
+        <v>0.08651653628852926</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2587639806376527</v>
+        <v>-0.1938512765520452</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1762132481367963</v>
+        <v>0.171516148295547</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03864438963894263</v>
+        <v>0.05116153579758519</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03538934242802915</v>
+        <v>0.03563435063262205</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06637418994699612</v>
+        <v>0.06939169736854717</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04034673488406054</v>
+        <v>0.05778855851872514</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01659633528321165</v>
+        <v>0.0664966770581082</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0250467023863868</v>
+        <v>0.02580837729346592</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01005128033082331</v>
+        <v>0.02713252168526932</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02547440681411857</v>
+        <v>0.002013329213772176</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07359380172037137</v>
+        <v>0.03040685245932371</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00261740132929259</v>
+        <v>0.01583194050950994</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06364355626236706</v>
+        <v>0.07605726393145017</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09979684737131282</v>
+        <v>0.07248925155143802</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09455198772094379</v>
+        <v>0.06779661750507256</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09429644491090382</v>
+        <v>0.05613225214647587</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06540580207322046</v>
+        <v>0.06841477196606825</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008369987723102178</v>
+        <v>0.01288871769662533</v>
       </c>
       <c r="V8" t="n">
-        <v>0.008224796887983688</v>
+        <v>5.908764868389047e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00880092367193264</v>
+        <v>0.0529201164802682</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02511967522140665</v>
+        <v>0.06482356604595696</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07494142688477813</v>
+        <v>0.06505478831064863</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0882843873430335</v>
+        <v>0.05121030651302654</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.02241832967969163</v>
+        <v>0.004270680085008155</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01201124948709114</v>
+        <v>0.02621673958234867</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3743793175321739</v>
+        <v>-0.348482098000785</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3311895045337737</v>
+        <v>0.2065916861092654</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08813140134956235</v>
+        <v>0.05678786283229367</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02236397709453621</v>
+        <v>0.003307156936046001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0489953422921383</v>
+        <v>0.0716648972529213</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1078053046876649</v>
+        <v>0.07062285921754063</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04068438466467089</v>
+        <v>0.0354065329837316</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00711672141574123</v>
+        <v>0.01371341739785755</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07721074036300728</v>
+        <v>0.07761868120976087</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004994868465437285</v>
+        <v>0.01490290620729706</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0005521363877643471</v>
+        <v>0.01402915411047233</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006958883596419861</v>
+        <v>0.005154172412183289</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08629611533843555</v>
+        <v>0.0336136467394435</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04670018013692873</v>
+        <v>0.08541812138344124</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001176725832252385</v>
+        <v>0.0650722576145825</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0201058898432582</v>
+        <v>0.04936127076063331</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0156608025991151</v>
+        <v>0.09691478898516252</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01439044860669959</v>
+        <v>0.01958319577207413</v>
       </c>
       <c r="V9" t="n">
-        <v>0.09398163705083983</v>
+        <v>0.01473297098404498</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01600201867297979</v>
+        <v>0.08542778426257942</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004840112664770691</v>
+        <v>0.01287087325412492</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05675932638136636</v>
+        <v>0.06898784898812171</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05549461513466981</v>
+        <v>0.002538131577375638</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.111209736522952</v>
+        <v>0.01026201368363073</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.07256863089878941</v>
+        <v>0.09200945543468089</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.462289691914912</v>
+        <v>-0.4465935199590182</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2605284006305113</v>
+        <v>0.2637998274670476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09659335132864448</v>
+        <v>0.09769952360393055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04172835254932408</v>
+        <v>0.02141077519343297</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03938501249428388</v>
+        <v>0.02041113234530151</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0009955701860942642</v>
+        <v>0.04807434521625745</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01834139700271233</v>
+        <v>0.01577178430975691</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01558003981774772</v>
+        <v>0.01791785143913516</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004761213848405799</v>
+        <v>0.07625937253042164</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002198885527984851</v>
+        <v>0.03815078083705959</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0001554382986639463</v>
+        <v>0.01288472560741547</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03024130019284378</v>
+        <v>0.09799471844294849</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01794261261704886</v>
+        <v>0.05156970270168364</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03034664027103735</v>
+        <v>0.03341523200401635</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1070299649460013</v>
+        <v>0.1115131781788521</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1076749188765722</v>
+        <v>0.04667001245877678</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05891727253932644</v>
+        <v>0.03156523847319903</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1114341478079541</v>
+        <v>0.1000133429642091</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04318104773029969</v>
+        <v>0.02084712533585295</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1046401819031286</v>
+        <v>0.04129528915250264</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0009459362848775451</v>
+        <v>0.0002760282786809225</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07827572913919442</v>
+        <v>0.05585404201680335</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01763658062907485</v>
+        <v>0.03685149585048674</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.03606494088949816</v>
+        <v>0.0007309687250386788</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.03592946511928129</v>
+        <v>0.02282333433423801</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.004862212323446856</v>
+        <v>-0.03661058812501135</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.052771040456442</v>
+        <v>1.296685824199006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0114812217090743</v>
+        <v>0.005762696888435502</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0006508483967036104</v>
+        <v>0.01721590340954528</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1195645320460405</v>
+        <v>0.04072202965088462</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0367110330967347</v>
+        <v>0.03042706893387596</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02732608009451003</v>
+        <v>0.00310695956399041</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03503720962062235</v>
+        <v>0.008482273331291432</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04727921179256268</v>
+        <v>0.02839439402492748</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005770830802460936</v>
+        <v>0.009626726062607643</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04527126741720937</v>
+        <v>0.0520614461060465</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03412928126155768</v>
+        <v>0.06048863498773521</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02630640565747937</v>
+        <v>0.02009472753981732</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06227899926259453</v>
+        <v>0.02769917039718141</v>
       </c>
       <c r="R11" t="n">
-        <v>0.09722787534300069</v>
+        <v>0.04771213874868185</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03536248884848919</v>
+        <v>0.05705546280326079</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04583662393418671</v>
+        <v>0.0216430989316329</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01444287680398633</v>
+        <v>0.04446858595475763</v>
       </c>
       <c r="V11" t="n">
-        <v>0.05673685697413815</v>
+        <v>0.1204906232919251</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04017253886822445</v>
+        <v>0.09962759697226507</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1308821933433365</v>
+        <v>0.1110774338579133</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02432503565159553</v>
+        <v>0.02483088765425701</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01917375900480909</v>
+        <v>0.09877160141250999</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.03833049468444506</v>
+        <v>0.01391923587717407</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.04570233538623805</v>
+        <v>0.05632130359928363</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0179918748571623</v>
+        <v>0.1109858677711741</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.276022885985771</v>
+        <v>0.2745153320112817</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04172123959734661</v>
+        <v>0.03715422499844375</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03958092538969729</v>
+        <v>0.0006657835644771392</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0158888905977207</v>
+        <v>0.007025809069757712</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01016812693394351</v>
+        <v>0.01973375460467856</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04013931991702566</v>
+        <v>0.04821355999098907</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02100079253446764</v>
+        <v>0.00502201469087689</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03338666443322422</v>
+        <v>0.003734735845464915</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02633193343270684</v>
+        <v>0.01326216585566094</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02139411294895783</v>
+        <v>0.01282527487216369</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07119819189843828</v>
+        <v>0.02445407652397716</v>
       </c>
       <c r="P12" t="n">
-        <v>0.07956572992253089</v>
+        <v>0.07877145372652873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05736143198299255</v>
+        <v>0.07188297686725485</v>
       </c>
       <c r="R12" t="n">
-        <v>0.050284179571965</v>
+        <v>0.09359287859968983</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08033017625971473</v>
+        <v>0.06649377218927817</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07099374779524521</v>
+        <v>0.0692105854761005</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05098247776342785</v>
+        <v>0.0976390695334521</v>
       </c>
       <c r="V12" t="n">
-        <v>0.00718995648257502</v>
+        <v>0.03616686981855518</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07587095933208847</v>
+        <v>0.04917253198030928</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01026958112657269</v>
+        <v>0.02430867030149989</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.06394979767999626</v>
+        <v>0.05753716407283171</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0638338390196507</v>
+        <v>0.07819059948961479</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02527050142767804</v>
+        <v>0.0421958537144032</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.04328742395203387</v>
+        <v>0.06274617421399188</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2376503796500293</v>
+        <v>0.2442780973087719</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5665692639046317</v>
+        <v>0.6027008788710987</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03393749542761524</v>
+        <v>0.04664914094791197</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009975296461598117</v>
+        <v>0.05118816223538922</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04890729731189055</v>
+        <v>0.07505732318128813</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09974169144086874</v>
+        <v>0.106356229234119</v>
       </c>
       <c r="J13" t="n">
-        <v>0.09323830145361674</v>
+        <v>0.002304827849309589</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06522556369166625</v>
+        <v>0.006686294379274163</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01323854225189167</v>
+        <v>0.03640617714536083</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02412634591130425</v>
+        <v>0.00134958221027012</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1067693297978394</v>
+        <v>0.1022300257831239</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01640020070983468</v>
+        <v>0.03292813415951705</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0284482767312263</v>
+        <v>0.0339489953099865</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02374068263933924</v>
+        <v>0.05545675945871271</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01381165291558161</v>
+        <v>0.03268907032876191</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08333124232598506</v>
+        <v>0.03822097187679763</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01476234564192818</v>
+        <v>0.0207148039964304</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04168892330081143</v>
+        <v>0.06702436363376169</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07740856009706712</v>
+        <v>0.1254666584212862</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07740426385457715</v>
+        <v>0.01169148137693963</v>
       </c>
       <c r="X13" t="n">
-        <v>0.001830975237939698</v>
+        <v>0.02248907904626132</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.08770494312373713</v>
+        <v>0.01193153916074458</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02876599178567598</v>
+        <v>0.003574168125323993</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.007145250939624149</v>
+        <v>0.0703029909078049</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.002396826948381357</v>
+        <v>0.04533322123162461</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2560882449064057</v>
+        <v>0.3048948402577875</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2727677045647919</v>
+        <v>0.2795010189636642</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06774104142621347</v>
+        <v>0.06756911502135235</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01041972753018641</v>
+        <v>0.0246211204836188</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001577865118161467</v>
+        <v>0.01823933778891242</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01127738012659312</v>
+        <v>0.0744811207630916</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04017899285483194</v>
+        <v>0.06054784547543639</v>
       </c>
       <c r="K14" t="n">
-        <v>0.005436630333802463</v>
+        <v>0.04131462340876215</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05827507027433118</v>
+        <v>0.01265922103850991</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06031901525770902</v>
+        <v>0.02133010092037146</v>
       </c>
       <c r="N14" t="n">
-        <v>0.006545652587781766</v>
+        <v>0.01818061191593029</v>
       </c>
       <c r="O14" t="n">
-        <v>0.009416205974272066</v>
+        <v>0.007631103831633556</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03686431025058385</v>
+        <v>0.05475272780318722</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07778394990859649</v>
+        <v>0.0207452237176101</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1021702957223822</v>
+        <v>0.06077343916006916</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09594620758332208</v>
+        <v>0.08032643249603999</v>
       </c>
       <c r="T14" t="n">
-        <v>0.001445114652297395</v>
+        <v>0.00167697619604045</v>
       </c>
       <c r="U14" t="n">
-        <v>6.560816074204877e-05</v>
+        <v>0.07911057587574197</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0004244218829937105</v>
+        <v>0.01111321297533376</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04918431834009766</v>
+        <v>0.04491509953025614</v>
       </c>
       <c r="X14" t="n">
-        <v>0.04949614046701054</v>
+        <v>0.06772215536317312</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1177760004793849</v>
+        <v>0.05835716329441203</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1045148873636093</v>
+        <v>0.0841129670211706</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02298390875491182</v>
+        <v>0.02170612984146148</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07015725495018531</v>
+        <v>0.06811369607788514</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.01639610553023982</v>
+        <v>0.003377446125900369</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3455237496135722</v>
+        <v>0.3943782761479321</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01010296384979606</v>
+        <v>0.01462494395013336</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08024718041170818</v>
+        <v>0.01388017341753593</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02198732807436828</v>
+        <v>0.02134930757797261</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07294350100793116</v>
+        <v>0.0222182335001707</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02970296008081651</v>
+        <v>0.02948802731402605</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01810272913867437</v>
+        <v>0.09167783399167821</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04415184381589296</v>
+        <v>0.003251207050762101</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004222754863384928</v>
+        <v>0.04935313140097194</v>
       </c>
       <c r="N15" t="n">
-        <v>0.07582745808425384</v>
+        <v>0.0789769495902818</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02119330449725016</v>
+        <v>0.01120687120135122</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02854634142841856</v>
+        <v>0.03554134217001419</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0003456789310377426</v>
+        <v>0.008711121274141647</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0409329967762242</v>
+        <v>0.1041475140980454</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08591581488021689</v>
+        <v>0.03728229067905803</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002377578200114505</v>
+        <v>0.0423545593250635</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0698138780105447</v>
+        <v>0.07828269984579439</v>
       </c>
       <c r="V15" t="n">
-        <v>0.07510453412367984</v>
+        <v>0.115658350832158</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06672473633048996</v>
+        <v>0.01106977265051313</v>
       </c>
       <c r="X15" t="n">
-        <v>0.03626628881900722</v>
+        <v>0.01555034485434009</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01106083087583</v>
+        <v>0.04776258079412769</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.05562331088598119</v>
+        <v>0.01380448605312106</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.06466111431091036</v>
+        <v>0.04735158380502459</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.08414487260346822</v>
+        <v>0.1064566746237143</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01496293281258154</v>
+        <v>0.01807478892439136</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2745345791689627</v>
+        <v>0.2704776772368791</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02996231695885275</v>
+        <v>0.06884186366147814</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03399897396456484</v>
+        <v>0.004758226498427142</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01217243049995245</v>
+        <v>0.01268410865805996</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06240331444451695</v>
+        <v>0.07657265685676934</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08805408447429047</v>
+        <v>0.02162903082777747</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001051707300364837</v>
+        <v>0.003839686708137361</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009768338306123765</v>
+        <v>0.02108924259439749</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02625506807125008</v>
+        <v>0.01591087238717035</v>
       </c>
       <c r="N16" t="n">
-        <v>0.007951225787238139</v>
+        <v>0.003081382124731407</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05073547861777302</v>
+        <v>0.0260700863724555</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01933890613785956</v>
+        <v>0.07558046108970796</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06979605412318293</v>
+        <v>0.07883863168864105</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1203813669370006</v>
+        <v>0.09036458494253773</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08091660482290966</v>
+        <v>0.02006628184900837</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0003730019776417979</v>
+        <v>0.04322726881245981</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06148845105883072</v>
+        <v>0.08235624404170111</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01549240357328444</v>
+        <v>2.25512263318858e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07477618425644098</v>
+        <v>0.06651922901238504</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01413333687375975</v>
+        <v>0.06483661078916898</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0504288397432613</v>
+        <v>0.06633553743891027</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.09056635547925862</v>
+        <v>0.002602937982507686</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0253265629604014</v>
+        <v>0.07654731580679448</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05462899363124086</v>
+        <v>0.07822518863044138</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1421679474362366</v>
+        <v>0.1471397429223727</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3271953996040623</v>
+        <v>0.3507605204361411</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08469436722025728</v>
+        <v>0.03893454397246853</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03491313564464781</v>
+        <v>0.02269747751490268</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03706880462644919</v>
+        <v>0.02804772843245651</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0146162854101424</v>
+        <v>0.05383208176747959</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1161994825532061</v>
+        <v>0.03149296183836658</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01905598188913564</v>
+        <v>0.07159094668230295</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02720062691046895</v>
+        <v>0.0356726311017448</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0107060981866515</v>
+        <v>0.03751084584586659</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02186494708673304</v>
+        <v>0.0219595717772252</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0334231497963031</v>
+        <v>0.05504610976540381</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03737042775431834</v>
+        <v>0.007560623225644235</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01381296620139463</v>
+        <v>0.008147727290817275</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04681726584266435</v>
+        <v>0.05759584072423009</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0742803209819602</v>
+        <v>0.09439115624368845</v>
       </c>
       <c r="T17" t="n">
-        <v>0.006220891353781538</v>
+        <v>0.02252923725734551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0940436991135617</v>
+        <v>0.09453905856910323</v>
       </c>
       <c r="V17" t="n">
-        <v>0.07831126128759974</v>
+        <v>0.09248558512827423</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04364704461017985</v>
+        <v>0.08191636362334143</v>
       </c>
       <c r="X17" t="n">
-        <v>0.04174725916255422</v>
+        <v>0.001800523982096576</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01388852286526255</v>
+        <v>0.006267408934178113</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.07355971408825786</v>
+        <v>0.008007834380890177</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01823092990093412</v>
+        <v>0.07683334485653123</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.05832681751353612</v>
+        <v>0.05114039708564219</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2057615078853936</v>
+        <v>0.2019013891914626</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1959897463865419</v>
+        <v>0.1917705489855395</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05399771201422545</v>
+        <v>0.02684184309222961</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02672996227707983</v>
+        <v>0.00361595112591449</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02207518141072504</v>
+        <v>0.01183769646608999</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07169130799007024</v>
+        <v>0.08343467343061749</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02086047784539794</v>
+        <v>0.0462511699087227</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01750514487687701</v>
+        <v>0.03524510699601364</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03735349976308688</v>
+        <v>0.02898172017033139</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0253160618050771</v>
+        <v>0.09120987060538742</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02768958465394643</v>
+        <v>0.01412167509659929</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003711571770163079</v>
+        <v>0.005294681712830809</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01330620090018167</v>
+        <v>0.06518067190147189</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04286307045317881</v>
+        <v>0.08229089522577035</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07165463961391351</v>
+        <v>0.06126401448715473</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08317653587704744</v>
+        <v>0.07916435529010489</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02318469537117892</v>
+        <v>0.006149307615170823</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05429371133381292</v>
+        <v>0.08423652619264362</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01637111930293626</v>
+        <v>0.003720592942038504</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07937134455267908</v>
+        <v>0.07667091687366188</v>
       </c>
       <c r="X18" t="n">
-        <v>0.07440115519042999</v>
+        <v>0.06409503851173939</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.05872242132153758</v>
+        <v>0.0322939449652276</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.09108186098285564</v>
+        <v>0.07305443248796581</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.07687428340453659</v>
+        <v>0.007849604385202389</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.007768457289062719</v>
+        <v>0.01719531051711129</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0475624122425268</v>
+        <v>0.05066496190056213</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2504887928375359</v>
+        <v>0.2701175364678108</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08516005507293621</v>
+        <v>0.0272475665190464</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02226455757536683</v>
+        <v>0.08131934550794044</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07270188082091621</v>
+        <v>0.05863823075247121</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0337675539408034</v>
+        <v>0.0252921088757173</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0945816000638622</v>
+        <v>0.09110308198795325</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04890968714262564</v>
+        <v>0.08904204145946604</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08904411513323043</v>
+        <v>0.08495562052342399</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02117023550173313</v>
+        <v>0.02452614867095412</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01217098749947103</v>
+        <v>0.002823351219755535</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02546511719844545</v>
+        <v>0.008585312420756833</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02236183405608312</v>
+        <v>0.02334330816424448</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002448989418785191</v>
+        <v>0.004654461284928028</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01781901278831885</v>
+        <v>0.08194987643581551</v>
       </c>
       <c r="S19" t="n">
-        <v>0.06965341587472948</v>
+        <v>0.005627951681515711</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03484302804493886</v>
+        <v>0.01195056312943795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03794761255224708</v>
+        <v>0.02713127399209119</v>
       </c>
       <c r="V19" t="n">
-        <v>0.007690147268977269</v>
+        <v>0.03178524800239235</v>
       </c>
       <c r="W19" t="n">
-        <v>0.06534491626800441</v>
+        <v>0.0306277319360403</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01477232273921975</v>
+        <v>0.06030852187247376</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.0315001516552059</v>
+        <v>0.04587688056546258</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.09548867420944852</v>
+        <v>0.05733078227828523</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.09212768303385892</v>
+        <v>0.09064098258792709</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.002766422140791979</v>
+        <v>0.03523961013190069</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.06977307085352141</v>
+        <v>0.06335529464375943</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.170812663480981</v>
+        <v>0.172552896666337</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0699775926049329</v>
+        <v>0.07373851849878305</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01724507275478113</v>
+        <v>0.02691843554475828</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07565370191298004</v>
+        <v>0.04830428019258063</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01753389473764674</v>
+        <v>0.008288935540150378</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002750144206297845</v>
+        <v>0.02512623800210686</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05527787833344264</v>
+        <v>0.02746510336507808</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0008935086974366166</v>
+        <v>0.0119401363476092</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07664990557775228</v>
+        <v>0.1007132179605536</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01781811173512404</v>
+        <v>0.02191214436474449</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02392288959298436</v>
+        <v>0.03761202622428671</v>
       </c>
       <c r="P20" t="n">
-        <v>0.09998188791729953</v>
+        <v>0.05393718820117861</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03093843049294035</v>
+        <v>0.04351896150403126</v>
       </c>
       <c r="R20" t="n">
-        <v>0.06796477966977869</v>
+        <v>0.0861741224958355</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05540512157728667</v>
+        <v>0.07494140349887647</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01150539631293224</v>
+        <v>0.02976691554234879</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07464618345369262</v>
+        <v>0.04375035369672214</v>
       </c>
       <c r="V20" t="n">
-        <v>0.008306340462017298</v>
+        <v>0.02581422390979227</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09915106455093482</v>
+        <v>0.09504572545050864</v>
       </c>
       <c r="X20" t="n">
-        <v>0.04439376338785563</v>
+        <v>0.02434872180820052</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.04702114095254283</v>
+        <v>0.04671405076185606</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01654037644325436</v>
+        <v>0.04253144676100076</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.08128755568444873</v>
+        <v>0.0423213453608939</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.005135258941637583</v>
+        <v>0.009116504968103846</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1549612290636011</v>
+        <v>-0.1493376391708737</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2284458913223252</v>
+        <v>0.2114954917385924</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05128453705758917</v>
+        <v>0.09581340146303838</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008859291024517242</v>
+        <v>0.06962865143914891</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01533215071141799</v>
+        <v>0.05736380161181021</v>
       </c>
       <c r="I21" t="n">
-        <v>0.038774712957758</v>
+        <v>0.02945192366034771</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08395778776849812</v>
+        <v>0.03462367346715908</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1013281940361185</v>
+        <v>0.06746073333533388</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03849882479701325</v>
+        <v>0.02012751103647694</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001726935617700602</v>
+        <v>0.01718891801770359</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0002253549984228915</v>
+        <v>0.001630020729198586</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02945109125722771</v>
+        <v>0.0250817478589068</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01888378151863286</v>
+        <v>0.01049169705454666</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.03267469183460188</v>
+        <v>0.0122404282770677</v>
       </c>
       <c r="R21" t="n">
-        <v>0.09432501453491392</v>
+        <v>0.02904127049978373</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09200548200413629</v>
+        <v>0.1045600187547342</v>
       </c>
       <c r="T21" t="n">
-        <v>0.00698621322226566</v>
+        <v>0.01042171336117364</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02603695738474846</v>
+        <v>0.02633956259337134</v>
       </c>
       <c r="V21" t="n">
-        <v>0.08160582800014234</v>
+        <v>0.09790894593666825</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0172539390925604</v>
+        <v>0.05469427130794696</v>
       </c>
       <c r="X21" t="n">
-        <v>0.006811399777509966</v>
+        <v>0.1076778400146747</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05973565489547177</v>
+        <v>0.004986887986411993</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0276435570655539</v>
+        <v>0.05305317672239653</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.09201450946755334</v>
+        <v>0.04277367118151676</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.07458409097564571</v>
+        <v>0.0274401336905833</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1967736510113334</v>
+        <v>-0.1655791104804148</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1942663432400356</v>
+        <v>0.1953074345720322</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09012347839211304</v>
+        <v>0.08045489158648327</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001062024276218545</v>
+        <v>0.03052390467879743</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08817519949638171</v>
+        <v>0.0438860263170695</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0140349578978103</v>
+        <v>0.08319383403962265</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03893549114565499</v>
+        <v>0.02781726846202737</v>
       </c>
       <c r="K22" t="n">
-        <v>0.009851489649653209</v>
+        <v>0.02701259604623359</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003965107960630344</v>
+        <v>0.01718753068820656</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01901904179134882</v>
+        <v>0.05919750369680932</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02482102491313228</v>
+        <v>0.004116547727998642</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02886201950113327</v>
+        <v>0.02994985815928586</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07241994430244419</v>
+        <v>0.07954839950043557</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.07857117861860159</v>
+        <v>0.05519128573660415</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08408458889108296</v>
+        <v>0.09699081067717504</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06996712287951384</v>
+        <v>0.07493427731744151</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02501392083499503</v>
+        <v>0.03485758736394057</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07263551043239226</v>
+        <v>0.06639837768712502</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0008634509920304248</v>
+        <v>0.01438267962891215</v>
       </c>
       <c r="W22" t="n">
-        <v>0.05078155525465602</v>
+        <v>0.03883792365758275</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0520275266608182</v>
+        <v>0.05922689254295682</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05761603211862651</v>
+        <v>0.0516163823396725</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.05149357617609193</v>
+        <v>0.01275327461760444</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0431556000779223</v>
+        <v>0.0005254186952612283</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0225201577367482</v>
+        <v>0.01139672883275398</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.04881641967134771</v>
+        <v>0.06220922636670745</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2049928426227469</v>
+        <v>0.2004374864904524</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04976034934380598</v>
+        <v>0.02331016809396716</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02827271296643174</v>
+        <v>0.08538656038130392</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08513176191433876</v>
+        <v>0.01794689813643667</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03717968239124231</v>
+        <v>0.02059893919636752</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0612801689055997</v>
+        <v>0.009065162307112873</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01439525708254308</v>
+        <v>0.007098042008633842</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002507378933159637</v>
+        <v>0.01644991170560499</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07200631940970445</v>
+        <v>0.003694259280085777</v>
       </c>
       <c r="N23" t="n">
-        <v>0.05200484761056816</v>
+        <v>0.03014275517531665</v>
       </c>
       <c r="O23" t="n">
-        <v>0.007164173915239572</v>
+        <v>0.005881197730949808</v>
       </c>
       <c r="P23" t="n">
-        <v>0.06475061656327794</v>
+        <v>0.07363209600249181</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.006776238628674455</v>
+        <v>0.01967897615480584</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05282988563670097</v>
+        <v>0.1184634281517696</v>
       </c>
       <c r="S23" t="n">
-        <v>0.09914357775676035</v>
+        <v>0.08974680124791294</v>
       </c>
       <c r="T23" t="n">
-        <v>0.002533631920106417</v>
+        <v>0.08644382577794683</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02311646079173581</v>
+        <v>0.08919603180623094</v>
       </c>
       <c r="V23" t="n">
-        <v>0.08165745877757449</v>
+        <v>0.02939589695937199</v>
       </c>
       <c r="W23" t="n">
-        <v>0.1019975285670603</v>
+        <v>0.06792910665609987</v>
       </c>
       <c r="X23" t="n">
-        <v>0.02572833101867621</v>
+        <v>0.01026393322098972</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.000958803357630058</v>
+        <v>0.03447073687673068</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.09190737824424383</v>
+        <v>0.09761711248203053</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03323043780964523</v>
+        <v>0.04683158913409059</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.005666998455280775</v>
+        <v>0.01675657151374976</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.02561024320794179</v>
+        <v>0.04744535075041098</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1974441080882106</v>
+        <v>0.198798673379289</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04929700519997213</v>
+        <v>0.06356129065044802</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0102058418306615</v>
+        <v>0.01375617915083011</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02718129711157209</v>
+        <v>0.002484059927088374</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02601238919381949</v>
+        <v>0.05963324934225978</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0242639500729794</v>
+        <v>0.02663791799816769</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02964051634802903</v>
+        <v>0.02692835192372853</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003288706782653398</v>
+        <v>0.03209279200041783</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005168674108923901</v>
+        <v>0.05165879089862535</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02636105634735956</v>
+        <v>0.08082288503337443</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02840692986956676</v>
+        <v>0.0553331753977802</v>
       </c>
       <c r="P24" t="n">
-        <v>0.09501742715444553</v>
+        <v>0.08568589046162561</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.07075528285240375</v>
+        <v>0.03068102742006991</v>
       </c>
       <c r="R24" t="n">
-        <v>0.02487166492832349</v>
+        <v>0.06018216256860993</v>
       </c>
       <c r="S24" t="n">
-        <v>0.104314248995745</v>
+        <v>0.09684965742003393</v>
       </c>
       <c r="T24" t="n">
-        <v>0.002061625594759019</v>
+        <v>0.01977426925388176</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07384519650757347</v>
+        <v>0.03778799362319771</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04091077569425045</v>
+        <v>0.001402182335431504</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07731371315359982</v>
+        <v>0.1006857583664347</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1077063421416333</v>
+        <v>0.06567116459375825</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.009084352635916339</v>
+        <v>0.01519686673168936</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0779710084868373</v>
+        <v>0.04482056726917492</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04908359572976303</v>
+        <v>0.02564810735678327</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.03723839925921203</v>
+        <v>0.002705660276589001</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1302089078626761</v>
+        <v>0.1240932540643074</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2188518870878391</v>
+        <v>0.2247105295268777</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03672216574386284</v>
+        <v>0.04340601768279713</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0368698678260852</v>
+        <v>0.04588454501332604</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001857431555475153</v>
+        <v>0.05251075520249368</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0726988157911421</v>
+        <v>0.03264439331688831</v>
       </c>
       <c r="J25" t="n">
-        <v>0.09659818085475184</v>
+        <v>0.08694880511141273</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07227301677101741</v>
+        <v>0.1021808003170023</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0238628305214709</v>
+        <v>0.005378301627329999</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005279493106204424</v>
+        <v>0.007594629919192904</v>
       </c>
       <c r="N25" t="n">
-        <v>0.02542021752204368</v>
+        <v>0.07125559586578828</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09736925064313545</v>
+        <v>0.04794340163495101</v>
       </c>
       <c r="P25" t="n">
-        <v>0.004576244151355343</v>
+        <v>0.04689109436689605</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0007100788511474987</v>
+        <v>0.031236163451257</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0474733505631931</v>
+        <v>0.05488709698177199</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1054343636775435</v>
+        <v>0.1038722830027635</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02539856149586697</v>
+        <v>0.06954406205756068</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09445582039084556</v>
+        <v>0.08450881931550841</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01993590152490275</v>
+        <v>0.007125652058024147</v>
       </c>
       <c r="W25" t="n">
-        <v>0.07746525729214003</v>
+        <v>0.05591859975498784</v>
       </c>
       <c r="X25" t="n">
-        <v>0.06568541801090351</v>
+        <v>0.005651279936906898</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.000324160263369826</v>
+        <v>0.02455655746780756</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02300036482244955</v>
+        <v>0.000422934191295471</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.05918207636703966</v>
+        <v>0.01080786900776914</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.007407132254053736</v>
+        <v>0.008830342716268931</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1720563124983373</v>
+        <v>0.1450114575138241</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2180024492280908</v>
+        <v>0.2050287572900932</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09418898018115157</v>
+        <v>0.05333767930228946</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0009992804872158917</v>
+        <v>0.04965719315856745</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0263773920148492</v>
+        <v>0.03205955481440549</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07393420168231059</v>
+        <v>0.02433911708268923</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03968950108612927</v>
+        <v>0.02803611833689454</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01446302152174744</v>
+        <v>0.006552230768264944</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0922915008093908</v>
+        <v>0.006747399523372609</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05683668628722376</v>
+        <v>0.08689918113157001</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01885531328402199</v>
+        <v>0.01201480235586076</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002801112588813087</v>
+        <v>0.00124523049193392</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0486125630479017</v>
+        <v>0.09677852758385712</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.009395231158546988</v>
+        <v>0.01945688944513199</v>
       </c>
       <c r="R26" t="n">
-        <v>0.053414720066374</v>
+        <v>0.07274556717312652</v>
       </c>
       <c r="S26" t="n">
-        <v>0.09346702259007006</v>
+        <v>0.09212838905795938</v>
       </c>
       <c r="T26" t="n">
-        <v>0.00262713309264347</v>
+        <v>0.03621930788860939</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1027040789057261</v>
+        <v>0.06419631913465643</v>
       </c>
       <c r="V26" t="n">
-        <v>0.07046007263921936</v>
+        <v>0.09606299240947901</v>
       </c>
       <c r="W26" t="n">
-        <v>0.001685989141772052</v>
+        <v>0.02988405424584462</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02286555272658336</v>
+        <v>0.04417036611810655</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.09913357573763727</v>
+        <v>0.01648675759068318</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01875435457607032</v>
+        <v>0.02494038913578247</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04776648130586999</v>
+        <v>0.102996104382796</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.008676235068731624</v>
+        <v>0.003045828868119108</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02882637362060067</v>
+        <v>0.03522127456327665</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2359761469911308</v>
+        <v>0.216920509852107</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07528596487293759</v>
+        <v>0.06501564051320674</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01099364759968458</v>
+        <v>0.01349050488230132</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0006584048034043769</v>
+        <v>0.03054554255727238</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02940265623816618</v>
+        <v>0.01734681928219607</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0696402657399193</v>
+        <v>0.03581793538027299</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08294993085429447</v>
+        <v>0.09774188220060213</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03995570233861532</v>
+        <v>0.04402305315315212</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0475737444574407</v>
+        <v>0.02316539821118394</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02422113989587599</v>
+        <v>0.009945709675096061</v>
       </c>
       <c r="O27" t="n">
-        <v>0.005936010782313057</v>
+        <v>0.0002784641324923494</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02222935875311806</v>
+        <v>0.08299324924870261</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.04104221039290861</v>
+        <v>0.01406873249924662</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02417905368588467</v>
+        <v>0.06693970736516477</v>
       </c>
       <c r="S27" t="n">
-        <v>0.08854010302015584</v>
+        <v>0.09354608001801759</v>
       </c>
       <c r="T27" t="n">
-        <v>0.035278260833042</v>
+        <v>0.04121161560361128</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03002669898599945</v>
+        <v>0.05969549067860629</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01344505125729955</v>
+        <v>0.0001664664017529726</v>
       </c>
       <c r="W27" t="n">
-        <v>0.08548437181977231</v>
+        <v>0.08793997345901387</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01398818955632739</v>
+        <v>0.01907976817340956</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.08215742687478694</v>
+        <v>0.09560005425879961</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0894463461764522</v>
+        <v>0.06993592352214976</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.04980987769486112</v>
+        <v>0.01988779826857462</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03775558336674029</v>
+        <v>0.01156419051517434</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.01290957487798713</v>
+        <v>0.0270347553693973</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2041963076293826</v>
+        <v>0.2087493501647824</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01660634097617413</v>
+        <v>0.05674612543751829</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03088676768701885</v>
+        <v>0.000691157204464847</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05175819001596212</v>
+        <v>0.0257657922028759</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03539501399029684</v>
+        <v>0.0365808900032915</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0009665128016762947</v>
+        <v>0.08177276879968309</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02567537998930553</v>
+        <v>0.02090862439301099</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03762228688817577</v>
+        <v>0.008090397996296019</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06788977205145504</v>
+        <v>0.08541337489408736</v>
       </c>
       <c r="N28" t="n">
-        <v>0.001546373268946018</v>
+        <v>0.0003528521930757777</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05177135709310499</v>
+        <v>0.0287902049524018</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08737945908201693</v>
+        <v>0.02900176619734698</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06377143806132957</v>
+        <v>0.07375530212867044</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05370941311434983</v>
+        <v>0.09302668306480666</v>
       </c>
       <c r="S28" t="n">
-        <v>0.07175296428923823</v>
+        <v>0.08613988364404919</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01354297449852934</v>
+        <v>0.001084683626848819</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05661424709129825</v>
+        <v>0.08892474556201956</v>
       </c>
       <c r="V28" t="n">
-        <v>0.04909123130792124</v>
+        <v>0.001282271694230011</v>
       </c>
       <c r="W28" t="n">
-        <v>0.101953995216998</v>
+        <v>0.04511304285646912</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01715566663379086</v>
+        <v>0.06941100303618912</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02185862741923016</v>
+        <v>0.06130090983784495</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03297358260486204</v>
+        <v>0.08845832383391639</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.08998669001734577</v>
+        <v>0.00537162938150468</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02009171590097435</v>
+        <v>0.01201756705939852</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1778414196775265</v>
+        <v>0.1431970712570723</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2460828579285339</v>
+        <v>0.2161198299923036</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03648294766183576</v>
+        <v>0.08172110831672633</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06052918631372555</v>
+        <v>0.00956042187759127</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01127820060391643</v>
+        <v>0.06954096873186999</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02826871477384561</v>
+        <v>0.07916355543924181</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04398160825948078</v>
+        <v>0.05134599107052628</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07038045958824339</v>
+        <v>0.002098413119682156</v>
       </c>
       <c r="L29" t="n">
-        <v>0.04683416228037623</v>
+        <v>0.03289316985964294</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09213284031374717</v>
+        <v>0.02185429516115346</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03896445211651656</v>
+        <v>0.03016818876863829</v>
       </c>
       <c r="O29" t="n">
-        <v>0.08445114008565559</v>
+        <v>0.1148983975568934</v>
       </c>
       <c r="P29" t="n">
-        <v>0.02430593103840329</v>
+        <v>0.003472787911707062</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.002920177897508536</v>
+        <v>0.006552476001789403</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03167389456062718</v>
+        <v>0.06874114699666355</v>
       </c>
       <c r="S29" t="n">
-        <v>0.09270272791490861</v>
+        <v>0.08389923324994926</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01123284250680657</v>
+        <v>0.03051641879534572</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03366450225609257</v>
+        <v>0.03201130787077419</v>
       </c>
       <c r="V29" t="n">
-        <v>0.005690957197358326</v>
+        <v>0.0008233935579801929</v>
       </c>
       <c r="W29" t="n">
-        <v>0.08481739044903278</v>
+        <v>0.1114094986964652</v>
       </c>
       <c r="X29" t="n">
-        <v>0.07145479051537947</v>
+        <v>0.03061286854253257</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0004863663484987269</v>
+        <v>0.05717287855250221</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01742016257301021</v>
+        <v>0.02853231436659786</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.01917993302938924</v>
+        <v>0.04398838442876863</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.09114661171564142</v>
+        <v>0.009022781126958274</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1939093667549562</v>
+        <v>0.1563239313775818</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1589600373927179</v>
+        <v>0.1623703005510849</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09340962379884044</v>
+        <v>0.02246082861569572</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03572620030885402</v>
+        <v>0.005511924534533348</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05062473899807957</v>
+        <v>0.07885269055190502</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04666579873077326</v>
+        <v>0.0209014512297448</v>
       </c>
       <c r="J30" t="n">
-        <v>0.008206988704836762</v>
+        <v>0.0878710773340014</v>
       </c>
       <c r="K30" t="n">
-        <v>0.008332890236984218</v>
+        <v>0.0007802769116334766</v>
       </c>
       <c r="L30" t="n">
-        <v>0.005784867942642135</v>
+        <v>0.01365224415456904</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01612257413312107</v>
+        <v>0.00843888583303861</v>
       </c>
       <c r="N30" t="n">
-        <v>0.06172937582645124</v>
+        <v>0.01660908229308811</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01741909721714175</v>
+        <v>0.01895287283904792</v>
       </c>
       <c r="P30" t="n">
-        <v>0.05270461442904185</v>
+        <v>0.03351179540839266</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03378981839180433</v>
+        <v>0.03950601821875908</v>
       </c>
       <c r="R30" t="n">
-        <v>0.08586780583347429</v>
+        <v>0.1138590541462013</v>
       </c>
       <c r="S30" t="n">
-        <v>0.08712406628023479</v>
+        <v>0.05464590070622807</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02545170885846408</v>
+        <v>0.02132967218345803</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01147945079992484</v>
+        <v>0.06233786039137836</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01605305411441402</v>
+        <v>0.0397576973046579</v>
       </c>
       <c r="W30" t="n">
-        <v>0.08714685085173379</v>
+        <v>0.111646259051618</v>
       </c>
       <c r="X30" t="n">
-        <v>0.06406873126999522</v>
+        <v>0.06854685141403837</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.0766502368808516</v>
+        <v>0.09395517750721305</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.03570134132168802</v>
+        <v>0.05413383355335685</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02168060313017305</v>
+        <v>0.01799296491397965</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.05825956194047565</v>
+        <v>0.01474558090346122</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.00303138070973302</v>
+        <v>0.04406200190503957</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.21605702525094</v>
+        <v>0.1997958485935214</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09488372156981517</v>
+        <v>0.07237292105668988</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006894108904783787</v>
+        <v>0.01664397403843097</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04433019564563961</v>
+        <v>0.03511491825795236</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09447270515293926</v>
+        <v>0.09146964201380189</v>
       </c>
       <c r="J31" t="n">
-        <v>0.02275315749358793</v>
+        <v>0.04054917553573884</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01017878185024216</v>
+        <v>0.04172291785664044</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0698973880791976</v>
+        <v>0.01000732797437318</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04331030861917274</v>
+        <v>0.003740985963978265</v>
       </c>
       <c r="N31" t="n">
-        <v>0.07851620563529044</v>
+        <v>0.0199652168242113</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02250561670186672</v>
+        <v>0.05874349437000678</v>
       </c>
       <c r="P31" t="n">
-        <v>0.06056404819479843</v>
+        <v>0.08446958997650837</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.000772717870632577</v>
+        <v>0.01810772610087287</v>
       </c>
       <c r="R31" t="n">
-        <v>0.004768742761695035</v>
+        <v>0.02554683025974689</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03053705640693051</v>
+        <v>0.07063857204713216</v>
       </c>
       <c r="T31" t="n">
-        <v>0.05628816957261178</v>
+        <v>0.05447126657721712</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009593651909313302</v>
+        <v>0.04008649378510162</v>
       </c>
       <c r="V31" t="n">
-        <v>0.02846883306688665</v>
+        <v>0.01084442557476529</v>
       </c>
       <c r="W31" t="n">
-        <v>0.08080973747854703</v>
+        <v>0.09657580060096803</v>
       </c>
       <c r="X31" t="n">
-        <v>0.07547710193521916</v>
+        <v>0.06959678405425622</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.005856655655235262</v>
+        <v>0.03157675454077381</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.03374524554534405</v>
+        <v>0.01972401663994675</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.06666830807608581</v>
+        <v>0.07688607462985651</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.05870754187416512</v>
+        <v>0.01114509132103038</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.006079593786075354</v>
+        <v>0.01911163817547751</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1386982766722601</v>
+        <v>0.1399222503307402</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04210981267665982</v>
+        <v>0.05132403781328675</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04730292802139991</v>
+        <v>0.04972102384433657</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03167209350429773</v>
+        <v>0.0420684123722397</v>
       </c>
       <c r="I32" t="n">
-        <v>0.004448601231330016</v>
+        <v>0.007845618958963239</v>
       </c>
       <c r="J32" t="n">
-        <v>0.01461549521018924</v>
+        <v>0.008548283128959024</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02600859219416146</v>
+        <v>0.008910708553798549</v>
       </c>
       <c r="L32" t="n">
-        <v>0.001222026950631888</v>
+        <v>0.02231327922918722</v>
       </c>
       <c r="M32" t="n">
-        <v>0.07824657658446162</v>
+        <v>0.05602038124494277</v>
       </c>
       <c r="N32" t="n">
-        <v>0.02102271878829336</v>
+        <v>0.02723882699497904</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01429967336249669</v>
+        <v>0.009663551933363388</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07180221159405609</v>
+        <v>0.0326586062087274</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.04503988681054322</v>
+        <v>0.08054273511971327</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09747154478087312</v>
+        <v>0.06551960103817935</v>
       </c>
       <c r="S32" t="n">
-        <v>0.006863645055516877</v>
+        <v>0.01306282594051473</v>
       </c>
       <c r="T32" t="n">
-        <v>0.08502910992531762</v>
+        <v>0.03635103158053862</v>
       </c>
       <c r="U32" t="n">
-        <v>0.004164663628398557</v>
+        <v>0.06759377817310491</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01537007145494331</v>
+        <v>0.02137882389648785</v>
       </c>
       <c r="W32" t="n">
-        <v>0.08654913602268587</v>
+        <v>0.08325395022697477</v>
       </c>
       <c r="X32" t="n">
-        <v>0.07894166421475697</v>
+        <v>0.06883640234840604</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01620244735982794</v>
+        <v>0.04031885437332502</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0864950201891438</v>
+        <v>0.08334901258345216</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.04462733906754851</v>
+        <v>0.08024052957270428</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.08049474137246657</v>
+        <v>0.04323972486381539</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.02174531191890518</v>
+        <v>0.007069033143765936</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2129093379827614</v>
+        <v>0.212303612523512</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02659243670929312</v>
+        <v>0.02127314148502011</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04981270924690722</v>
+        <v>0.01923046701140473</v>
       </c>
       <c r="H33" t="n">
-        <v>0.003689924417285707</v>
+        <v>0.03084665488560949</v>
       </c>
       <c r="I33" t="n">
-        <v>0.09621005137593015</v>
+        <v>0.06565334573760408</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03410824862991069</v>
+        <v>0.001059643392061714</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08062016240391202</v>
+        <v>0.09349186773959475</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06456031727810868</v>
+        <v>0.09817236750308034</v>
       </c>
       <c r="M33" t="n">
-        <v>0.08413314248243497</v>
+        <v>0.072694734954744</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01486337101625348</v>
+        <v>0.006417709709710151</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01555211299796706</v>
+        <v>0.006046774260618984</v>
       </c>
       <c r="P33" t="n">
-        <v>0.05633238372799745</v>
+        <v>0.09941498830635703</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.004623914958699152</v>
+        <v>0.0055862164310153</v>
       </c>
       <c r="R33" t="n">
-        <v>0.001639087084151393</v>
+        <v>0.08251113210080302</v>
       </c>
       <c r="S33" t="n">
-        <v>0.05056849952236678</v>
+        <v>0.03203774158702671</v>
       </c>
       <c r="T33" t="n">
-        <v>0.07642957008194988</v>
+        <v>0.02983763815442096</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05169246683604786</v>
+        <v>0.01730227981410353</v>
       </c>
       <c r="V33" t="n">
-        <v>0.03478024551788465</v>
+        <v>0.08053994939083343</v>
       </c>
       <c r="W33" t="n">
-        <v>0.06136880340439505</v>
+        <v>0.01451605909459105</v>
       </c>
       <c r="X33" t="n">
-        <v>0.08136426130147502</v>
+        <v>0.05895292245446768</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.009631197771221399</v>
+        <v>0.003576519940746622</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02937110345598335</v>
+        <v>0.01301777506262642</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.001364635498610479</v>
+        <v>0.05195730495698002</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.07069135428121466</v>
+        <v>0.09586276602657998</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.02454515545609308</v>
+        <v>0.02113011879896545</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1422258280638157</v>
+        <v>0.1383613288140922</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07939914013532148</v>
+        <v>0.09186403034930786</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07218778965930148</v>
+        <v>0.08436371679065499</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06669616641740682</v>
+        <v>0.008306458562497917</v>
       </c>
       <c r="I34" t="n">
-        <v>0.007695824938775252</v>
+        <v>0.00457402670389837</v>
       </c>
       <c r="J34" t="n">
-        <v>0.07331066839483423</v>
+        <v>0.03172565295496978</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0004423291473132326</v>
+        <v>0.006393493824823746</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03843209748536516</v>
+        <v>0.01936800270606444</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06422469344493957</v>
+        <v>0.08736830874754932</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03081676668068855</v>
+        <v>0.04430155539919634</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02009622731845575</v>
+        <v>0.01718612115445635</v>
       </c>
       <c r="P34" t="n">
-        <v>0.06998496618405475</v>
+        <v>0.05125600290835192</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.08069227956065549</v>
+        <v>0.05187672780639434</v>
       </c>
       <c r="R34" t="n">
-        <v>0.07120034534630602</v>
+        <v>0.05536763405056602</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01940880850742393</v>
+        <v>0.05890612478833036</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03481223361505561</v>
+        <v>0.001157305535965879</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02403038468441546</v>
+        <v>0.004950269107633147</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01682232675819103</v>
+        <v>0.04450248655905407</v>
       </c>
       <c r="W34" t="n">
-        <v>0.04196839410160366</v>
+        <v>0.08387691636527636</v>
       </c>
       <c r="X34" t="n">
-        <v>0.02310985874683753</v>
+        <v>0.05292539713689073</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.05911710656414158</v>
+        <v>0.05153936463145746</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.05880356197854456</v>
+        <v>0.06812833280313146</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.01696772762120353</v>
+        <v>0.05239358843920641</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.02978030270916545</v>
+        <v>0.02766848267432254</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1036443620529278</v>
+        <v>0.1135768874065771</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2094282493549324</v>
+        <v>0.1700034753659476</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03075217941042646</v>
+        <v>0.001690289611915943</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06798919324660728</v>
+        <v>0.09853909352224634</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002134542900410066</v>
+        <v>0.06813079456123496</v>
       </c>
       <c r="I35" t="n">
-        <v>0.09460445879609862</v>
+        <v>0.05963062307180436</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03775410954996863</v>
+        <v>0.05527708080727882</v>
       </c>
       <c r="K35" t="n">
-        <v>0.01728774247016083</v>
+        <v>0.01268573437357317</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02816017460342122</v>
+        <v>0.00860079371746052</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02313115033157403</v>
+        <v>0.04375927607235173</v>
       </c>
       <c r="N35" t="n">
-        <v>0.06567559998235313</v>
+        <v>0.006950324192189412</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03396347650240192</v>
+        <v>0.02555158500007942</v>
       </c>
       <c r="P35" t="n">
-        <v>0.09108812192232095</v>
+        <v>0.07962505017765248</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.05823904933443275</v>
+        <v>0.03161649529276462</v>
       </c>
       <c r="R35" t="n">
-        <v>0.02053900274800894</v>
+        <v>0.0584041684827042</v>
       </c>
       <c r="S35" t="n">
-        <v>0.05640077890610338</v>
+        <v>0.03342142811334135</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02014651948635619</v>
+        <v>0.02521496386025741</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01359885766161518</v>
+        <v>0.04427207890405064</v>
       </c>
       <c r="V35" t="n">
-        <v>0.06015140424435938</v>
+        <v>0.07081570776219323</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1107453503072927</v>
+        <v>0.09341223992920329</v>
       </c>
       <c r="X35" t="n">
-        <v>0.05599074747136169</v>
+        <v>0.01623090386845102</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.002574261990974234</v>
+        <v>0.03421512315201852</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.03348252753274716</v>
+        <v>0.08877339895960153</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.07189009520109094</v>
+        <v>0.01820072646845832</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.003700655399914644</v>
+        <v>0.02498212009916853</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1191880133549298</v>
+        <v>0.1247405251258358</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1647116922583579</v>
+        <v>0.1665564444928901</v>
       </c>
       <c r="F36" t="n">
-        <v>0.006450260633242323</v>
+        <v>0.0230609090747556</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07377392484311761</v>
+        <v>0.05943561551732277</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05776751421863144</v>
+        <v>0.04496645781979933</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03263331402374562</v>
+        <v>0.08184181757392968</v>
       </c>
       <c r="J36" t="n">
-        <v>0.07071911798765197</v>
+        <v>0.01599704701888873</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003336852429248853</v>
+        <v>0.006229590999909681</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01755269351349904</v>
+        <v>0.02817475853379175</v>
       </c>
       <c r="M36" t="n">
-        <v>0.07685361485978659</v>
+        <v>0.08381122752683746</v>
       </c>
       <c r="N36" t="n">
-        <v>0.06754513551750498</v>
+        <v>0.0862860065758861</v>
       </c>
       <c r="O36" t="n">
-        <v>0.07466096688678636</v>
+        <v>0.008662330821426763</v>
       </c>
       <c r="P36" t="n">
-        <v>0.07463243503223767</v>
+        <v>0.05983116393643014</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03508175485954053</v>
+        <v>0.04309423643813873</v>
       </c>
       <c r="R36" t="n">
-        <v>0.008939511832286419</v>
+        <v>0.03033205414720793</v>
       </c>
       <c r="S36" t="n">
-        <v>0.008785708836595001</v>
+        <v>0.02351273313708756</v>
       </c>
       <c r="T36" t="n">
-        <v>0.02150671114618331</v>
+        <v>0.01117744928736248</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04597447187031425</v>
+        <v>0.04808335421110201</v>
       </c>
       <c r="V36" t="n">
-        <v>0.007968100898206664</v>
+        <v>0.07533670940154824</v>
       </c>
       <c r="W36" t="n">
-        <v>0.04353236148317342</v>
+        <v>0.0278160028572102</v>
       </c>
       <c r="X36" t="n">
-        <v>0.07102570538786768</v>
+        <v>0.06822331127101278</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.04460676883083481</v>
+        <v>0.0584012582486237</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.05502872332593662</v>
+        <v>0.003684169947576142</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.06290550282445222</v>
+        <v>0.0573985816838492</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.03871884875915634</v>
+        <v>0.05464321397030304</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.04245097173126619</v>
+        <v>-0.05648232002048782</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2127233764939517</v>
+        <v>0.1822539219365127</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02229926288547926</v>
+        <v>0.0008016115645463817</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07971113880704367</v>
+        <v>0.0844651616299583</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00945488708729795</v>
+        <v>0.08866070244405384</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06034089143370457</v>
+        <v>0.01098171070181387</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01401437151039473</v>
+        <v>0.07402707543527076</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08253374481330859</v>
+        <v>0.03478744689695999</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06273634832438528</v>
+        <v>0.02054788556926261</v>
       </c>
       <c r="M37" t="n">
-        <v>0.08009163601415006</v>
+        <v>0.0676914149854409</v>
       </c>
       <c r="N37" t="n">
-        <v>0.02608112074158592</v>
+        <v>0.03000444048408401</v>
       </c>
       <c r="O37" t="n">
-        <v>0.008872966591413775</v>
+        <v>0.0180407149130673</v>
       </c>
       <c r="P37" t="n">
-        <v>0.04168190696881224</v>
+        <v>0.08980323358322026</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.00156798410462289</v>
+        <v>0.01046616049869848</v>
       </c>
       <c r="R37" t="n">
-        <v>0.05850398313297823</v>
+        <v>0.02778504690003269</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0849557257422119</v>
+        <v>0.09860793573242652</v>
       </c>
       <c r="T37" t="n">
-        <v>0.008807635035623184</v>
+        <v>0.05324606270123111</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0514815622892467</v>
+        <v>0.04465698241405197</v>
       </c>
       <c r="V37" t="n">
-        <v>0.06901447724349741</v>
+        <v>0.05933671072216832</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08647687730024482</v>
+        <v>0.05232093893085345</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03445993227622102</v>
+        <v>0.006047903795571619</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02894479779771836</v>
+        <v>0.02619152742784407</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.007639377310451044</v>
+        <v>0.0816834585932025</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.05729663885573686</v>
+        <v>0.01727287179507727</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.02303273373387137</v>
+        <v>0.002573002281163574</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.007847571375231035</v>
+        <v>0.0176297342143285</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.182940303854367</v>
+        <v>0.1821028365658209</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03910375342222561</v>
+        <v>0.09084146561017337</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03029365691985152</v>
+        <v>0.1067446847589471</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02130411467956417</v>
+        <v>0.09532444525753062</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03513301831094254</v>
+        <v>0.005156466446445585</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02767951522105836</v>
+        <v>0.009503254320986565</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02414549414870014</v>
+        <v>0.03493498716291121</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02775054799626522</v>
+        <v>0.03063191106062404</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06309630597552819</v>
+        <v>0.05556306656075635</v>
       </c>
       <c r="N38" t="n">
-        <v>0.06375522206873652</v>
+        <v>0.0375682448798683</v>
       </c>
       <c r="O38" t="n">
-        <v>0.05016905151573391</v>
+        <v>0.03423017050982707</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01517498583379583</v>
+        <v>0.001903320280920879</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04171051956095524</v>
+        <v>0.05396754563569035</v>
       </c>
       <c r="R38" t="n">
-        <v>0.02589892308284511</v>
+        <v>0.02140567999307758</v>
       </c>
       <c r="S38" t="n">
-        <v>0.03569440991208919</v>
+        <v>0.05159680836931704</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04808588873507404</v>
+        <v>0.007130999739678707</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05107036508064387</v>
+        <v>0.0465213951688259</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0321970297482774</v>
+        <v>0.00110958469675379</v>
       </c>
       <c r="W38" t="n">
-        <v>0.07204107451287554</v>
+        <v>0.0955819352425689</v>
       </c>
       <c r="X38" t="n">
-        <v>0.07220889722808364</v>
+        <v>0.0971615476122043</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.05887927100037573</v>
+        <v>0.04128892547157308</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.06993419073565856</v>
+        <v>0.03068275078193508</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.07358796838436436</v>
+        <v>0.04330820862739905</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.02108579592635523</v>
+        <v>0.007842601811985027</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.04048237637119766</v>
+        <v>-0.01247581372136387</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.1997520172627533</v>
+        <v>0.1948107330895401</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09308088888014202</v>
+        <v>0.08027673379716359</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04580064229069376</v>
+        <v>0.04823877842616512</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09140636653736858</v>
+        <v>0.03460998759616685</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02333317195237634</v>
+        <v>0.002322134843853077</v>
       </c>
       <c r="J39" t="n">
-        <v>0.006835190642852908</v>
+        <v>0.01606579282501108</v>
       </c>
       <c r="K39" t="n">
-        <v>0.01518762925381121</v>
+        <v>0.0284611573250944</v>
       </c>
       <c r="L39" t="n">
-        <v>0.05998229064538089</v>
+        <v>0.06968161217035981</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1128022264982958</v>
+        <v>0.05218664762501346</v>
       </c>
       <c r="N39" t="n">
-        <v>0.001143593690355759</v>
+        <v>0.02395705166845478</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01448354389272143</v>
+        <v>0.01034404714231968</v>
       </c>
       <c r="P39" t="n">
-        <v>0.06820797087041143</v>
+        <v>0.07466227172101565</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.006221033038632392</v>
+        <v>0.009751069664221429</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02878865527535788</v>
+        <v>0.02942395940653123</v>
       </c>
       <c r="S39" t="n">
-        <v>0.06762790667349995</v>
+        <v>0.05625620670937672</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02530228894678603</v>
+        <v>0.07618009644250731</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1088492461147086</v>
+        <v>0.03827356001064261</v>
       </c>
       <c r="V39" t="n">
-        <v>0.08782028136838857</v>
+        <v>0.0803519566935087</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03122653478908542</v>
+        <v>0.06655695396636821</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01870482516043735</v>
+        <v>0.06678717595552822</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.01509779690639535</v>
+        <v>0.01173428145012171</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0697505643631975</v>
+        <v>0.08045754430775562</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.006231436015231147</v>
+        <v>0.02021086619728705</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.002115916193869707</v>
+        <v>0.02321011405553389</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.00551830619617054</v>
+        <v>-0.03503784162529756</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.198903917550625</v>
+        <v>0.1979322321969676</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02189379927093394</v>
+        <v>0.01026151121185878</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0957021044852414</v>
+        <v>0.09031450801567631</v>
       </c>
       <c r="H40" t="n">
-        <v>0.09178084895187959</v>
+        <v>0.006207736338763111</v>
       </c>
       <c r="I40" t="n">
-        <v>0.006506834421835909</v>
+        <v>0.01724749087371736</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01209545094276522</v>
+        <v>0.02157658886789385</v>
       </c>
       <c r="K40" t="n">
-        <v>0.001775293978887749</v>
+        <v>0.03207208886022225</v>
       </c>
       <c r="L40" t="n">
-        <v>0.06142698924400811</v>
+        <v>0.01087075294562629</v>
       </c>
       <c r="M40" t="n">
-        <v>0.08460915406592785</v>
+        <v>0.04060422835310824</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01044463876551047</v>
+        <v>0.01289005041697765</v>
       </c>
       <c r="O40" t="n">
-        <v>0.04868212081402553</v>
+        <v>0.07584339768413483</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01754813345846611</v>
+        <v>0.02705638500957414</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02958737266198052</v>
+        <v>0.02847345055491593</v>
       </c>
       <c r="R40" t="n">
-        <v>0.06371564025313142</v>
+        <v>0.07432705245912247</v>
       </c>
       <c r="S40" t="n">
-        <v>0.04378081661123368</v>
+        <v>0.06027233198399233</v>
       </c>
       <c r="T40" t="n">
-        <v>0.06099343634287564</v>
+        <v>0.01995703901770002</v>
       </c>
       <c r="U40" t="n">
-        <v>0.001825419472995994</v>
+        <v>0.0817299816614049</v>
       </c>
       <c r="V40" t="n">
-        <v>0.02413109154668686</v>
+        <v>0.04899752376926517</v>
       </c>
       <c r="W40" t="n">
-        <v>0.07436992134041863</v>
+        <v>0.09281804458810881</v>
       </c>
       <c r="X40" t="n">
-        <v>0.08973165278479948</v>
+        <v>0.09418534103192709</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.01209189618111913</v>
+        <v>0.01565481190352844</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.07972890752128838</v>
+        <v>0.09342480987476333</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.04408068679492436</v>
+        <v>0.02290354104995717</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.02349779008906395</v>
+        <v>0.02231133352776149</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1550405278804526</v>
+        <v>0.1272225312727454</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2197555490340662</v>
+        <v>0.2290249803214207</v>
       </c>
       <c r="F41" t="n">
-        <v>0.103670562523727</v>
+        <v>0.1318631214527912</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07473129566577602</v>
+        <v>0.01897422093112889</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0110839956992015</v>
+        <v>0.002889315813533239</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05951326307951702</v>
+        <v>0.01487757788072134</v>
       </c>
       <c r="J41" t="n">
-        <v>0.002729800444748806</v>
+        <v>0.006217012472720602</v>
       </c>
       <c r="K41" t="n">
-        <v>0.04182314297450594</v>
+        <v>0.03472088723095861</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02400296696210774</v>
+        <v>0.04461534275595208</v>
       </c>
       <c r="M41" t="n">
-        <v>0.07378427748865712</v>
+        <v>0.08510218274381283</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01090014986867087</v>
+        <v>0.04745013493829547</v>
       </c>
       <c r="O41" t="n">
-        <v>0.05064287941434204</v>
+        <v>0.05109711561702678</v>
       </c>
       <c r="P41" t="n">
-        <v>0.06343344500248625</v>
+        <v>0.00691379808830471</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.02476794875271843</v>
+        <v>0.02897098315231972</v>
       </c>
       <c r="R41" t="n">
-        <v>0.01093488104231808</v>
+        <v>0.006266911730160636</v>
       </c>
       <c r="S41" t="n">
-        <v>0.08938588695355046</v>
+        <v>0.05267219233905191</v>
       </c>
       <c r="T41" t="n">
-        <v>0.09493910886011245</v>
+        <v>0.06317594536037235</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08471313033400801</v>
+        <v>0.06178500859191761</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0480154838670864</v>
+        <v>0.08898853743871767</v>
       </c>
       <c r="W41" t="n">
-        <v>0.03811146376966604</v>
+        <v>0.02863214966999316</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01155057960874475</v>
+        <v>0.03023487700706642</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.005303590410233605</v>
+        <v>0.01315183098861656</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.03404891223685817</v>
+        <v>0.05382843112883368</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.04153358513959545</v>
+        <v>0.1220737249803429</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0003796499013678313</v>
+        <v>0.005498697687361593</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1345867270597043</v>
+        <v>0.1558683796813407</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2138592809835877</v>
+        <v>0.2154967526026943</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01843144191653417</v>
+        <v>0.0204023720579398</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07072555093518325</v>
+        <v>0.05625588881279809</v>
       </c>
       <c r="H42" t="n">
-        <v>0.006579949065928769</v>
+        <v>0.03649914273720573</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02123382410006705</v>
+        <v>0.08914676902429433</v>
       </c>
       <c r="J42" t="n">
-        <v>0.06482311873187047</v>
+        <v>0.08103479544095883</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01775756626499026</v>
+        <v>0.06510853721256925</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03045788068138828</v>
+        <v>0.02101877215220369</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09770517873198534</v>
+        <v>0.08292351325055099</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01990299636193383</v>
+        <v>0.003984002173149593</v>
       </c>
       <c r="O42" t="n">
-        <v>0.009676792935590416</v>
+        <v>0.00369799734799895</v>
       </c>
       <c r="P42" t="n">
-        <v>0.05212997040517907</v>
+        <v>0.07390100073468041</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0598790008978075</v>
+        <v>0.04575175783801878</v>
       </c>
       <c r="R42" t="n">
-        <v>0.07737730491532875</v>
+        <v>0.06124352716779405</v>
       </c>
       <c r="S42" t="n">
-        <v>0.02621593803700072</v>
+        <v>0.01929047766400244</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0004711939766545518</v>
+        <v>0.01685352847471673</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08297601976407692</v>
+        <v>0.02357657600649992</v>
       </c>
       <c r="V42" t="n">
-        <v>0.03356170801032244</v>
+        <v>0.01415572268303736</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07826938780952467</v>
+        <v>0.006183780706925004</v>
       </c>
       <c r="X42" t="n">
-        <v>0.06510606214013202</v>
+        <v>0.09138784411872107</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0469940011109331</v>
+        <v>0.01150093695732461</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.03265617667088466</v>
+        <v>0.07026922299392718</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.07928907075400266</v>
+        <v>0.09924790756394224</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.007779865782681197</v>
+        <v>0.006565926880741073</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.06084472567608996</v>
+        <v>0.03960050263682657</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2698974700898278</v>
+        <v>0.354728531618702</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08150576161956849</v>
+        <v>0.1013211918082313</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04959507112213297</v>
+        <v>0.01975933641066413</v>
       </c>
       <c r="H43" t="n">
-        <v>0.08666807220057635</v>
+        <v>0.02825463778870428</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01355094498105141</v>
+        <v>0.06529689276205906</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01146895580729705</v>
+        <v>0.02562319736955002</v>
       </c>
       <c r="K43" t="n">
-        <v>0.06458598979100211</v>
+        <v>0.0602760443085484</v>
       </c>
       <c r="L43" t="n">
-        <v>0.02433597687842006</v>
+        <v>0.006291724543827653</v>
       </c>
       <c r="M43" t="n">
-        <v>0.009463639510620604</v>
+        <v>0.0026355622067225</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01102349461440188</v>
+        <v>0.02189405910349659</v>
       </c>
       <c r="O43" t="n">
-        <v>0.03697440665164754</v>
+        <v>0.1060039972712338</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0279608139826416</v>
+        <v>0.006793737158736562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.006468826427014507</v>
+        <v>0.003918908628009478</v>
       </c>
       <c r="R43" t="n">
-        <v>0.06421575206745612</v>
+        <v>0.04076276172076203</v>
       </c>
       <c r="S43" t="n">
-        <v>0.04492458080297884</v>
+        <v>0.00964677380454192</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0360788890604055</v>
+        <v>0.06383807889649402</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02142495877883178</v>
+        <v>0.01908938511169622</v>
       </c>
       <c r="V43" t="n">
-        <v>0.08848185620577634</v>
+        <v>0.10029944249774</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0676969440701632</v>
+        <v>0.02406390003523995</v>
       </c>
       <c r="X43" t="n">
-        <v>0.05212507315576898</v>
+        <v>0.002453910476088996</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.08076930358052531</v>
+        <v>0.1089303183805963</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.001313581536542211</v>
+        <v>0.02701295009934859</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.09644243191991116</v>
+        <v>0.07524316827033324</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.02292467523526607</v>
+        <v>0.08059002134737499</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.05019213739977633</v>
+        <v>0.07230136851666458</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1926825580829684</v>
+        <v>0.1917482559948158</v>
       </c>
       <c r="F44" t="n">
-        <v>0.005358446407358579</v>
+        <v>0.0112240873212122</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04166915252282894</v>
+        <v>0.0466906207269083</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0628513861130863</v>
+        <v>0.06446906231216032</v>
       </c>
       <c r="I44" t="n">
-        <v>0.07423428777986933</v>
+        <v>0.06133472829457573</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02643638409729838</v>
+        <v>0.07296068389210481</v>
       </c>
       <c r="K44" t="n">
-        <v>0.02294542184667525</v>
+        <v>0.03051217248127052</v>
       </c>
       <c r="L44" t="n">
-        <v>0.000117254723211599</v>
+        <v>0.009950628995346681</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09090497730091116</v>
+        <v>0.07852664001387064</v>
       </c>
       <c r="N44" t="n">
-        <v>0.02202273858815827</v>
+        <v>0.00621047746361784</v>
       </c>
       <c r="O44" t="n">
-        <v>0.08225256961971844</v>
+        <v>0.0648616009362866</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0531694030526555</v>
+        <v>0.02093804184407601</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.05842659305390675</v>
+        <v>0.01008678291141943</v>
       </c>
       <c r="R44" t="n">
-        <v>0.00533149083840474</v>
+        <v>0.032946474053894</v>
       </c>
       <c r="S44" t="n">
-        <v>0.08398337717481652</v>
+        <v>0.0563091147647445</v>
       </c>
       <c r="T44" t="n">
-        <v>0.05915082108987933</v>
+        <v>0.06427412803691376</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0327296518930593</v>
+        <v>0.04598013696339542</v>
       </c>
       <c r="V44" t="n">
-        <v>0.001696621735339031</v>
+        <v>0.003550087854980873</v>
       </c>
       <c r="W44" t="n">
-        <v>0.020603521747984</v>
+        <v>0.01150093781170574</v>
       </c>
       <c r="X44" t="n">
-        <v>0.08780930111411407</v>
+        <v>0.05846221908585657</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.04087072105801661</v>
+        <v>0.03154660536171355</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.01954003182048718</v>
+        <v>0.06892155737732342</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.06263617627555655</v>
+        <v>0.07484109210342331</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.04525967014666431</v>
+        <v>0.07390211939319975</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.0175896988863587</v>
+        <v>0.03065116904809738</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.216843967791769</v>
+        <v>0.2096670676478517</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0472110128367438</v>
+        <v>0.02424111219765858</v>
       </c>
       <c r="G45" t="n">
-        <v>0.06195282349875655</v>
+        <v>0.05708144274453826</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09275677755238471</v>
+        <v>0.04838588608305137</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01493486072042686</v>
+        <v>0.01191545163220008</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01797149679701488</v>
+        <v>0.004668502718925585</v>
       </c>
       <c r="K45" t="n">
-        <v>0.004408935635023492</v>
+        <v>0.003632474966131428</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0009397914635368722</v>
+        <v>0.005025518338062838</v>
       </c>
       <c r="M45" t="n">
-        <v>0.008752611803479467</v>
+        <v>0.09132143169075559</v>
       </c>
       <c r="N45" t="n">
-        <v>0.004365653282440329</v>
+        <v>0.05755252697258924</v>
       </c>
       <c r="O45" t="n">
-        <v>0.04834653321807758</v>
+        <v>0.04448059504771325</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0363460763862732</v>
+        <v>0.02504945544243785</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.06918173575185151</v>
+        <v>0.06316749690304568</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05448032132609376</v>
+        <v>0.04834686959462547</v>
       </c>
       <c r="S45" t="n">
-        <v>0.02960644787527789</v>
+        <v>0.09164280493269447</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0768596659849856</v>
+        <v>0.009637969479470742</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06941709316715204</v>
+        <v>0.03190845225906418</v>
       </c>
       <c r="V45" t="n">
-        <v>0.005372862185866671</v>
+        <v>0.006105755992934636</v>
       </c>
       <c r="W45" t="n">
-        <v>0.03241789340663549</v>
+        <v>0.007074424620505538</v>
       </c>
       <c r="X45" t="n">
-        <v>0.07763553529418918</v>
+        <v>0.02436452137170292</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.09716200486013543</v>
+        <v>0.09032926293932708</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.01842418724014486</v>
+        <v>0.07536225885088038</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.1016212842149962</v>
+        <v>0.08754354043601577</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0298343954985136</v>
+        <v>0.09116224478566903</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.01517207453426739</v>
+        <v>0.02291328482669539</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1523082514571807</v>
+        <v>0.1533195670405502</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07227140982839347</v>
+        <v>0.08583838296025166</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05099907611997063</v>
+        <v>0.0004152557613357299</v>
       </c>
       <c r="H46" t="n">
-        <v>0.07768023270466946</v>
+        <v>0.05376956170895349</v>
       </c>
       <c r="I46" t="n">
-        <v>0.04446940039878847</v>
+        <v>0.005141085333441497</v>
       </c>
       <c r="J46" t="n">
-        <v>0.037222246185015</v>
+        <v>0.03363165805245483</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02788987385128774</v>
+        <v>0.01078965731655455</v>
       </c>
       <c r="L46" t="n">
-        <v>0.06011675523807909</v>
+        <v>0.08390092281230879</v>
       </c>
       <c r="M46" t="n">
-        <v>0.08231519864937106</v>
+        <v>0.04417435402457938</v>
       </c>
       <c r="N46" t="n">
-        <v>0.002220267758633575</v>
+        <v>0.01125293192295067</v>
       </c>
       <c r="O46" t="n">
-        <v>0.03278263691263318</v>
+        <v>0.00217338677782172</v>
       </c>
       <c r="P46" t="n">
-        <v>0.07146170546346528</v>
+        <v>0.03728708238458114</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.05176407842189822</v>
+        <v>0.06456359407629247</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07401501888017165</v>
+        <v>0.08239121679038264</v>
       </c>
       <c r="S46" t="n">
-        <v>0.02687176551323623</v>
+        <v>0.0637205557504085</v>
       </c>
       <c r="T46" t="n">
-        <v>0.008914140979783151</v>
+        <v>0.0229976132035412</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03706392148466935</v>
+        <v>0.08428427062225873</v>
       </c>
       <c r="V46" t="n">
-        <v>0.03756693781728038</v>
+        <v>0.02229828145745099</v>
       </c>
       <c r="W46" t="n">
-        <v>0.07010821638246759</v>
+        <v>0.108281388989683</v>
       </c>
       <c r="X46" t="n">
-        <v>0.06647667251961255</v>
+        <v>0.0777096105609198</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.003344836231894972</v>
+        <v>0.01778806511560093</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.001517730315310111</v>
+        <v>0.02755610091806108</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.03977427934698487</v>
+        <v>0.04187087949667253</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.02315359899638388</v>
+        <v>0.01816414396349501</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.04730867865013868</v>
+        <v>-0.03469376567376054</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1817850471029996</v>
+        <v>0.1724918390393221</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08893901411091695</v>
+        <v>0.08798494295597191</v>
       </c>
       <c r="G47" t="n">
-        <v>0.09009737363963256</v>
+        <v>0.07915639525729949</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01267558803613317</v>
+        <v>0.01193340235628349</v>
       </c>
       <c r="I47" t="n">
-        <v>0.04976743027177721</v>
+        <v>0.04181724610285308</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01596404686698529</v>
+        <v>0.01170579874363604</v>
       </c>
       <c r="K47" t="n">
-        <v>0.01904413270389165</v>
+        <v>0.08115188257526589</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0007170670660513801</v>
+        <v>0.03771099150236309</v>
       </c>
       <c r="M47" t="n">
-        <v>0.08881454520898016</v>
+        <v>0.09587399461182745</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01050492160487842</v>
+        <v>0.008118876236136071</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1005222369502412</v>
+        <v>0.00364074494137959</v>
       </c>
       <c r="P47" t="n">
-        <v>0.004433380615073059</v>
+        <v>0.01840553541534007</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.02432068490426026</v>
+        <v>0.05747905771296999</v>
       </c>
       <c r="R47" t="n">
-        <v>0.09388772800665941</v>
+        <v>0.0904398001612029</v>
       </c>
       <c r="S47" t="n">
-        <v>0.02383601754804613</v>
+        <v>0.002388145917523647</v>
       </c>
       <c r="T47" t="n">
-        <v>0.01008262977213196</v>
+        <v>0.01161577328190237</v>
       </c>
       <c r="U47" t="n">
-        <v>0.03110692853267551</v>
+        <v>0.04747190275373241</v>
       </c>
       <c r="V47" t="n">
-        <v>0.06456291310760581</v>
+        <v>0.05059351028086351</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03433146506651622</v>
+        <v>0.03497025714703917</v>
       </c>
       <c r="X47" t="n">
-        <v>0.02762183135696626</v>
+        <v>0.008120282895657294</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03506746391389446</v>
+        <v>0.008931831137953341</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0785669349753231</v>
+        <v>0.09704010327978514</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.01725478184304221</v>
+        <v>0.06548814381416412</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.07788088389831775</v>
+        <v>0.04796138091884995</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.04220948004513633</v>
+        <v>-0.02288662598077324</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1180700032282003</v>
+        <v>0.1179201698860193</v>
       </c>
       <c r="F48" t="n">
-        <v>0.005493457764379392</v>
+        <v>0.01133812808239665</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06905508625512574</v>
+        <v>0.04737010828633396</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01600515211048454</v>
+        <v>0.009019274026133953</v>
       </c>
       <c r="I48" t="n">
-        <v>0.05611294488731638</v>
+        <v>0.02982380431813607</v>
       </c>
       <c r="J48" t="n">
-        <v>0.02672661329979568</v>
+        <v>0.07706848321212714</v>
       </c>
       <c r="K48" t="n">
-        <v>0.00167601591239884</v>
+        <v>0.01089617705446826</v>
       </c>
       <c r="L48" t="n">
-        <v>0.06819449964060774</v>
+        <v>0.05457726056619746</v>
       </c>
       <c r="M48" t="n">
-        <v>0.08819400923578868</v>
+        <v>0.08028506414382815</v>
       </c>
       <c r="N48" t="n">
-        <v>0.004175698476657971</v>
+        <v>0.01433384593575028</v>
       </c>
       <c r="O48" t="n">
-        <v>0.009191915543645306</v>
+        <v>0.05258566864804112</v>
       </c>
       <c r="P48" t="n">
-        <v>0.08641391683700866</v>
+        <v>0.07699653155326452</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03613567249589854</v>
+        <v>0.05189565775839226</v>
       </c>
       <c r="R48" t="n">
-        <v>0.04305265091275281</v>
+        <v>0.08518729647011607</v>
       </c>
       <c r="S48" t="n">
-        <v>0.03480144334621672</v>
+        <v>0.03822468572925775</v>
       </c>
       <c r="T48" t="n">
-        <v>0.02739393411663918</v>
+        <v>0.009799369716288201</v>
       </c>
       <c r="U48" t="n">
-        <v>0.06856285803861366</v>
+        <v>0.04171138866597742</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01089728537191938</v>
+        <v>0.004574325766210534</v>
       </c>
       <c r="W48" t="n">
-        <v>0.09401731894441716</v>
+        <v>0.08403143812925383</v>
       </c>
       <c r="X48" t="n">
-        <v>0.04794873821244251</v>
+        <v>0.01650809853754236</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.07422300552288057</v>
+        <v>0.06838909271408683</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.03828933470545558</v>
+        <v>0.05944693884980548</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0651936600999562</v>
+        <v>0.01361100840553093</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.02824478826959896</v>
+        <v>0.0623263534308607</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.109997798354968</v>
+        <v>-0.1208150834097541</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1245518810650185</v>
+        <v>0.1406423820497851</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01937558995598012</v>
+        <v>0.07909739128864812</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05773714232662938</v>
+        <v>0.07942218754187029</v>
       </c>
       <c r="H49" t="n">
-        <v>0.005656138767816734</v>
+        <v>0.001127763060573631</v>
       </c>
       <c r="I49" t="n">
-        <v>0.06642009792250239</v>
+        <v>0.01008050119371638</v>
       </c>
       <c r="J49" t="n">
-        <v>0.006695578027509842</v>
+        <v>0.001947704146261615</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0007454179655159467</v>
+        <v>0.05444916826933989</v>
       </c>
       <c r="L49" t="n">
-        <v>0.03530435871845188</v>
+        <v>0.01572173453815593</v>
       </c>
       <c r="M49" t="n">
-        <v>0.09153193020410663</v>
+        <v>0.09357292877535199</v>
       </c>
       <c r="N49" t="n">
-        <v>0.00418343680336521</v>
+        <v>0.02389673436688398</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0545284789392604</v>
+        <v>0.01365184007432217</v>
       </c>
       <c r="P49" t="n">
-        <v>0.01255536645011597</v>
+        <v>0.002068646343953182</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.08661024853435077</v>
+        <v>0.05981090172896438</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0388227472976267</v>
+        <v>0.02242521951991171</v>
       </c>
       <c r="S49" t="n">
-        <v>0.02986428041484128</v>
+        <v>0.0157344083805872</v>
       </c>
       <c r="T49" t="n">
-        <v>0.01286376982004652</v>
+        <v>0.06444615475836359</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0693983750141605</v>
+        <v>0.01231925505711991</v>
       </c>
       <c r="V49" t="n">
-        <v>0.02656419473237643</v>
+        <v>0.005703658980084051</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02545672216954446</v>
+        <v>0.08750227298011716</v>
       </c>
       <c r="X49" t="n">
-        <v>0.08863776811969563</v>
+        <v>0.009078429814054717</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.08288811595306958</v>
+        <v>0.0763676502134612</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.08586700573598972</v>
+        <v>0.09449953342889883</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.05843494275513587</v>
+        <v>0.0906726382782118</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.03985829337190816</v>
+        <v>0.08640327726114833</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.1240440186921968</v>
+        <v>-0.115229025422366</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.119921700637039</v>
+        <v>0.1212863991847419</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0009523278112594875</v>
+        <v>0.03079892930426382</v>
       </c>
       <c r="G50" t="n">
-        <v>0.009872812139368029</v>
+        <v>0.04160358923412582</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06062792100557492</v>
+        <v>0.0615377392932821</v>
       </c>
       <c r="I50" t="n">
-        <v>0.000825701780144911</v>
+        <v>0.006144053769532407</v>
       </c>
       <c r="J50" t="n">
-        <v>0.02161438176312433</v>
+        <v>0.06705133116402055</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0005810852182823619</v>
+        <v>0.03689270871672964</v>
       </c>
       <c r="L50" t="n">
-        <v>0.05861409962581207</v>
+        <v>0.009222128390830383</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06213408955555218</v>
+        <v>0.1031837722818389</v>
       </c>
       <c r="N50" t="n">
-        <v>0.02596251582337127</v>
+        <v>0.003321629387427898</v>
       </c>
       <c r="O50" t="n">
-        <v>0.06359946444211111</v>
+        <v>0.01498483277041687</v>
       </c>
       <c r="P50" t="n">
-        <v>0.1045657050240913</v>
+        <v>0.09301373928012237</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.009168739670142451</v>
+        <v>0.007012662146679449</v>
       </c>
       <c r="R50" t="n">
-        <v>0.07633266470655208</v>
+        <v>0.07265826755687824</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03419367797548453</v>
+        <v>0.01114658501737961</v>
       </c>
       <c r="T50" t="n">
-        <v>0.04748754846524127</v>
+        <v>0.07433349037533143</v>
       </c>
       <c r="U50" t="n">
-        <v>0.0981072849370848</v>
+        <v>0.09310506331442214</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0001045055541264458</v>
+        <v>0.06606394141607841</v>
       </c>
       <c r="W50" t="n">
-        <v>0.07980954294634877</v>
+        <v>0.09642882396931646</v>
       </c>
       <c r="X50" t="n">
-        <v>0.1139014948362219</v>
+        <v>0.0017712361721562</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.005626296894366517</v>
+        <v>0.01179766175028618</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.05457705854703644</v>
+        <v>0.008705311448390389</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.0669432238323473</v>
+        <v>0.05676926107617535</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.004397857446355615</v>
+        <v>0.03245324216431529</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1053878828021463</v>
+        <v>0.08714110998930936</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.4034506128486845</v>
+        <v>0.4384766336577504</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02368237015821925</v>
+        <v>0.07527404495419078</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08327303036785616</v>
+        <v>0.09834420611399153</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05917065267202674</v>
+        <v>0.02730703478517112</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02191992301265437</v>
+        <v>0.02009859910815633</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07336769783545086</v>
+        <v>0.08913659975214994</v>
       </c>
       <c r="K51" t="n">
-        <v>0.007519700665098882</v>
+        <v>0.0231024403743511</v>
       </c>
       <c r="L51" t="n">
-        <v>0.008491021775829064</v>
+        <v>0.01028448295193113</v>
       </c>
       <c r="M51" t="n">
-        <v>0.05849496932537175</v>
+        <v>0.05249793257277413</v>
       </c>
       <c r="N51" t="n">
-        <v>0.05012108068013257</v>
+        <v>0.00197743290197131</v>
       </c>
       <c r="O51" t="n">
-        <v>4.486892125559987e-05</v>
+        <v>0.005109414825813854</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01528228003927277</v>
+        <v>0.01122269461046311</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.1032620427224522</v>
+        <v>0.1126580086768451</v>
       </c>
       <c r="R51" t="n">
-        <v>0.01477280309859636</v>
+        <v>0.08867448746966985</v>
       </c>
       <c r="S51" t="n">
-        <v>0.03533488236982862</v>
+        <v>0.005292603298056755</v>
       </c>
       <c r="T51" t="n">
-        <v>0.003503723102514279</v>
+        <v>0.03720202459210702</v>
       </c>
       <c r="U51" t="n">
-        <v>0.0682814475598896</v>
+        <v>0.0585027095708088</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02494260976314493</v>
+        <v>0.02571029415629136</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08132625227285678</v>
+        <v>0.07803088203949834</v>
       </c>
       <c r="X51" t="n">
-        <v>0.06884539368719249</v>
+        <v>0.02743837568363589</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.06838787843960858</v>
+        <v>0.05936518458279708</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.01800092707424166</v>
+        <v>0.006135881848103048</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.02695341911069781</v>
+        <v>0.05730616757119455</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.08502102534580888</v>
+        <v>0.02932849756002806</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.08093681869259406</v>
+        <v>0.1134302532499808</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1189508437150759</v>
+        <v>0.1180036887293219</v>
       </c>
       <c r="F52" t="n">
-        <v>0.005636863648197865</v>
+        <v>0.01079629859329255</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1010987990473799</v>
+        <v>0.05938233314965206</v>
       </c>
       <c r="H52" t="n">
-        <v>0.03800107909923216</v>
+        <v>0.03223682859267507</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01672804141009537</v>
+        <v>0.07108502740089997</v>
       </c>
       <c r="J52" t="n">
-        <v>0.04018607166786163</v>
+        <v>0.05442679524756659</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01068677921434635</v>
+        <v>0.005112347046750379</v>
       </c>
       <c r="L52" t="n">
-        <v>0.06013758799248037</v>
+        <v>0.02972306059223341</v>
       </c>
       <c r="M52" t="n">
-        <v>0.06292511089669854</v>
+        <v>0.05312037926833028</v>
       </c>
       <c r="N52" t="n">
-        <v>0.05209277628368306</v>
+        <v>0.03742439254240741</v>
       </c>
       <c r="O52" t="n">
-        <v>0.007385717614263771</v>
+        <v>0.01868492218239691</v>
       </c>
       <c r="P52" t="n">
-        <v>0.06420672141385146</v>
+        <v>0.06479806245786111</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.09656883832710066</v>
+        <v>0.08726085751530446</v>
       </c>
       <c r="R52" t="n">
-        <v>0.03542235215380035</v>
+        <v>0.07774636474925252</v>
       </c>
       <c r="S52" t="n">
-        <v>0.02959554099770223</v>
+        <v>0.005221000194343814</v>
       </c>
       <c r="T52" t="n">
-        <v>0.03600193658023763</v>
+        <v>0.02456183055626487</v>
       </c>
       <c r="U52" t="n">
-        <v>0.1001737882771506</v>
+        <v>0.08734770658120106</v>
       </c>
       <c r="V52" t="n">
-        <v>0.02650663392429807</v>
+        <v>0.01753022344276133</v>
       </c>
       <c r="W52" t="n">
-        <v>0.07312930087055416</v>
+        <v>0.08985561883057495</v>
       </c>
       <c r="X52" t="n">
-        <v>0.05444683950739171</v>
+        <v>0.07539309340272111</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.007376434091241237</v>
+        <v>0.005020508887913659</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.01476279988700132</v>
+        <v>0.02664769412362984</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.04696428296681165</v>
+        <v>0.03238274642356393</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01996570412861962</v>
+        <v>0.03424190821840287</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0502435763729707</v>
+        <v>0.06152233664544582</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1638221074663479</v>
+        <v>0.1501718374387556</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08862979544325013</v>
+        <v>0.09053044277404775</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09177949808308192</v>
+        <v>0.06906585585789081</v>
       </c>
       <c r="H53" t="n">
-        <v>0.003024650312731719</v>
+        <v>0.02059825421535056</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01342268506426916</v>
+        <v>0.03325319908868334</v>
       </c>
       <c r="J53" t="n">
-        <v>0.00127126408952104</v>
+        <v>0.00179107547458631</v>
       </c>
       <c r="K53" t="n">
-        <v>0.03489689607247098</v>
+        <v>0.05014051117144992</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0332038961300228</v>
+        <v>0.02134824281211906</v>
       </c>
       <c r="M53" t="n">
-        <v>0.06143229152591604</v>
+        <v>0.08484140393500475</v>
       </c>
       <c r="N53" t="n">
-        <v>0.09872678557202341</v>
+        <v>0.01877305710973068</v>
       </c>
       <c r="O53" t="n">
-        <v>0.02007173767343321</v>
+        <v>0.06020725358255628</v>
       </c>
       <c r="P53" t="n">
-        <v>0.08812687652904921</v>
+        <v>0.0167098057849866</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.05229854434984774</v>
+        <v>0.03043587098333788</v>
       </c>
       <c r="R53" t="n">
-        <v>0.01572495307406655</v>
+        <v>0.03024224668264112</v>
       </c>
       <c r="S53" t="n">
-        <v>0.008591942685129245</v>
+        <v>0.01206110453089664</v>
       </c>
       <c r="T53" t="n">
-        <v>0.03654209938426427</v>
+        <v>0.009122301576194732</v>
       </c>
       <c r="U53" t="n">
-        <v>0.01913120470112432</v>
+        <v>0.05751952321848335</v>
       </c>
       <c r="V53" t="n">
-        <v>0.000426831694935723</v>
+        <v>0.000625881341079639</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01787830446439353</v>
+        <v>0.08057336588454508</v>
       </c>
       <c r="X53" t="n">
-        <v>0.03224987391219922</v>
+        <v>0.07102363972554047</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1020297324270557</v>
+        <v>0.09038360778899918</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.1010499345867176</v>
+        <v>0.04513516473355063</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.009229257939969641</v>
+        <v>0.02023312146706168</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.07026094428452673</v>
+        <v>0.08538507026126352</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.0503854953393062</v>
+        <v>0.0826345111258542</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1449519209951048</v>
+        <v>0.144652702283715</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03551270289492504</v>
+        <v>0.007845731193688048</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07839123688305871</v>
+        <v>0.01013306517600489</v>
       </c>
       <c r="H54" t="n">
-        <v>0.07049313696594543</v>
+        <v>0.04324113078348458</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01511483594692167</v>
+        <v>0.06262363841520185</v>
       </c>
       <c r="J54" t="n">
-        <v>0.08929041940588979</v>
+        <v>0.06427059280666472</v>
       </c>
       <c r="K54" t="n">
-        <v>0.02240966408774253</v>
+        <v>0.01258810740909302</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05901828619862108</v>
+        <v>0.09994675799061721</v>
       </c>
       <c r="M54" t="n">
-        <v>0.06105677107433267</v>
+        <v>0.05752868561319281</v>
       </c>
       <c r="N54" t="n">
-        <v>0.01666442942330853</v>
+        <v>0.00115012850386853</v>
       </c>
       <c r="O54" t="n">
-        <v>0.02393234264724472</v>
+        <v>0.04205413342903153</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04561884502422931</v>
+        <v>0.003039967375115511</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.08847475841000423</v>
+        <v>0.08110600723744887</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06647925828046486</v>
+        <v>0.09637610840323027</v>
       </c>
       <c r="S54" t="n">
-        <v>0.01074050734887294</v>
+        <v>0.00884742809260357</v>
       </c>
       <c r="T54" t="n">
-        <v>0.001244869974086631</v>
+        <v>0.005820263105028134</v>
       </c>
       <c r="U54" t="n">
-        <v>0.05879870547908705</v>
+        <v>0.08439044532260105</v>
       </c>
       <c r="V54" t="n">
-        <v>0.01530144121981398</v>
+        <v>0.02614439383940436</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07620850830002954</v>
+        <v>0.08526625459863543</v>
       </c>
       <c r="X54" t="n">
-        <v>0.05048962715407406</v>
+        <v>0.01147887338700352</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07257490767794797</v>
+        <v>0.1007371176628415</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.002169320442314301</v>
+        <v>0.01781019255869457</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.01552999138916583</v>
+        <v>0.07385838930097012</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.02448543377191931</v>
+        <v>0.003742587795575669</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.09246111151462176</v>
+        <v>-0.06681443655767105</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1688313735612228</v>
+        <v>0.155398068544888</v>
       </c>
       <c r="F55" t="n">
-        <v>0.08197907657316791</v>
+        <v>0.07598413029972789</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05615256670147627</v>
+        <v>0.0722716114253987</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07496954543252657</v>
+        <v>0.08898366889367891</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01634084514230072</v>
+        <v>0.01748789770654485</v>
       </c>
       <c r="J55" t="n">
-        <v>0.04559873832600939</v>
+        <v>0.06066456873646262</v>
       </c>
       <c r="K55" t="n">
-        <v>0.002899075648092469</v>
+        <v>0.001141659458657162</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01614503562685885</v>
+        <v>0.01346947571762379</v>
       </c>
       <c r="M55" t="n">
-        <v>0.08013643265054247</v>
+        <v>0.1101291161973414</v>
       </c>
       <c r="N55" t="n">
-        <v>0.04242434633875618</v>
+        <v>0.0186267170016669</v>
       </c>
       <c r="O55" t="n">
-        <v>0.07991581208848825</v>
+        <v>0.01065196256880398</v>
       </c>
       <c r="P55" t="n">
-        <v>0.000305205281479299</v>
+        <v>0.06301971179529074</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.05149357722798806</v>
+        <v>0.08255189409085596</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0444751867098503</v>
+        <v>0.02844951197705658</v>
       </c>
       <c r="S55" t="n">
-        <v>0.009459218488024926</v>
+        <v>0.01258566836403547</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03737425363337848</v>
+        <v>0.01515137443300381</v>
       </c>
       <c r="U55" t="n">
-        <v>0.0174737842229967</v>
+        <v>0.008631126282702597</v>
       </c>
       <c r="V55" t="n">
-        <v>0.002912796350985923</v>
+        <v>0.003838594251709957</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0879960275454628</v>
+        <v>0.105696937026845</v>
       </c>
       <c r="X55" t="n">
-        <v>0.06740489260680317</v>
+        <v>0.04160860768624848</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.04777303952219352</v>
+        <v>0.09059815308602413</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.07072949399923809</v>
+        <v>0.0409972606733678</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.05054893802355166</v>
+        <v>0.005161157358423484</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.01549211185982814</v>
+        <v>0.03229919496852948</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.08397365933765766</v>
+        <v>-0.07234877222006822</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2137080847895879</v>
+        <v>0.2150968187216548</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01744298145156389</v>
+        <v>0.03042480316161014</v>
       </c>
       <c r="G56" t="n">
-        <v>0.008691106643700252</v>
+        <v>0.08072787111026643</v>
       </c>
       <c r="H56" t="n">
-        <v>0.03266344013432467</v>
+        <v>0.0004067773821277005</v>
       </c>
       <c r="I56" t="n">
-        <v>0.005019337323530004</v>
+        <v>0.05421463911038243</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04142793205060253</v>
+        <v>0.03453215052103429</v>
       </c>
       <c r="K56" t="n">
-        <v>0.06562037424490119</v>
+        <v>0.007254225032704752</v>
       </c>
       <c r="L56" t="n">
-        <v>0.001112094543709636</v>
+        <v>0.01107893869460815</v>
       </c>
       <c r="M56" t="n">
-        <v>0.01769445515819671</v>
+        <v>0.01073435972917865</v>
       </c>
       <c r="N56" t="n">
-        <v>0.007304364237650421</v>
+        <v>0.002061568800205074</v>
       </c>
       <c r="O56" t="n">
-        <v>0.09613745255652409</v>
+        <v>0.08739205890437962</v>
       </c>
       <c r="P56" t="n">
-        <v>0.09063100540810065</v>
+        <v>0.06085533941976456</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.09227686948631614</v>
+        <v>0.08687967036905635</v>
       </c>
       <c r="R56" t="n">
-        <v>0.07545640165423323</v>
+        <v>0.06028195235619987</v>
       </c>
       <c r="S56" t="n">
-        <v>0.04641013508411071</v>
+        <v>0.05378972295523724</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0016855229910332</v>
+        <v>0.0882629908822453</v>
       </c>
       <c r="U56" t="n">
-        <v>0.005245495899540889</v>
+        <v>0.05256855655286167</v>
       </c>
       <c r="V56" t="n">
-        <v>0.03388865332516643</v>
+        <v>0.04574835297876284</v>
       </c>
       <c r="W56" t="n">
-        <v>0.08931490518746345</v>
+        <v>0.07988767962270309</v>
       </c>
       <c r="X56" t="n">
-        <v>0.08436996980828455</v>
+        <v>0.04878740516505582</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.03199839494205474</v>
+        <v>0.04089870642266321</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.05409658157588949</v>
+        <v>0.005510223853389487</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.09477490731031464</v>
+        <v>0.05749684600354871</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.006737618982788326</v>
+        <v>0.0002051609720146314</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.09657761222459652</v>
+        <v>0.09498575403203936</v>
       </c>
     </row>
     <row r="57">
@@ -5820,82 +5820,82 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2413085727880366</v>
+        <v>0.2384731086874988</v>
       </c>
       <c r="F57" t="n">
-        <v>0.03155613316326372</v>
+        <v>0.09987415751253582</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04465483759021874</v>
+        <v>0.02942786811302354</v>
       </c>
       <c r="H57" t="n">
-        <v>0.00258887129530006</v>
+        <v>0.01381207354703224</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03034795869162601</v>
+        <v>0.01044600793566178</v>
       </c>
       <c r="J57" t="n">
-        <v>0.02067827924610412</v>
+        <v>0.0282558272120592</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0154087727330527</v>
+        <v>0.04603131046917317</v>
       </c>
       <c r="L57" t="n">
-        <v>0.05502913794279016</v>
+        <v>0.007648447804815451</v>
       </c>
       <c r="M57" t="n">
-        <v>0.07674061085654595</v>
+        <v>0.03049264235601983</v>
       </c>
       <c r="N57" t="n">
-        <v>0.005245543324310955</v>
+        <v>0.03575989494576413</v>
       </c>
       <c r="O57" t="n">
-        <v>0.09078029313988546</v>
+        <v>0.1218500073126542</v>
       </c>
       <c r="P57" t="n">
-        <v>0.02366137149726938</v>
+        <v>0.05178900133145031</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02014184383045757</v>
+        <v>7.059296078899587e-05</v>
       </c>
       <c r="R57" t="n">
-        <v>0.06436971561582711</v>
+        <v>0.07349915646812376</v>
       </c>
       <c r="S57" t="n">
-        <v>0.009694891157114022</v>
+        <v>0.004673134884089946</v>
       </c>
       <c r="T57" t="n">
-        <v>0.007126474953694842</v>
+        <v>0.01873213230437839</v>
       </c>
       <c r="U57" t="n">
-        <v>0.03398703559534926</v>
+        <v>0.02995621671512702</v>
       </c>
       <c r="V57" t="n">
-        <v>0.08489901069714915</v>
+        <v>0.07786620460423328</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03374185864490959</v>
+        <v>0.03625025028772146</v>
       </c>
       <c r="X57" t="n">
-        <v>0.09365324721864074</v>
+        <v>0.1203138893508689</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.09495678785069411</v>
+        <v>0.1092580787935543</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.04186499273946379</v>
+        <v>0.005945628332089192</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.06637781323714712</v>
+        <v>0.03494914517094163</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.05249451897918544</v>
+        <v>0.0130983315878935</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.1155617708395022</v>
+        <v>0.1468825598540809</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>